--- a/maps/SwitchBoardMapping.xlsx
+++ b/maps/SwitchBoardMapping.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas Maier\Documents\HGC_sensor_project\HGCAL_sensor_tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\HGCAL_sensor_tests\maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Probe card HPK 8in" sheetId="4" r:id="rId5"/>
     <sheet name="Probe card HPK 6in" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,9 +52,6 @@
     <t>/eos/user/h/hgsensor/HGCAL test results/Design/Probecard/HPK 8in 256ch/EDA-03620-V1-0_pcb.pdf</t>
   </si>
   <si>
-    <t>/eos/user/h/hgsensor/HGCAL test results/Design/Probecard/HPK 6in 128ch/EDA-03517-V1-0_pcb.pdf</t>
-  </si>
-  <si>
     <t>/eos/user/h/hgsensor/HGCAL test results/Design/Probecard/INF 8in 256ch/EDA-03618-V1-0_pcb.pdf</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>/eos/user/h/hgsensor/HGCAL test results/Design/Probecard/HPK 6in 256ch/EDA-03619-V1-0_pcb.pdf</t>
+  </si>
+  <si>
+    <t>/eos/user/h/hgsensor/HGCAL test results/Design/Probecard/HPK 6in 128ch/EDA-03517-V1-0_sch.pdf</t>
   </si>
 </sst>
 </file>
@@ -365,7 +365,37 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -739,17 +769,17 @@
   <dimension ref="A1:K606"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="25"/>
-    <col min="2" max="2" width="14.59765625" style="28"/>
-    <col min="3" max="16384" width="14.59765625" style="20"/>
+    <col min="1" max="1" width="14.5703125" style="25"/>
+    <col min="2" max="2" width="14.5703125" style="28"/>
+    <col min="3" max="16384" width="14.5703125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="17" customFormat="1" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
@@ -774,7 +804,7 @@
         <v>Probe card HPK 6in 265cells</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="19" customFormat="1" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" s="19" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
@@ -799,7 +829,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>4</v>
       </c>
@@ -824,13 +854,13 @@
       </c>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="28">
         <v>2</v>
       </c>
       <c r="C4" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B4)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B4)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D4" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B4)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B4)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -846,13 +876,13 @@
       </c>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="28">
         <v>3</v>
       </c>
       <c r="C5" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B5)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B5)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D5" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B5)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B5)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -868,7 +898,7 @@
       </c>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="28">
         <v>4</v>
       </c>
@@ -893,13 +923,13 @@
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="28">
         <v>5</v>
       </c>
       <c r="C7" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B7)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B7)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D7" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B7)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B7)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -915,13 +945,13 @@
       </c>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="28">
         <v>6</v>
       </c>
       <c r="C8" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B8)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B8)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D8" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B8)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B8)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -937,7 +967,7 @@
       </c>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="28">
         <v>7</v>
       </c>
@@ -958,13 +988,13 @@
         <v>441</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="28">
         <v>8</v>
       </c>
       <c r="C10" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B10)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B10)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D10" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B10)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B10)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -979,13 +1009,13 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="28">
         <v>9</v>
       </c>
       <c r="C11" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B11)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B11)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D11" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B11)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B11)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1000,13 +1030,13 @@
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="28">
         <v>10</v>
       </c>
       <c r="C12" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B12)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B12)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D12" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B12)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B12)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1021,13 +1051,13 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="28">
         <v>11</v>
       </c>
       <c r="C13" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B13)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B13)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D13" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B13)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B13)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1042,7 +1072,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="28">
         <v>12</v>
       </c>
@@ -1063,13 +1093,13 @@
         <v>364</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="28">
         <v>13</v>
       </c>
       <c r="C15" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B15)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B15)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D15" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B15)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B15)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1084,13 +1114,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="28">
         <v>14</v>
       </c>
       <c r="C16" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B16)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B16)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D16" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B16)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B16)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1105,13 +1135,13 @@
         <v>495</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="28">
         <v>15</v>
       </c>
       <c r="C17" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B17)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B17)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D17" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B17)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B17)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1126,7 +1156,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="28">
         <v>16</v>
       </c>
@@ -1147,7 +1177,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="28">
         <v>17</v>
       </c>
@@ -1169,13 +1199,13 @@
       </c>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="28">
         <v>18</v>
       </c>
       <c r="C20" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B20)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B20)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D20" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B20)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B20)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1190,13 +1220,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="28">
         <v>19</v>
       </c>
       <c r="C21" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B21)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B21)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D21" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B21)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B21)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1211,13 +1241,13 @@
         <v>368</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="28">
         <v>20</v>
       </c>
       <c r="C22" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B22)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B22)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D22" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B22)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B22)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1232,13 +1262,13 @@
         <v>298</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="28">
         <v>21</v>
       </c>
       <c r="C23" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B23)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B23)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D23" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B23)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B23)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1253,13 +1283,13 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="28">
         <v>22</v>
       </c>
       <c r="C24" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B24)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B24)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D24" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B24)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B24)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1274,7 +1304,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="28">
         <v>23</v>
       </c>
@@ -1295,7 +1325,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="28">
         <v>24</v>
       </c>
@@ -1316,13 +1346,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="28">
         <v>25</v>
       </c>
       <c r="C27" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B27)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B27)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D27" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B27)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B27)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1337,7 +1367,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="28">
         <v>26</v>
       </c>
@@ -1358,13 +1388,13 @@
         <v>443</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="28">
         <v>27</v>
       </c>
       <c r="C29" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B29)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B29)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B29)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B29)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1379,13 +1409,13 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="28">
         <v>28</v>
       </c>
       <c r="C30" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B30)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B30)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D30" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B30)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B30)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1400,7 +1430,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="28">
         <v>29</v>
       </c>
@@ -1421,7 +1451,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="28">
         <v>30</v>
       </c>
@@ -1442,13 +1472,13 @@
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="28">
         <v>31</v>
       </c>
       <c r="C33" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B33)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B33)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D33" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B33)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B33)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1463,13 +1493,13 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="28">
         <v>32</v>
       </c>
       <c r="C34" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B34)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B34)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D34" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B34)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B34)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1484,7 +1514,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="28">
         <v>33</v>
       </c>
@@ -1505,13 +1535,13 @@
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="28">
         <v>34</v>
       </c>
       <c r="C36" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B36)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B36)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D36" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B36)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B36)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1526,13 +1556,13 @@
         <v>372</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="28">
         <v>35</v>
       </c>
       <c r="C37" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B37)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B37)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D37" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B37)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B37)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1547,7 +1577,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="28">
         <v>36</v>
       </c>
@@ -1568,13 +1598,13 @@
         <v>177</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="28">
         <v>37</v>
       </c>
       <c r="C39" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B39)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B39)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D39" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B39)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B39)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1589,13 +1619,13 @@
         <v>247</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="28">
         <v>38</v>
       </c>
       <c r="C40" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B40)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B40)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D40" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B40)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B40)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1610,13 +1640,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="28">
         <v>39</v>
       </c>
       <c r="C41" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B41)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B41)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D41" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B41)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B41)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1631,13 +1661,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="28">
         <v>40</v>
       </c>
       <c r="C42" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B42)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B42)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D42" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B42)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B42)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1652,13 +1682,13 @@
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="28">
         <v>41</v>
       </c>
       <c r="C43" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B43)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B43)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D43" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B43)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B43)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1673,13 +1703,13 @@
         <v>422</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="28">
         <v>42</v>
       </c>
       <c r="C44" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B44)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B44)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D44" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B44)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B44)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1694,7 +1724,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="28">
         <v>43</v>
       </c>
@@ -1715,13 +1745,13 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="28">
         <v>44</v>
       </c>
       <c r="C46" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B46)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B46)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D46" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B46)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B46)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1736,13 +1766,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="28">
         <v>45</v>
       </c>
       <c r="C47" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B47)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B47)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D47" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B47)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B47)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1757,13 +1787,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="28">
         <v>46</v>
       </c>
       <c r="C48" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B48)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B48)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D48" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B48)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B48)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1778,13 +1808,13 @@
         <v>439</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="28">
         <v>47</v>
       </c>
       <c r="C49" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B49)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B49)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D49" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B49)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B49)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1799,13 +1829,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="28">
         <v>48</v>
       </c>
       <c r="C50" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B50)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B50)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D50" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B50)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B50)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1820,13 +1850,13 @@
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="28">
         <v>49</v>
       </c>
       <c r="C51" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B51)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B51)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D51" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B51)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B51)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1841,7 +1871,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="28">
         <v>50</v>
       </c>
@@ -1862,13 +1892,13 @@
         <v>302</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="28">
         <v>51</v>
       </c>
       <c r="C53" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B53)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B53)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D53" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B53)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B53)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1883,13 +1913,13 @@
         <v>255</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="28">
         <v>52</v>
       </c>
       <c r="C54" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B54)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B54)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D54" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B54)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B54)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1904,7 +1934,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="28">
         <v>53</v>
       </c>
@@ -1925,13 +1955,13 @@
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="28">
         <v>54</v>
       </c>
       <c r="C56" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B56)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B56)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D56" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B56)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B56)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1946,13 +1976,13 @@
         <v>447</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="28">
         <v>55</v>
       </c>
       <c r="C57" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B57)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B57)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D57" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B57)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B57)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1967,13 +1997,13 @@
         <v>239</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="28">
         <v>56</v>
       </c>
       <c r="C58" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B58)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B58)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D58" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B58)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B58)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -1988,13 +2018,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="28">
         <v>57</v>
       </c>
       <c r="C59" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B59)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B59)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D59" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B59)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B59)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2009,13 +2039,13 @@
         <v>423</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="28">
         <v>58</v>
       </c>
       <c r="C60" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B60)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B60)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D60" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B60)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B60)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2030,7 +2060,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="28">
         <v>59</v>
       </c>
@@ -2051,7 +2081,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="28">
         <v>60</v>
       </c>
@@ -2072,13 +2102,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="28">
         <v>61</v>
       </c>
       <c r="C63" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B63)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B63)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D63" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B63)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B63)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2093,13 +2123,13 @@
         <v>308</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="28">
         <v>62</v>
       </c>
       <c r="C64" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B64)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B64)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D64" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B64)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B64)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2114,13 +2144,13 @@
         <v>418</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="28">
         <v>63</v>
       </c>
       <c r="C65" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B65)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B65)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D65" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B65)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B65)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2135,13 +2165,13 @@
         <v>293</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="28">
         <v>64</v>
       </c>
       <c r="C66" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B66)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B66)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D66" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B66)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B66)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2156,13 +2186,13 @@
         <v>189</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="28">
         <v>65</v>
       </c>
       <c r="C67" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B67)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B67)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D67" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B67)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B67)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2177,13 +2207,13 @@
         <v>377</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="28">
         <v>66</v>
       </c>
       <c r="C68" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B68)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B68)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D68" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B68)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B68)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2198,7 +2228,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="28">
         <v>67</v>
       </c>
@@ -2219,13 +2249,13 @@
         <v>440</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="28">
         <v>68</v>
       </c>
       <c r="C70" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B70)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B70)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D70" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B70)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B70)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2240,7 +2270,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="28">
         <v>69</v>
       </c>
@@ -2261,13 +2291,13 @@
         <v>434</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="28">
         <v>70</v>
       </c>
       <c r="C72" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B72)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B72)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D72" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B72)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B72)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2282,13 +2312,13 @@
         <v>381</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="28">
         <v>71</v>
       </c>
       <c r="C73" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B73)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B73)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D73" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B73)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B73)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2303,7 +2333,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="28">
         <v>72</v>
       </c>
@@ -2324,13 +2354,13 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="28">
         <v>73</v>
       </c>
       <c r="C75" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B75)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B75)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D75" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B75)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B75)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2345,13 +2375,13 @@
         <v>241</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="28">
         <v>74</v>
       </c>
       <c r="C76" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B76)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B76)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D76" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B76)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B76)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2366,13 +2396,13 @@
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="28">
         <v>75</v>
       </c>
       <c r="C77" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B77)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B77)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D77" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B77)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B77)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2387,13 +2417,13 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="28">
         <v>76</v>
       </c>
       <c r="C78" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B78)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B78)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D78" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B78)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B78)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2408,13 +2438,13 @@
         <v>382</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="28">
         <v>77</v>
       </c>
       <c r="C79" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B79)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B79)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D79" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B79)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B79)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2429,13 +2459,13 @@
         <v>367</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="28">
         <v>78</v>
       </c>
       <c r="C80" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B80)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B80)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D80" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B80)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B80)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2450,13 +2480,13 @@
         <v>361</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="28">
         <v>79</v>
       </c>
       <c r="C81" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B81)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B81)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D81" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B81)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B81)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2471,13 +2501,13 @@
         <v>234</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="28">
         <v>80</v>
       </c>
       <c r="C82" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B82)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B82)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D82" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B82)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B82)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2492,13 +2522,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="28">
         <v>81</v>
       </c>
       <c r="C83" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B83)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B83)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D83" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B83)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B83)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2513,13 +2543,13 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="28">
         <v>82</v>
       </c>
       <c r="C84" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B84)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B84)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D84" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B84)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B84)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2534,13 +2564,13 @@
         <v>253</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="28">
         <v>83</v>
       </c>
       <c r="C85" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B85)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B85)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D85" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B85)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B85)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2555,13 +2585,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="28">
         <v>84</v>
       </c>
       <c r="C86" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B86)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B86)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D86" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B86)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B86)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2576,13 +2606,13 @@
         <v>186</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="28">
         <v>85</v>
       </c>
       <c r="C87" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B87)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B87)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D87" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B87)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B87)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2597,13 +2627,13 @@
         <v>363</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="28">
         <v>86</v>
       </c>
       <c r="C88" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B88)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B88)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D88" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B88)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B88)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2618,13 +2648,13 @@
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="28">
         <v>87</v>
       </c>
       <c r="C89" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B89)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B89)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D89" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B89)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B89)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2639,13 +2669,13 @@
         <v>305</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="28">
         <v>88</v>
       </c>
       <c r="C90" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B90)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B90)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D90" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B90)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B90)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2660,7 +2690,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="28">
         <v>89</v>
       </c>
@@ -2681,13 +2711,13 @@
         <v>236</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="28">
         <v>90</v>
       </c>
       <c r="C92" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B92)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B92)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D92" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B92)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B92)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2702,13 +2732,13 @@
         <v>307</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="28">
         <v>91</v>
       </c>
       <c r="C93" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B93)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B93)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D93" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B93)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B93)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2723,13 +2753,13 @@
         <v>444</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="28">
         <v>92</v>
       </c>
       <c r="C94" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B94)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B94)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D94" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B94)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B94)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2744,13 +2774,13 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="28">
         <v>93</v>
       </c>
       <c r="C95" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B95)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B95)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D95" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B95)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B95)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2765,13 +2795,13 @@
         <v>353</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="28">
         <v>94</v>
       </c>
       <c r="C96" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B96)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B96)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D96" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B96)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B96)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2786,13 +2816,13 @@
         <v>312</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="28">
         <v>95</v>
       </c>
       <c r="C97" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B97)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B97)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D97" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B97)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B97)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2807,13 +2837,13 @@
         <v>232</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="28">
         <v>96</v>
       </c>
       <c r="C98" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B98)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B98)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D98" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B98)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B98)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2828,7 +2858,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="28">
         <v>97</v>
       </c>
@@ -2849,13 +2879,13 @@
         <v>316</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="28">
         <v>98</v>
       </c>
       <c r="C100" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B100)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B100)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D100" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B100)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B100)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2870,13 +2900,13 @@
         <v>446</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="28">
         <v>99</v>
       </c>
       <c r="C101" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B101)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B101)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D101" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B101)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B101)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2891,13 +2921,13 @@
         <v>296</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="28">
         <v>100</v>
       </c>
       <c r="C102" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B102)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B102)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D102" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B102)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B102)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2912,7 +2942,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="28">
         <v>101</v>
       </c>
@@ -2933,13 +2963,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="28">
         <v>102</v>
       </c>
       <c r="C104" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B104)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B104)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D104" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B104)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B104)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2954,7 +2984,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="28">
         <v>103</v>
       </c>
@@ -2975,13 +3005,13 @@
         <v>115</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="28">
         <v>104</v>
       </c>
       <c r="C106" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B106)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B106)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D106" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B106)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B106)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -2996,13 +3026,13 @@
         <v>510</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="28">
         <v>105</v>
       </c>
       <c r="C107" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B107)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B107)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D107" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B107)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B107)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -3017,13 +3047,13 @@
         <v>249</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="28">
         <v>106</v>
       </c>
       <c r="C108" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B108)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B108)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D108" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B108)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B108)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -3038,13 +3068,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="28">
         <v>107</v>
       </c>
       <c r="C109" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B109)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B109)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D109" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B109)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B109)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -3059,13 +3089,13 @@
         <v>295</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="28">
         <v>108</v>
       </c>
       <c r="C110" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B110)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B110)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D110" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B110)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B110)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -3080,13 +3110,13 @@
         <v>304</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="28">
         <v>109</v>
       </c>
       <c r="C111" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B111)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B111)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D111" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B111)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B111)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -3101,13 +3131,13 @@
         <v>254</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="28">
         <v>110</v>
       </c>
       <c r="C112" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B112)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B112)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D112" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B112)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B112)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -3122,13 +3152,13 @@
         <v>433</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="28">
         <v>111</v>
       </c>
       <c r="C113" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B113)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B113)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D113" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B113)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B113)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -3143,13 +3173,13 @@
         <v>356</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="28">
         <v>112</v>
       </c>
       <c r="C114" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B114)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B114)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D114" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B114)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B114)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -3164,13 +3194,13 @@
         <v>297</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="28">
         <v>113</v>
       </c>
       <c r="C115" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B115)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B115)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D115" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B115)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B115)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -3185,13 +3215,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" s="28">
         <v>114</v>
       </c>
       <c r="C116" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B116)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B116)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D116" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B116)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B116)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -3206,13 +3236,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" s="28">
         <v>115</v>
       </c>
       <c r="C117" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B117)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B117)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D117" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B117)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B117)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -3227,7 +3257,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="28">
         <v>116</v>
       </c>
@@ -3248,13 +3278,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="28">
         <v>117</v>
       </c>
       <c r="C119" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B119)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B119)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D119" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B119)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B119)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -3269,13 +3299,13 @@
         <v>240</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="28">
         <v>118</v>
       </c>
       <c r="C120" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B120)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B120)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D120" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B120)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B120)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -3290,7 +3320,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="28">
         <v>119</v>
       </c>
@@ -3311,7 +3341,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" s="28">
         <v>120</v>
       </c>
@@ -3332,7 +3362,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="28">
         <v>121</v>
       </c>
@@ -3353,7 +3383,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="28">
         <v>122</v>
       </c>
@@ -3374,13 +3404,13 @@
         <v>301</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="28">
         <v>123</v>
       </c>
       <c r="C125" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B125)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B125)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D125" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B125)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B125)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -3395,7 +3425,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="28">
         <v>124</v>
       </c>
@@ -3416,13 +3446,13 @@
         <v>362</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="28">
         <v>125</v>
       </c>
       <c r="C127" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B127)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B127)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D127" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B127)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B127)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -3437,7 +3467,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="28">
         <v>126</v>
       </c>
@@ -3458,13 +3488,13 @@
         <v>229</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="28">
         <v>127</v>
       </c>
       <c r="C129" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B129)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B129)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D129" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B129)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B129)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -3479,13 +3509,13 @@
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="28">
         <v>128</v>
       </c>
       <c r="C130" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B130)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B130)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D130" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B130)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B130)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -3500,13 +3530,13 @@
         <v>303</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="28">
         <v>129</v>
       </c>
       <c r="C131" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B131)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B131)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D131" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B131)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B131)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -3521,13 +3551,13 @@
         <v>374</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="28">
         <v>130</v>
       </c>
       <c r="C132" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B132)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B132)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D132" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B132)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B132)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -3542,7 +3572,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="28">
         <v>131</v>
       </c>
@@ -3563,13 +3593,13 @@
         <v>237</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="28">
         <v>132</v>
       </c>
       <c r="C134" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B134)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B134)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D134" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B134)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B134)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -3584,13 +3614,13 @@
         <v>314</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="28">
         <v>133</v>
       </c>
       <c r="C135" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B135)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B135)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D135" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B135)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B135)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -3605,13 +3635,13 @@
         <v>166</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="28">
         <v>134</v>
       </c>
       <c r="C136" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B136)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B136)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D136" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B136)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B136)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -3626,13 +3656,13 @@
         <v>352</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" s="28">
         <v>135</v>
       </c>
       <c r="C137" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B137)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$B137)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D137" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B137)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$B137)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -3647,7 +3677,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="28">
         <v>136</v>
       </c>
@@ -3668,7 +3698,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" s="28">
         <v>137</v>
       </c>
@@ -3689,7 +3719,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" s="28">
         <v>138</v>
       </c>
@@ -3710,7 +3740,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B141" s="28">
         <v>139</v>
       </c>
@@ -3731,7 +3761,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B142" s="28">
         <v>140</v>
       </c>
@@ -3752,7 +3782,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B143" s="28">
         <v>141</v>
       </c>
@@ -3773,7 +3803,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B144" s="28">
         <v>142</v>
       </c>
@@ -3794,7 +3824,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" s="28">
         <v>143</v>
       </c>
@@ -3815,7 +3845,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="28">
         <v>144</v>
       </c>
@@ -3836,7 +3866,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="28">
         <v>145</v>
       </c>
@@ -3857,7 +3887,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" s="28">
         <v>146</v>
       </c>
@@ -3878,7 +3908,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="28">
         <v>147</v>
       </c>
@@ -3899,7 +3929,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" s="28">
         <v>148</v>
       </c>
@@ -3920,7 +3950,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" s="28">
         <v>149</v>
       </c>
@@ -3941,7 +3971,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" s="28">
         <v>150</v>
       </c>
@@ -3962,7 +3992,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" s="28">
         <v>151</v>
       </c>
@@ -3983,7 +4013,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154" s="28">
         <v>152</v>
       </c>
@@ -4004,7 +4034,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155" s="28">
         <v>153</v>
       </c>
@@ -4025,7 +4055,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B156" s="28">
         <v>154</v>
       </c>
@@ -4046,7 +4076,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B157" s="28">
         <v>155</v>
       </c>
@@ -4067,7 +4097,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B158" s="28">
         <v>156</v>
       </c>
@@ -4088,7 +4118,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B159" s="28">
         <v>157</v>
       </c>
@@ -4109,7 +4139,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B160" s="28">
         <v>158</v>
       </c>
@@ -4130,7 +4160,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" s="28">
         <v>159</v>
       </c>
@@ -4151,7 +4181,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="28">
         <v>160</v>
       </c>
@@ -4172,7 +4202,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" s="28">
         <v>161</v>
       </c>
@@ -4193,7 +4223,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164" s="28">
         <v>162</v>
       </c>
@@ -4214,7 +4244,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="28">
         <v>163</v>
       </c>
@@ -4235,7 +4265,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B166" s="28">
         <v>164</v>
       </c>
@@ -4256,7 +4286,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B167" s="28">
         <v>165</v>
       </c>
@@ -4277,7 +4307,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B168" s="28">
         <v>166</v>
       </c>
@@ -4298,7 +4328,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B169" s="28">
         <v>167</v>
       </c>
@@ -4319,7 +4349,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170" s="28">
         <v>168</v>
       </c>
@@ -4340,7 +4370,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="28">
         <v>169</v>
       </c>
@@ -4361,7 +4391,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172" s="28">
         <v>170</v>
       </c>
@@ -4382,7 +4412,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173" s="28">
         <v>171</v>
       </c>
@@ -4403,7 +4433,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B174" s="28">
         <v>172</v>
       </c>
@@ -4424,7 +4454,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B175" s="28">
         <v>173</v>
       </c>
@@ -4445,7 +4475,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176" s="28">
         <v>174</v>
       </c>
@@ -4466,7 +4496,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177" s="28">
         <v>175</v>
       </c>
@@ -4487,7 +4517,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="28">
         <v>176</v>
       </c>
@@ -4508,7 +4538,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" s="28">
         <v>177</v>
       </c>
@@ -4529,7 +4559,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="28">
         <v>178</v>
       </c>
@@ -4550,7 +4580,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B181" s="28">
         <v>179</v>
       </c>
@@ -4571,7 +4601,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" s="28">
         <v>180</v>
       </c>
@@ -4592,7 +4622,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="28">
         <v>181</v>
       </c>
@@ -4613,7 +4643,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B184" s="28">
         <v>182</v>
       </c>
@@ -4634,7 +4664,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B185" s="28">
         <v>183</v>
       </c>
@@ -4655,7 +4685,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B186" s="28">
         <v>184</v>
       </c>
@@ -4676,7 +4706,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B187" s="28">
         <v>185</v>
       </c>
@@ -4697,7 +4727,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B188" s="28">
         <v>186</v>
       </c>
@@ -4718,7 +4748,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B189" s="28">
         <v>187</v>
       </c>
@@ -4739,7 +4769,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B190" s="28">
         <v>188</v>
       </c>
@@ -4760,7 +4790,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B191" s="28">
         <v>189</v>
       </c>
@@ -4781,7 +4811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B192" s="28">
         <v>190</v>
       </c>
@@ -4802,7 +4832,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="28">
         <v>191</v>
       </c>
@@ -4823,7 +4853,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" s="28">
         <v>192</v>
       </c>
@@ -4844,7 +4874,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195" s="28">
         <v>193</v>
       </c>
@@ -4865,7 +4895,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B196" s="28">
         <v>194</v>
       </c>
@@ -4886,7 +4916,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="28">
         <v>195</v>
       </c>
@@ -4907,7 +4937,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B198" s="28">
         <v>196</v>
       </c>
@@ -4928,7 +4958,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199" s="28">
         <v>197</v>
       </c>
@@ -4949,7 +4979,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B200" s="28">
         <v>198</v>
       </c>
@@ -4970,7 +5000,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B201" s="28">
         <v>199</v>
       </c>
@@ -4991,7 +5021,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B202" s="28">
         <v>200</v>
       </c>
@@ -5012,7 +5042,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203" s="28">
         <v>201</v>
       </c>
@@ -5033,7 +5063,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B204" s="28">
         <v>202</v>
       </c>
@@ -5054,7 +5084,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B205" s="28">
         <v>203</v>
       </c>
@@ -5075,7 +5105,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B206" s="28">
         <v>204</v>
       </c>
@@ -5096,7 +5126,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B207" s="28">
         <v>205</v>
       </c>
@@ -5117,7 +5147,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B208" s="28">
         <v>206</v>
       </c>
@@ -5138,7 +5168,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="28">
         <v>207</v>
       </c>
@@ -5159,7 +5189,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" s="28">
         <v>208</v>
       </c>
@@ -5180,7 +5210,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="28">
         <v>209</v>
       </c>
@@ -5201,7 +5231,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" s="28">
         <v>210</v>
       </c>
@@ -5222,7 +5252,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" s="28">
         <v>211</v>
       </c>
@@ -5243,7 +5273,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" s="28">
         <v>212</v>
       </c>
@@ -5264,7 +5294,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" s="28">
         <v>213</v>
       </c>
@@ -5285,7 +5315,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216" s="28">
         <v>214</v>
       </c>
@@ -5306,7 +5336,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B217" s="28">
         <v>215</v>
       </c>
@@ -5327,7 +5357,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B218" s="28">
         <v>216</v>
       </c>
@@ -5348,7 +5378,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B219" s="28">
         <v>217</v>
       </c>
@@ -5369,7 +5399,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B220" s="28">
         <v>218</v>
       </c>
@@ -5390,7 +5420,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B221" s="28">
         <v>219</v>
       </c>
@@ -5411,7 +5441,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B222" s="28">
         <v>220</v>
       </c>
@@ -5432,7 +5462,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B223" s="28">
         <v>221</v>
       </c>
@@ -5453,7 +5483,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B224" s="28">
         <v>222</v>
       </c>
@@ -5474,7 +5504,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B225" s="28">
         <v>223</v>
       </c>
@@ -5495,7 +5525,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B226" s="28">
         <v>224</v>
       </c>
@@ -5516,7 +5546,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B227" s="28">
         <v>225</v>
       </c>
@@ -5537,7 +5567,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B228" s="28">
         <v>226</v>
       </c>
@@ -5558,7 +5588,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B229" s="28">
         <v>227</v>
       </c>
@@ -5579,7 +5609,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B230" s="28">
         <v>228</v>
       </c>
@@ -5600,7 +5630,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B231" s="28">
         <v>229</v>
       </c>
@@ -5621,7 +5651,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B232" s="28">
         <v>230</v>
       </c>
@@ -5642,7 +5672,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B233" s="28">
         <v>231</v>
       </c>
@@ -5663,7 +5693,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B234" s="28">
         <v>232</v>
       </c>
@@ -5684,7 +5714,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B235" s="28">
         <v>233</v>
       </c>
@@ -5705,7 +5735,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B236" s="28">
         <v>234</v>
       </c>
@@ -5726,7 +5756,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B237" s="28">
         <v>235</v>
       </c>
@@ -5747,7 +5777,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B238" s="28">
         <v>236</v>
       </c>
@@ -5768,7 +5798,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B239" s="28">
         <v>237</v>
       </c>
@@ -5789,7 +5819,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B240" s="28">
         <v>238</v>
       </c>
@@ -5810,7 +5840,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B241" s="28">
         <v>239</v>
       </c>
@@ -5831,7 +5861,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B242" s="28">
         <v>240</v>
       </c>
@@ -5852,7 +5882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B243" s="28">
         <v>241</v>
       </c>
@@ -5873,7 +5903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B244" s="28">
         <v>242</v>
       </c>
@@ -5894,7 +5924,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B245" s="28">
         <v>243</v>
       </c>
@@ -5915,7 +5945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B246" s="28">
         <v>244</v>
       </c>
@@ -5936,7 +5966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B247" s="28">
         <v>245</v>
       </c>
@@ -5957,7 +5987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B248" s="28">
         <v>246</v>
       </c>
@@ -5978,7 +6008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B249" s="28">
         <v>247</v>
       </c>
@@ -5999,7 +6029,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B250" s="28">
         <v>248</v>
       </c>
@@ -6020,7 +6050,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B251" s="28">
         <v>249</v>
       </c>
@@ -6041,7 +6071,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B252" s="28">
         <v>250</v>
       </c>
@@ -6062,7 +6092,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B253" s="28">
         <v>251</v>
       </c>
@@ -6083,7 +6113,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B254" s="28">
         <v>252</v>
       </c>
@@ -6104,7 +6134,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B255" s="28">
         <v>253</v>
       </c>
@@ -6125,7 +6155,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B256" s="28">
         <v>254</v>
       </c>
@@ -6146,7 +6176,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B257" s="28">
         <v>255</v>
       </c>
@@ -6167,7 +6197,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B258" s="28">
         <v>256</v>
       </c>
@@ -6188,7 +6218,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B259" s="28">
         <v>257</v>
       </c>
@@ -6209,7 +6239,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B260" s="28">
         <v>258</v>
       </c>
@@ -6230,7 +6260,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B261" s="28">
         <v>259</v>
       </c>
@@ -6251,7 +6281,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B262" s="28">
         <v>260</v>
       </c>
@@ -6272,7 +6302,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B263" s="28">
         <v>261</v>
       </c>
@@ -6293,7 +6323,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B264" s="28">
         <v>262</v>
       </c>
@@ -6314,7 +6344,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B265" s="28">
         <v>263</v>
       </c>
@@ -6335,7 +6365,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B266" s="28">
         <v>264</v>
       </c>
@@ -6356,7 +6386,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B267" s="28">
         <v>265</v>
       </c>
@@ -6377,7 +6407,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B268" s="28">
         <v>266</v>
       </c>
@@ -6398,7 +6428,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B269" s="28">
         <v>267</v>
       </c>
@@ -6419,7 +6449,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B270" s="28">
         <v>268</v>
       </c>
@@ -6440,7 +6470,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B271" s="28">
         <v>269</v>
       </c>
@@ -6461,7 +6491,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B272" s="28">
         <v>270</v>
       </c>
@@ -6482,7 +6512,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B273" s="28">
         <v>271</v>
       </c>
@@ -6503,7 +6533,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B274" s="28">
         <v>272</v>
       </c>
@@ -6524,7 +6554,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B275" s="28">
         <v>273</v>
       </c>
@@ -6545,7 +6575,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B276" s="28">
         <v>274</v>
       </c>
@@ -6566,7 +6596,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B277" s="28">
         <v>275</v>
       </c>
@@ -6587,7 +6617,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B278" s="28">
         <v>276</v>
       </c>
@@ -6608,7 +6638,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B279" s="28">
         <v>277</v>
       </c>
@@ -6629,7 +6659,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B280" s="28">
         <v>278</v>
       </c>
@@ -6650,7 +6680,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B281" s="28">
         <v>279</v>
       </c>
@@ -6671,7 +6701,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B282" s="28">
         <v>280</v>
       </c>
@@ -6692,7 +6722,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B283" s="28">
         <v>281</v>
       </c>
@@ -6713,7 +6743,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B284" s="28">
         <v>282</v>
       </c>
@@ -6734,7 +6764,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B285" s="28">
         <v>283</v>
       </c>
@@ -6755,7 +6785,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B286" s="28">
         <v>284</v>
       </c>
@@ -6776,7 +6806,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B287" s="28">
         <v>285</v>
       </c>
@@ -6797,7 +6827,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B288" s="28">
         <v>286</v>
       </c>
@@ -6818,7 +6848,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="289" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B289" s="28">
         <v>287</v>
       </c>
@@ -6839,7 +6869,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="290" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B290" s="28">
         <v>288</v>
       </c>
@@ -6860,7 +6890,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B291" s="28">
         <v>289</v>
       </c>
@@ -6881,7 +6911,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B292" s="28">
         <v>290</v>
       </c>
@@ -6902,7 +6932,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B293" s="28">
         <v>291</v>
       </c>
@@ -6923,7 +6953,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B294" s="28">
         <v>292</v>
       </c>
@@ -6944,7 +6974,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="295" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B295" s="28">
         <v>293</v>
       </c>
@@ -6965,7 +6995,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="296" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B296" s="28">
         <v>294</v>
       </c>
@@ -6986,7 +7016,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="297" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B297" s="28">
         <v>295</v>
       </c>
@@ -7007,7 +7037,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="298" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B298" s="28">
         <v>296</v>
       </c>
@@ -7028,7 +7058,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="299" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B299" s="28">
         <v>297</v>
       </c>
@@ -7049,7 +7079,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="300" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B300" s="28">
         <v>298</v>
       </c>
@@ -7070,7 +7100,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="301" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B301" s="28">
         <v>299</v>
       </c>
@@ -7091,7 +7121,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="302" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B302" s="28">
         <v>300</v>
       </c>
@@ -7112,7 +7142,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B303" s="28">
         <v>301</v>
       </c>
@@ -7133,7 +7163,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="304" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B304" s="28">
         <v>302</v>
       </c>
@@ -7154,7 +7184,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B305" s="28">
         <v>303</v>
       </c>
@@ -7175,7 +7205,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B306" s="28">
         <v>304</v>
       </c>
@@ -7196,7 +7226,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="307" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B307" s="28">
         <v>305</v>
       </c>
@@ -7217,7 +7247,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B308" s="28">
         <v>306</v>
       </c>
@@ -7238,7 +7268,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="309" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B309" s="28">
         <v>307</v>
       </c>
@@ -7259,7 +7289,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="310" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B310" s="28">
         <v>308</v>
       </c>
@@ -7280,7 +7310,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="311" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B311" s="28">
         <v>309</v>
       </c>
@@ -7301,7 +7331,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="312" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B312" s="28">
         <v>310</v>
       </c>
@@ -7322,7 +7352,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="313" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B313" s="28">
         <v>311</v>
       </c>
@@ -7343,7 +7373,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="314" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B314" s="28">
         <v>312</v>
       </c>
@@ -7364,7 +7394,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="315" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B315" s="28">
         <v>313</v>
       </c>
@@ -7385,7 +7415,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B316" s="28">
         <v>314</v>
       </c>
@@ -7406,7 +7436,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B317" s="28">
         <v>315</v>
       </c>
@@ -7427,7 +7457,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B318" s="28">
         <v>316</v>
       </c>
@@ -7448,7 +7478,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B319" s="28">
         <v>317</v>
       </c>
@@ -7469,7 +7499,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="320" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B320" s="28">
         <v>318</v>
       </c>
@@ -7490,7 +7520,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="321" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B321" s="28">
         <v>319</v>
       </c>
@@ -7511,7 +7541,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="322" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B322" s="28">
         <v>320</v>
       </c>
@@ -7532,7 +7562,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="323" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B323" s="28">
         <v>321</v>
       </c>
@@ -7553,7 +7583,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="324" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B324" s="28">
         <v>322</v>
       </c>
@@ -7574,7 +7604,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="325" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B325" s="28">
         <v>323</v>
       </c>
@@ -7595,7 +7625,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="326" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B326" s="28">
         <v>324</v>
       </c>
@@ -7616,7 +7646,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="327" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B327" s="28">
         <v>325</v>
       </c>
@@ -7637,7 +7667,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="328" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B328" s="28">
         <v>326</v>
       </c>
@@ -7658,7 +7688,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="329" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B329" s="28">
         <v>327</v>
       </c>
@@ -7679,7 +7709,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="330" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B330" s="28">
         <v>328</v>
       </c>
@@ -7700,7 +7730,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="331" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B331" s="28">
         <v>329</v>
       </c>
@@ -7721,7 +7751,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="332" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B332" s="28">
         <v>330</v>
       </c>
@@ -7742,7 +7772,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="333" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B333" s="28">
         <v>331</v>
       </c>
@@ -7763,7 +7793,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="334" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B334" s="28">
         <v>332</v>
       </c>
@@ -7784,7 +7814,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="335" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B335" s="28">
         <v>333</v>
       </c>
@@ -7805,7 +7835,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="336" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B336" s="28">
         <v>334</v>
       </c>
@@ -7826,7 +7856,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="337" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B337" s="28">
         <v>335</v>
       </c>
@@ -7847,7 +7877,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="338" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B338" s="28">
         <v>336</v>
       </c>
@@ -7868,7 +7898,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="339" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B339" s="28">
         <v>337</v>
       </c>
@@ -7889,7 +7919,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="340" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B340" s="28">
         <v>338</v>
       </c>
@@ -7910,7 +7940,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="341" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B341" s="28">
         <v>339</v>
       </c>
@@ -7931,7 +7961,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="342" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B342" s="28">
         <v>340</v>
       </c>
@@ -7952,7 +7982,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="343" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B343" s="28">
         <v>341</v>
       </c>
@@ -7973,7 +8003,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="344" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B344" s="28">
         <v>342</v>
       </c>
@@ -7994,7 +8024,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="345" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B345" s="28">
         <v>343</v>
       </c>
@@ -8015,7 +8045,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="346" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B346" s="28">
         <v>344</v>
       </c>
@@ -8036,7 +8066,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="347" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B347" s="28">
         <v>345</v>
       </c>
@@ -8057,7 +8087,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="348" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B348" s="28">
         <v>346</v>
       </c>
@@ -8078,7 +8108,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="349" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B349" s="28">
         <v>347</v>
       </c>
@@ -8099,7 +8129,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="350" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B350" s="28">
         <v>348</v>
       </c>
@@ -8120,7 +8150,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="351" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B351" s="28">
         <v>349</v>
       </c>
@@ -8141,7 +8171,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="352" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B352" s="28">
         <v>350</v>
       </c>
@@ -8162,7 +8192,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B353" s="28">
         <v>351</v>
       </c>
@@ -8183,7 +8213,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B354" s="28">
         <v>352</v>
       </c>
@@ -8204,7 +8234,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="355" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B355" s="28">
         <v>353</v>
       </c>
@@ -8225,7 +8255,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B356" s="28">
         <v>354</v>
       </c>
@@ -8246,7 +8276,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="357" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B357" s="28">
         <v>355</v>
       </c>
@@ -8267,7 +8297,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="358" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B358" s="28">
         <v>356</v>
       </c>
@@ -8288,7 +8318,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="359" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B359" s="28">
         <v>357</v>
       </c>
@@ -8309,7 +8339,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="360" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B360" s="28">
         <v>358</v>
       </c>
@@ -8330,7 +8360,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="361" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B361" s="28">
         <v>359</v>
       </c>
@@ -8351,7 +8381,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="362" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B362" s="28">
         <v>360</v>
       </c>
@@ -8372,7 +8402,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="363" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B363" s="28">
         <v>361</v>
       </c>
@@ -8393,7 +8423,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B364" s="28">
         <v>362</v>
       </c>
@@ -8414,7 +8444,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="365" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B365" s="28">
         <v>363</v>
       </c>
@@ -8435,7 +8465,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="366" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B366" s="28">
         <v>364</v>
       </c>
@@ -8456,7 +8486,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="367" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B367" s="28">
         <v>365</v>
       </c>
@@ -8477,7 +8507,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B368" s="28">
         <v>366</v>
       </c>
@@ -8498,7 +8528,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="369" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B369" s="28">
         <v>367</v>
       </c>
@@ -8519,7 +8549,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="370" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B370" s="28">
         <v>368</v>
       </c>
@@ -8540,7 +8570,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="371" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B371" s="28">
         <v>369</v>
       </c>
@@ -8561,7 +8591,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="372" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B372" s="28">
         <v>370</v>
       </c>
@@ -8582,7 +8612,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="373" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B373" s="28">
         <v>371</v>
       </c>
@@ -8603,7 +8633,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="374" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B374" s="28">
         <v>372</v>
       </c>
@@ -8624,7 +8654,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="375" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B375" s="28">
         <v>373</v>
       </c>
@@ -8645,7 +8675,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="376" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B376" s="28">
         <v>374</v>
       </c>
@@ -8666,7 +8696,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="377" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B377" s="28">
         <v>375</v>
       </c>
@@ -8687,7 +8717,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="378" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B378" s="28">
         <v>376</v>
       </c>
@@ -8708,7 +8738,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B379" s="28">
         <v>377</v>
       </c>
@@ -8729,7 +8759,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B380" s="28">
         <v>378</v>
       </c>
@@ -8750,7 +8780,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="381" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B381" s="28">
         <v>379</v>
       </c>
@@ -8771,7 +8801,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="382" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B382" s="28">
         <v>380</v>
       </c>
@@ -8792,7 +8822,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="383" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B383" s="28">
         <v>381</v>
       </c>
@@ -8813,7 +8843,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="384" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B384" s="28">
         <v>382</v>
       </c>
@@ -8834,7 +8864,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="385" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B385" s="28">
         <v>383</v>
       </c>
@@ -8855,7 +8885,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="386" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B386" s="28">
         <v>384</v>
       </c>
@@ -8876,7 +8906,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="387" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B387" s="28">
         <v>385</v>
       </c>
@@ -8897,7 +8927,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="388" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B388" s="28">
         <v>386</v>
       </c>
@@ -8918,7 +8948,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="389" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B389" s="28">
         <v>387</v>
       </c>
@@ -8939,7 +8969,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="390" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B390" s="28">
         <v>388</v>
       </c>
@@ -8960,7 +8990,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="391" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B391" s="28">
         <v>389</v>
       </c>
@@ -8981,7 +9011,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="392" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B392" s="28">
         <v>390</v>
       </c>
@@ -9002,7 +9032,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="393" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B393" s="28">
         <v>391</v>
       </c>
@@ -9023,7 +9053,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="394" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B394" s="28">
         <v>392</v>
       </c>
@@ -9044,7 +9074,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="395" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B395" s="28">
         <v>393</v>
       </c>
@@ -9065,7 +9095,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="396" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B396" s="28">
         <v>394</v>
       </c>
@@ -9086,7 +9116,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B397" s="28">
         <v>395</v>
       </c>
@@ -9107,7 +9137,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="398" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B398" s="28">
         <v>396</v>
       </c>
@@ -9128,7 +9158,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="399" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B399" s="28">
         <v>397</v>
       </c>
@@ -9149,7 +9179,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="400" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B400" s="28">
         <v>398</v>
       </c>
@@ -9170,7 +9200,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="401" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B401" s="28">
         <v>399</v>
       </c>
@@ -9191,7 +9221,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="402" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B402" s="28">
         <v>400</v>
       </c>
@@ -9212,7 +9242,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="403" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B403" s="28">
         <v>401</v>
       </c>
@@ -9233,7 +9263,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="404" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B404" s="28">
         <v>402</v>
       </c>
@@ -9254,7 +9284,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="405" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B405" s="28">
         <v>403</v>
       </c>
@@ -9275,7 +9305,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="406" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B406" s="28">
         <v>404</v>
       </c>
@@ -9296,7 +9326,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="407" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B407" s="28">
         <v>405</v>
       </c>
@@ -9317,7 +9347,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="408" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B408" s="28">
         <v>406</v>
       </c>
@@ -9338,7 +9368,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="409" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B409" s="28">
         <v>407</v>
       </c>
@@ -9359,7 +9389,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="410" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B410" s="28">
         <v>408</v>
       </c>
@@ -9380,7 +9410,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="411" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B411" s="28">
         <v>409</v>
       </c>
@@ -9401,7 +9431,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="412" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B412" s="28">
         <v>410</v>
       </c>
@@ -9422,7 +9452,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="413" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B413" s="28">
         <v>411</v>
       </c>
@@ -9443,7 +9473,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="414" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B414" s="28">
         <v>412</v>
       </c>
@@ -9464,7 +9494,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="415" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B415" s="28">
         <v>413</v>
       </c>
@@ -9485,7 +9515,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="416" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B416" s="28">
         <v>414</v>
       </c>
@@ -9506,7 +9536,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="417" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B417" s="28">
         <v>415</v>
       </c>
@@ -9527,7 +9557,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="418" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B418" s="28">
         <v>416</v>
       </c>
@@ -9548,7 +9578,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="419" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B419" s="28">
         <v>417</v>
       </c>
@@ -9569,7 +9599,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="420" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B420" s="28">
         <v>418</v>
       </c>
@@ -9590,7 +9620,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="421" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B421" s="28">
         <v>419</v>
       </c>
@@ -9611,7 +9641,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="422" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="422" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B422" s="28">
         <v>420</v>
       </c>
@@ -9632,7 +9662,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="423" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="423" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B423" s="28">
         <v>421</v>
       </c>
@@ -9653,7 +9683,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="424" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="424" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B424" s="28">
         <v>422</v>
       </c>
@@ -9674,7 +9704,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="425" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="425" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B425" s="28">
         <v>423</v>
       </c>
@@ -9695,7 +9725,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="426" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="426" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B426" s="28">
         <v>424</v>
       </c>
@@ -9716,7 +9746,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="427" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="427" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B427" s="28">
         <v>425</v>
       </c>
@@ -9737,7 +9767,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="428" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="428" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B428" s="28">
         <v>426</v>
       </c>
@@ -9758,7 +9788,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="429" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="429" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B429" s="28">
         <v>427</v>
       </c>
@@ -9779,7 +9809,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="430" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="430" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B430" s="28">
         <v>428</v>
       </c>
@@ -9800,7 +9830,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="431" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="431" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B431" s="28">
         <v>429</v>
       </c>
@@ -9821,7 +9851,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="432" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="432" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B432" s="28">
         <v>430</v>
       </c>
@@ -9842,7 +9872,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="433" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="433" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B433" s="28">
         <v>431</v>
       </c>
@@ -9863,7 +9893,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="434" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="434" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B434" s="28">
         <v>432</v>
       </c>
@@ -9884,7 +9914,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="435" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="435" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B435" s="28">
         <v>433</v>
       </c>
@@ -9905,7 +9935,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="436" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="436" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B436" s="28">
         <v>434</v>
       </c>
@@ -9926,7 +9956,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="437" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="437" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B437" s="28">
         <v>435</v>
       </c>
@@ -9947,7 +9977,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="438" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="438" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B438" s="28">
         <v>436</v>
       </c>
@@ -9968,7 +9998,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="439" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="439" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B439" s="28">
         <v>437</v>
       </c>
@@ -9989,7 +10019,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="440" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="440" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B440" s="28">
         <v>438</v>
       </c>
@@ -10010,7 +10040,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="441" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="441" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B441" s="28">
         <v>439</v>
       </c>
@@ -10031,7 +10061,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="442" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="442" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B442" s="28">
         <v>440</v>
       </c>
@@ -10052,7 +10082,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="443" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="443" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B443" s="28">
         <v>441</v>
       </c>
@@ -10073,7 +10103,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="444" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="444" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B444" s="28">
         <v>442</v>
       </c>
@@ -10094,7 +10124,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="445" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="445" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B445" s="28">
         <v>443</v>
       </c>
@@ -10115,7 +10145,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="446" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="446" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B446" s="28">
         <v>444</v>
       </c>
@@ -10136,7 +10166,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="447" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="447" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B447" s="28">
         <v>445</v>
       </c>
@@ -10157,7 +10187,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="448" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="448" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B448" s="28">
         <v>446</v>
       </c>
@@ -10178,7 +10208,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="449" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="449" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B449" s="28">
         <v>447</v>
       </c>
@@ -10199,7 +10229,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="450" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="450" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B450" s="28">
         <v>448</v>
       </c>
@@ -10220,7 +10250,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="451" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="451" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B451" s="28">
         <v>449</v>
       </c>
@@ -10241,7 +10271,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="452" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="452" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B452" s="28">
         <v>450</v>
       </c>
@@ -10262,7 +10292,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="453" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="453" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B453" s="28">
         <v>451</v>
       </c>
@@ -10283,7 +10313,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="454" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="454" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B454" s="28">
         <v>452</v>
       </c>
@@ -10304,7 +10334,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="455" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="455" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B455" s="28">
         <v>453</v>
       </c>
@@ -10325,7 +10355,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="456" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="456" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B456" s="28">
         <v>454</v>
       </c>
@@ -10346,7 +10376,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="457" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="457" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B457" s="28">
         <v>455</v>
       </c>
@@ -10367,7 +10397,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="458" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="458" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B458" s="28">
         <v>456</v>
       </c>
@@ -10388,7 +10418,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="459" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="459" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B459" s="28">
         <v>457</v>
       </c>
@@ -10409,7 +10439,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="460" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="460" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B460" s="28">
         <v>458</v>
       </c>
@@ -10430,7 +10460,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="461" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="461" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B461" s="28">
         <v>459</v>
       </c>
@@ -10451,7 +10481,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="462" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="462" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B462" s="28">
         <v>460</v>
       </c>
@@ -10472,7 +10502,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="463" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="463" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B463" s="28">
         <v>461</v>
       </c>
@@ -10493,7 +10523,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="464" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="464" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B464" s="28">
         <v>462</v>
       </c>
@@ -10514,7 +10544,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="465" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="465" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B465" s="28">
         <v>463</v>
       </c>
@@ -10535,7 +10565,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="466" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="466" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B466" s="28">
         <v>464</v>
       </c>
@@ -10556,7 +10586,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="467" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="467" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B467" s="28">
         <v>465</v>
       </c>
@@ -10577,7 +10607,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="468" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="468" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B468" s="28">
         <v>466</v>
       </c>
@@ -10598,7 +10628,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="469" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="469" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B469" s="28">
         <v>467</v>
       </c>
@@ -10619,7 +10649,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="470" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="470" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B470" s="28">
         <v>468</v>
       </c>
@@ -10640,7 +10670,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="471" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="471" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B471" s="28">
         <v>469</v>
       </c>
@@ -10661,7 +10691,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="472" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="472" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B472" s="28">
         <v>470</v>
       </c>
@@ -10682,7 +10712,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="473" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="473" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B473" s="28">
         <v>471</v>
       </c>
@@ -10703,7 +10733,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="474" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="474" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B474" s="28">
         <v>472</v>
       </c>
@@ -10724,7 +10754,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="475" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="475" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B475" s="28">
         <v>473</v>
       </c>
@@ -10745,7 +10775,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="476" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="476" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B476" s="28">
         <v>474</v>
       </c>
@@ -10766,7 +10796,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="477" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="477" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B477" s="28">
         <v>475</v>
       </c>
@@ -10787,7 +10817,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="478" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="478" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B478" s="28">
         <v>476</v>
       </c>
@@ -10808,7 +10838,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="479" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="479" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B479" s="28">
         <v>477</v>
       </c>
@@ -10829,7 +10859,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="480" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="480" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B480" s="28">
         <v>478</v>
       </c>
@@ -10850,7 +10880,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="481" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="481" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B481" s="28">
         <v>479</v>
       </c>
@@ -10871,7 +10901,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="482" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="482" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B482" s="28">
         <v>480</v>
       </c>
@@ -10892,7 +10922,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="483" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="483" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B483" s="28">
         <v>481</v>
       </c>
@@ -10913,7 +10943,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="484" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="484" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B484" s="28">
         <v>482</v>
       </c>
@@ -10934,7 +10964,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="485" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="485" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B485" s="28">
         <v>483</v>
       </c>
@@ -10955,7 +10985,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="486" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="486" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B486" s="28">
         <v>484</v>
       </c>
@@ -10976,7 +11006,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="487" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="487" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B487" s="28">
         <v>485</v>
       </c>
@@ -10997,7 +11027,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="488" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="488" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B488" s="28">
         <v>486</v>
       </c>
@@ -11018,7 +11048,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="489" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="489" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B489" s="28">
         <v>487</v>
       </c>
@@ -11039,7 +11069,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="490" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="490" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B490" s="28">
         <v>488</v>
       </c>
@@ -11060,7 +11090,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="491" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="491" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B491" s="28">
         <v>489</v>
       </c>
@@ -11081,7 +11111,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="492" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="492" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B492" s="28">
         <v>490</v>
       </c>
@@ -11102,7 +11132,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="493" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="493" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B493" s="28">
         <v>491</v>
       </c>
@@ -11123,7 +11153,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="494" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="494" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B494" s="28">
         <v>492</v>
       </c>
@@ -11144,7 +11174,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="495" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="495" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B495" s="28">
         <v>493</v>
       </c>
@@ -11165,7 +11195,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="496" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="496" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B496" s="28">
         <v>494</v>
       </c>
@@ -11186,7 +11216,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="497" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="497" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B497" s="28">
         <v>495</v>
       </c>
@@ -11207,7 +11237,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="498" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="498" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B498" s="28">
         <v>496</v>
       </c>
@@ -11228,7 +11258,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="499" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="499" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B499" s="28">
         <v>497</v>
       </c>
@@ -11249,7 +11279,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="500" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="500" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B500" s="28">
         <v>498</v>
       </c>
@@ -11270,7 +11300,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="501" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="501" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B501" s="28">
         <v>499</v>
       </c>
@@ -11291,7 +11321,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="502" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="502" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B502" s="28">
         <v>500</v>
       </c>
@@ -11312,7 +11342,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="503" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="503" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B503" s="28">
         <v>501</v>
       </c>
@@ -11333,7 +11363,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="504" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="504" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B504" s="28">
         <v>502</v>
       </c>
@@ -11354,7 +11384,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="505" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="505" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B505" s="28">
         <v>503</v>
       </c>
@@ -11375,7 +11405,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="506" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="506" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B506" s="28">
         <v>504</v>
       </c>
@@ -11396,7 +11426,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="507" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="507" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B507" s="28">
         <v>505</v>
       </c>
@@ -11417,7 +11447,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="508" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="508" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B508" s="28">
         <v>506</v>
       </c>
@@ -11438,7 +11468,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="509" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="509" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B509" s="28">
         <v>507</v>
       </c>
@@ -11459,7 +11489,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="510" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="510" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B510" s="28">
         <v>508</v>
       </c>
@@ -11480,7 +11510,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="511" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="511" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B511" s="28">
         <v>509</v>
       </c>
@@ -11501,7 +11531,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="512" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="512" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B512" s="28">
         <v>510</v>
       </c>
@@ -11522,7 +11552,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="513" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="513" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B513" s="28">
         <v>511</v>
       </c>
@@ -11543,7 +11573,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="514" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="514" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B514" s="28">
         <v>512</v>
       </c>
@@ -11564,7 +11594,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="515" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="515" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B515" s="28">
         <v>513</v>
       </c>
@@ -11585,7 +11615,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="516" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="516" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B516" s="28">
         <v>514</v>
       </c>
@@ -11606,7 +11636,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="517" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="517" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B517" s="28">
         <v>515</v>
       </c>
@@ -11627,7 +11657,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="518" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="518" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B518" s="28">
         <v>516</v>
       </c>
@@ -11648,7 +11678,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="519" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="519" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B519" s="28">
         <v>517</v>
       </c>
@@ -11669,7 +11699,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="520" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="520" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B520" s="28">
         <v>518</v>
       </c>
@@ -11690,7 +11720,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="521" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="521" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B521" s="28">
         <v>519</v>
       </c>
@@ -11711,7 +11741,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="522" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="522" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B522" s="28">
         <v>520</v>
       </c>
@@ -11732,7 +11762,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="523" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="523" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B523" s="28">
         <v>521</v>
       </c>
@@ -11753,7 +11783,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="524" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="524" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B524" s="28">
         <v>522</v>
       </c>
@@ -11774,7 +11804,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="525" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="525" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B525" s="28">
         <v>523</v>
       </c>
@@ -11795,7 +11825,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="526" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="526" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B526" s="28">
         <v>524</v>
       </c>
@@ -11816,7 +11846,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="527" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="527" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B527" s="28">
         <v>525</v>
       </c>
@@ -11837,7 +11867,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="528" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="528" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B528" s="28">
         <v>526</v>
       </c>
@@ -11858,7 +11888,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="529" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="529" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B529" s="28">
         <v>527</v>
       </c>
@@ -11879,7 +11909,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="530" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="530" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B530" s="28">
         <v>528</v>
       </c>
@@ -11900,7 +11930,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="531" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="531" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B531" s="28">
         <v>529</v>
       </c>
@@ -11921,7 +11951,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="532" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="532" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B532" s="28">
         <v>530</v>
       </c>
@@ -11942,7 +11972,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="533" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="533" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B533" s="28">
         <v>531</v>
       </c>
@@ -11963,7 +11993,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="534" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="534" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B534" s="28">
         <v>532</v>
       </c>
@@ -11984,7 +12014,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="535" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="535" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B535" s="28">
         <v>533</v>
       </c>
@@ -12005,7 +12035,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="536" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="536" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B536" s="28">
         <v>534</v>
       </c>
@@ -12026,7 +12056,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="537" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="537" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B537" s="28">
         <v>535</v>
       </c>
@@ -12047,7 +12077,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="538" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="538" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B538" s="28">
         <v>536</v>
       </c>
@@ -12068,7 +12098,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="539" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="539" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B539" s="28">
         <v>537</v>
       </c>
@@ -12089,7 +12119,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="540" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="540" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B540" s="28">
         <v>538</v>
       </c>
@@ -12110,7 +12140,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="541" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="541" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B541" s="28">
         <v>539</v>
       </c>
@@ -12131,7 +12161,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="542" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="542" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B542" s="28">
         <v>540</v>
       </c>
@@ -12152,7 +12182,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="543" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="543" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B543" s="28">
         <v>541</v>
       </c>
@@ -12173,7 +12203,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="544" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="544" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B544" s="28">
         <v>542</v>
       </c>
@@ -12194,7 +12224,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="545" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="545" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B545" s="28">
         <v>543</v>
       </c>
@@ -12215,7 +12245,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="546" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="546" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B546" s="28">
         <v>544</v>
       </c>
@@ -12236,7 +12266,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="547" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="547" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B547" s="28">
         <v>545</v>
       </c>
@@ -12257,7 +12287,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="548" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="548" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B548" s="28">
         <v>546</v>
       </c>
@@ -12278,7 +12308,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="549" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="549" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B549" s="28">
         <v>547</v>
       </c>
@@ -12299,7 +12329,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="550" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="550" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B550" s="28">
         <v>548</v>
       </c>
@@ -12320,7 +12350,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="551" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="551" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B551" s="28">
         <v>549</v>
       </c>
@@ -12341,7 +12371,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="552" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="552" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B552" s="28">
         <v>550</v>
       </c>
@@ -12362,7 +12392,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="553" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="553" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B553" s="28">
         <v>551</v>
       </c>
@@ -12383,7 +12413,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="554" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="554" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B554" s="28">
         <v>552</v>
       </c>
@@ -12404,7 +12434,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="555" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="555" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B555" s="28">
         <v>553</v>
       </c>
@@ -12425,7 +12455,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="556" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="556" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B556" s="28">
         <v>554</v>
       </c>
@@ -12446,7 +12476,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="557" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="557" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B557" s="28">
         <v>555</v>
       </c>
@@ -12467,7 +12497,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="558" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="558" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B558" s="28">
         <v>556</v>
       </c>
@@ -12488,7 +12518,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="559" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="559" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B559" s="28">
         <v>557</v>
       </c>
@@ -12509,7 +12539,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="560" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="560" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B560" s="28">
         <v>558</v>
       </c>
@@ -12530,7 +12560,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="561" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="561" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B561" s="28">
         <v>559</v>
       </c>
@@ -12551,7 +12581,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="562" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="562" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B562" s="28">
         <v>560</v>
       </c>
@@ -12572,7 +12602,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="563" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="563" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B563" s="28">
         <v>561</v>
       </c>
@@ -12593,7 +12623,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="564" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="564" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B564" s="28">
         <v>562</v>
       </c>
@@ -12614,7 +12644,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="565" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="565" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B565" s="28">
         <v>563</v>
       </c>
@@ -12635,7 +12665,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="566" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="566" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B566" s="28">
         <v>564</v>
       </c>
@@ -12656,7 +12686,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="567" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="567" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B567" s="28">
         <v>565</v>
       </c>
@@ -12677,7 +12707,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="568" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="568" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B568" s="28">
         <v>566</v>
       </c>
@@ -12698,7 +12728,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="569" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="569" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B569" s="28">
         <v>567</v>
       </c>
@@ -12719,7 +12749,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="570" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="570" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B570" s="28">
         <v>568</v>
       </c>
@@ -12740,7 +12770,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="571" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="571" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B571" s="28">
         <v>569</v>
       </c>
@@ -12761,7 +12791,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="572" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="572" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B572" s="28">
         <v>570</v>
       </c>
@@ -12782,7 +12812,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="573" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="573" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B573" s="28">
         <v>571</v>
       </c>
@@ -12803,7 +12833,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="574" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="574" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B574" s="28">
         <v>572</v>
       </c>
@@ -12824,7 +12854,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="575" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="575" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B575" s="28">
         <v>573</v>
       </c>
@@ -12845,7 +12875,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="576" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="576" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B576" s="28">
         <v>574</v>
       </c>
@@ -12866,7 +12896,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="577" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="577" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B577" s="28">
         <v>575</v>
       </c>
@@ -12887,7 +12917,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="578" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="578" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B578" s="28">
         <v>576</v>
       </c>
@@ -12908,7 +12938,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="579" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="579" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B579" s="28">
         <v>577</v>
       </c>
@@ -12929,7 +12959,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="580" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="580" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B580" s="28">
         <v>578</v>
       </c>
@@ -12950,7 +12980,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="581" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="581" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B581" s="28">
         <v>579</v>
       </c>
@@ -12971,7 +13001,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="582" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="582" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B582" s="28">
         <v>580</v>
       </c>
@@ -12992,7 +13022,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="583" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="583" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B583" s="28">
         <v>581</v>
       </c>
@@ -13013,7 +13043,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="584" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="584" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B584" s="28">
         <v>582</v>
       </c>
@@ -13034,7 +13064,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="585" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="585" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B585" s="28">
         <v>583</v>
       </c>
@@ -13055,7 +13085,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="586" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="586" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B586" s="28">
         <v>584</v>
       </c>
@@ -13076,7 +13106,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="587" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="587" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B587" s="28">
         <v>585</v>
       </c>
@@ -13097,7 +13127,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="588" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="588" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B588" s="28">
         <v>586</v>
       </c>
@@ -13118,7 +13148,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="589" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="589" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B589" s="28">
         <v>587</v>
       </c>
@@ -13139,7 +13169,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="590" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="590" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B590" s="28">
         <v>588</v>
       </c>
@@ -13160,7 +13190,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="591" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="591" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B591" s="28">
         <v>589</v>
       </c>
@@ -13181,7 +13211,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="592" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="592" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B592" s="28">
         <v>590</v>
       </c>
@@ -13202,7 +13232,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="593" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="593" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B593" s="28">
         <v>591</v>
       </c>
@@ -13223,7 +13253,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="594" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="594" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B594" s="28">
         <v>592</v>
       </c>
@@ -13244,7 +13274,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="595" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="595" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B595" s="28">
         <v>593</v>
       </c>
@@ -13265,7 +13295,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="596" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="596" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B596" s="28">
         <v>594</v>
       </c>
@@ -13286,7 +13316,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="597" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="597" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B597" s="28">
         <v>595</v>
       </c>
@@ -13307,7 +13337,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="598" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="598" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B598" s="28">
         <v>596</v>
       </c>
@@ -13328,7 +13358,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="599" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="599" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B599" s="28">
         <v>597</v>
       </c>
@@ -13349,7 +13379,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="600" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="600" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B600" s="28">
         <v>598</v>
       </c>
@@ -13370,7 +13400,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="601" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="601" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B601" s="28">
         <v>599</v>
       </c>
@@ -13391,19 +13421,19 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="602" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="602" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C602" s="21"/>
     </row>
-    <row r="603" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="603" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C603" s="21"/>
     </row>
-    <row r="604" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="604" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C604" s="21"/>
     </row>
-    <row r="605" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="605" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C605" s="21"/>
     </row>
-    <row r="606" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="606" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C606" s="21"/>
     </row>
   </sheetData>
@@ -13417,12 +13447,12 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -13442,7 +13472,7 @@
       <c r="O1" s="30"/>
       <c r="P1" s="31"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -13492,7 +13522,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -13542,7 +13572,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -13592,7 +13622,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -13642,7 +13672,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>8</v>
       </c>
@@ -13692,7 +13722,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>10</v>
       </c>
@@ -13742,7 +13772,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>12</v>
       </c>
@@ -13792,7 +13822,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>14</v>
       </c>
@@ -13842,7 +13872,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>16</v>
       </c>
@@ -13892,7 +13922,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>18</v>
       </c>
@@ -13942,7 +13972,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>20</v>
       </c>
@@ -13992,7 +14022,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>22</v>
       </c>
@@ -14042,7 +14072,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>24</v>
       </c>
@@ -14092,7 +14122,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>26</v>
       </c>
@@ -14142,7 +14172,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>28</v>
       </c>
@@ -14192,7 +14222,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>30</v>
       </c>
@@ -14242,7 +14272,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>32</v>
       </c>
@@ -14292,7 +14322,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>34</v>
       </c>
@@ -14342,7 +14372,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>36</v>
       </c>
@@ -14392,7 +14422,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>38</v>
       </c>
@@ -14442,7 +14472,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>40</v>
       </c>
@@ -14492,7 +14522,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>42</v>
       </c>
@@ -14542,7 +14572,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>44</v>
       </c>
@@ -14592,7 +14622,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>46</v>
       </c>
@@ -14642,7 +14672,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>48</v>
       </c>
@@ -14692,7 +14722,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>50</v>
       </c>
@@ -14742,7 +14772,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>52</v>
       </c>
@@ -14792,7 +14822,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>54</v>
       </c>
@@ -14842,7 +14872,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>56</v>
       </c>
@@ -14892,7 +14922,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>58</v>
       </c>
@@ -14942,7 +14972,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>60</v>
       </c>
@@ -14992,7 +15022,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>62</v>
       </c>
@@ -15042,14 +15072,14 @@
         <v>511</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="34" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:P33">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15061,12 +15091,12 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+      <selection activeCell="U44" sqref="U44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Probe card HPK 6in 265cells</v>
@@ -15087,7 +15117,7 @@
       <c r="O1" s="30"/>
       <c r="P1" s="31"/>
     </row>
-    <row r="2" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -15105,7 +15135,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -15123,7 +15153,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
@@ -15141,7 +15171,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -15159,7 +15189,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
@@ -15177,7 +15207,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
@@ -15195,7 +15225,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
@@ -15213,7 +15243,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -15231,7 +15261,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -15249,7 +15279,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -15267,7 +15297,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -15285,7 +15315,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
@@ -15303,7 +15333,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>240</v>
       </c>
@@ -15325,7 +15355,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>241</v>
       </c>
@@ -15347,7 +15377,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>242</v>
       </c>
@@ -15369,7 +15399,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>243</v>
       </c>
@@ -15391,7 +15421,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2">
@@ -15437,7 +15467,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="13">
@@ -15481,7 +15511,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="13">
@@ -15527,7 +15557,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="15">
@@ -15573,7 +15603,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>219</v>
       </c>
@@ -15621,7 +15651,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>142</v>
       </c>
@@ -15667,7 +15697,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="13">
@@ -15713,7 +15743,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="15">
@@ -15759,7 +15789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>227</v>
       </c>
@@ -15809,7 +15839,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>203</v>
       </c>
@@ -15859,7 +15889,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>225</v>
       </c>
@@ -15909,7 +15939,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>232</v>
       </c>
@@ -15959,7 +15989,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>216</v>
       </c>
@@ -16009,7 +16039,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>215</v>
       </c>
@@ -16059,7 +16089,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>188</v>
       </c>
@@ -16109,7 +16139,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>157</v>
       </c>
@@ -16157,15 +16187,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -16174,10 +16204,10 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:P22 A33:P33 A23:I32 K23:P32">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16188,12 +16218,12 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+      <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Probe card IFX 8in</v>
@@ -16214,7 +16244,7 @@
       <c r="O1" s="30"/>
       <c r="P1" s="31"/>
     </row>
-    <row r="2" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="11"/>
@@ -16232,7 +16262,7 @@
       <c r="O2" s="11"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="13"/>
@@ -16250,7 +16280,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
       <c r="C4" s="13"/>
@@ -16268,7 +16298,7 @@
       <c r="O4" s="13"/>
       <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="15"/>
@@ -16286,7 +16316,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
@@ -16304,7 +16334,7 @@
       <c r="O6" s="11"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="13"/>
@@ -16322,7 +16352,7 @@
       <c r="O7" s="13"/>
       <c r="P7" s="14"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="13"/>
@@ -16340,7 +16370,7 @@
       <c r="O8" s="13"/>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="15"/>
@@ -16358,7 +16388,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="11"/>
@@ -16376,7 +16406,7 @@
       <c r="O10" s="11"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="13"/>
@@ -16394,7 +16424,7 @@
       <c r="O11" s="13"/>
       <c r="P11" s="14"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="13"/>
@@ -16412,7 +16442,7 @@
       <c r="O12" s="13"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="15"/>
@@ -16430,7 +16460,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="11"/>
@@ -16448,7 +16478,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="13"/>
@@ -16466,7 +16496,7 @@
       <c r="O15" s="13"/>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="13"/>
@@ -16484,7 +16514,7 @@
       <c r="O16" s="13"/>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="15"/>
@@ -16502,7 +16532,7 @@
       <c r="O17" s="15"/>
       <c r="P17" s="16"/>
     </row>
-    <row r="18" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>238</v>
       </c>
@@ -16552,7 +16582,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>239</v>
       </c>
@@ -16602,7 +16632,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>240</v>
       </c>
@@ -16652,7 +16682,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>241</v>
       </c>
@@ -16702,7 +16732,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="11">
@@ -16748,7 +16778,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="13">
@@ -16794,7 +16824,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="13">
@@ -16840,7 +16870,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="15">
@@ -16886,7 +16916,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="11">
@@ -16932,7 +16962,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>111</v>
       </c>
@@ -16982,7 +17012,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>126</v>
       </c>
@@ -17032,7 +17062,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>142</v>
       </c>
@@ -17082,7 +17112,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>158</v>
       </c>
@@ -17132,7 +17162,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>157</v>
       </c>
@@ -17182,7 +17212,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>173</v>
       </c>
@@ -17232,7 +17262,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>188</v>
       </c>
@@ -17280,15 +17310,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -17297,7 +17327,7 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:P33">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17308,12 +17338,12 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Probe card HPK 8in</v>
@@ -17334,7 +17364,7 @@
       <c r="O1" s="30"/>
       <c r="P1" s="31"/>
     </row>
-    <row r="2" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="11"/>
@@ -17352,7 +17382,7 @@
       <c r="O2" s="11"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="13"/>
@@ -17370,7 +17400,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
       <c r="C4" s="13"/>
@@ -17388,7 +17418,7 @@
       <c r="O4" s="13"/>
       <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="15"/>
@@ -17406,7 +17436,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
@@ -17424,7 +17454,7 @@
       <c r="O6" s="11"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="13"/>
@@ -17442,7 +17472,7 @@
       <c r="O7" s="13"/>
       <c r="P7" s="14"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="13"/>
@@ -17460,7 +17490,7 @@
       <c r="O8" s="13"/>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="15"/>
@@ -17478,7 +17508,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="11"/>
@@ -17496,7 +17526,7 @@
       <c r="O10" s="11"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="13"/>
@@ -17514,7 +17544,7 @@
       <c r="O11" s="13"/>
       <c r="P11" s="14"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="13"/>
@@ -17532,7 +17562,7 @@
       <c r="O12" s="13"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="15"/>
@@ -17550,7 +17580,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>272</v>
       </c>
@@ -17580,7 +17610,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>273</v>
       </c>
@@ -17610,7 +17640,7 @@
       <c r="O15" s="13"/>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>274</v>
       </c>
@@ -17640,7 +17670,7 @@
       <c r="O16" s="13"/>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>275</v>
       </c>
@@ -17670,7 +17700,7 @@
       <c r="O17" s="15"/>
       <c r="P17" s="16"/>
     </row>
-    <row r="18" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>268</v>
       </c>
@@ -17720,7 +17750,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>142</v>
       </c>
@@ -17770,7 +17800,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>143</v>
       </c>
@@ -17820,7 +17850,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>108</v>
       </c>
@@ -17870,7 +17900,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>74</v>
       </c>
@@ -17920,7 +17950,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>125</v>
       </c>
@@ -17970,7 +18000,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>160</v>
       </c>
@@ -18020,7 +18050,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>222</v>
       </c>
@@ -18070,7 +18100,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>177</v>
       </c>
@@ -18120,7 +18150,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>161</v>
       </c>
@@ -18170,7 +18200,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>110</v>
       </c>
@@ -18220,7 +18250,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>91</v>
       </c>
@@ -18270,7 +18300,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>92</v>
       </c>
@@ -18320,7 +18350,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>76</v>
       </c>
@@ -18370,7 +18400,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>162</v>
       </c>
@@ -18420,7 +18450,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>20</v>
       </c>
@@ -18468,13 +18498,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -18485,7 +18515,7 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:P33">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18493,19 +18523,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="20" max="20" width="10.73046875" customWidth="1"/>
-    <col min="21" max="21" width="24.73046875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Probe card HPK 6in</v>
@@ -18526,7 +18552,7 @@
       <c r="O1" s="30"/>
       <c r="P1" s="31"/>
     </row>
-    <row r="2" spans="1:25" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -18544,7 +18570,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -18562,7 +18588,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
@@ -18580,7 +18606,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -18598,7 +18624,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:25" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
@@ -18616,7 +18642,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
@@ -18635,7 +18661,7 @@
       <c r="P7" s="5"/>
       <c r="U7" s="8"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
@@ -18653,7 +18679,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -18671,7 +18697,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:25" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -18689,7 +18715,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -18707,9 +18733,8 @@
       <c r="O11" s="4"/>
       <c r="P11" s="5"/>
       <c r="U11" s="8"/>
-      <c r="Y11" s="8"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -18728,7 +18753,7 @@
       <c r="P12" s="5"/>
       <c r="U12" s="8"/>
     </row>
-    <row r="13" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
@@ -18746,7 +18771,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:25" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
@@ -18764,7 +18789,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
@@ -18782,7 +18807,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
@@ -18801,7 +18826,7 @@
       <c r="P16" s="5"/>
       <c r="U16" s="8"/>
     </row>
-    <row r="17" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="6"/>
@@ -18819,7 +18844,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -18837,7 +18862,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="13"/>
@@ -18855,7 +18880,7 @@
       <c r="O19" s="13"/>
       <c r="P19" s="14"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="13"/>
@@ -18873,7 +18898,7 @@
       <c r="O20" s="13"/>
       <c r="P20" s="14"/>
     </row>
-    <row r="21" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="15"/>
@@ -18891,7 +18916,7 @@
       <c r="O21" s="15"/>
       <c r="P21" s="16"/>
     </row>
-    <row r="22" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>136</v>
       </c>
@@ -18906,13 +18931,13 @@
         <v>4</v>
       </c>
       <c r="H22" s="12">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I22" s="11">
         <v>120</v>
       </c>
       <c r="J22" s="12">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="12"/>
@@ -18921,7 +18946,7 @@
       <c r="O22" s="11"/>
       <c r="P22" s="12"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>137</v>
       </c>
@@ -18933,16 +18958,16 @@
       <c r="E23" s="13"/>
       <c r="F23" s="14"/>
       <c r="G23" s="13">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H23" s="14">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="I23" s="13">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J23" s="14">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="K23" s="13"/>
       <c r="L23" s="14"/>
@@ -18951,7 +18976,7 @@
       <c r="O23" s="13"/>
       <c r="P23" s="14"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>138</v>
       </c>
@@ -18963,16 +18988,16 @@
       <c r="E24" s="13"/>
       <c r="F24" s="14"/>
       <c r="G24" s="13">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H24" s="14">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="I24" s="13">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="J24" s="14">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="K24" s="13"/>
       <c r="L24" s="14"/>
@@ -18982,7 +19007,7 @@
       <c r="P24" s="14"/>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>139</v>
       </c>
@@ -18994,13 +19019,13 @@
       <c r="E25" s="15"/>
       <c r="F25" s="16"/>
       <c r="G25" s="15">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="H25" s="16">
         <v>124</v>
       </c>
       <c r="I25" s="15">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="J25" s="16">
         <v>12</v>
@@ -19013,407 +19038,430 @@
       <c r="P25" s="16"/>
       <c r="U25" s="10"/>
     </row>
-    <row r="26" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="11">
         <v>17</v>
       </c>
       <c r="D26" s="12">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="E26" s="11">
         <v>30</v>
       </c>
       <c r="F26" s="12">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="G26" s="11">
         <v>101</v>
       </c>
       <c r="H26" s="12">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="I26" s="11">
         <v>131</v>
       </c>
       <c r="J26" s="12">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="K26" s="11">
         <v>116</v>
       </c>
       <c r="L26" s="12">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M26" s="11">
         <v>24</v>
       </c>
       <c r="N26" s="12">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="O26" s="11">
         <v>119</v>
       </c>
       <c r="P26" s="12">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="U26" s="10"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="13">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D27" s="14">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="E27" s="13">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F27" s="14">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="G27" s="13">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="H27" s="14">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="I27" s="13">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="J27" s="14">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="K27" s="13">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="L27" s="14">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="M27" s="13">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="N27" s="14">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="O27" s="13">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="P27" s="14">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="13">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="D28" s="14">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="E28" s="13">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="F28" s="14">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G28" s="13">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H28" s="14">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="I28" s="13">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="J28" s="14">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="K28" s="13">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="L28" s="14">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M28" s="13">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="N28" s="14">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O28" s="13">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="P28" s="14">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="15">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D29" s="16">
         <v>53</v>
       </c>
       <c r="E29" s="15">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F29" s="16">
         <v>122</v>
       </c>
       <c r="G29" s="15">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="H29" s="16">
         <v>67</v>
       </c>
       <c r="I29" s="15">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="J29" s="16">
         <v>33</v>
       </c>
       <c r="K29" s="15">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="L29" s="16">
         <v>23</v>
       </c>
       <c r="M29" s="15">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="N29" s="16">
         <v>60</v>
       </c>
       <c r="O29" s="15">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="P29" s="16">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>16</v>
       </c>
       <c r="B30" s="12">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C30" s="11">
         <v>97</v>
       </c>
       <c r="D30" s="12">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="E30" s="11">
         <v>121</v>
       </c>
       <c r="F30" s="12">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="G30" s="11">
         <v>89</v>
       </c>
       <c r="H30" s="12">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="I30" s="11">
         <v>103</v>
       </c>
       <c r="J30" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K30" s="11">
         <v>126</v>
       </c>
       <c r="L30" s="12">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M30" s="11">
         <v>59</v>
       </c>
       <c r="N30" s="12">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="O30" s="11">
         <v>72</v>
       </c>
       <c r="P30" s="12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>27</v>
+      </c>
+      <c r="B31" s="14">
+        <v>74</v>
+      </c>
+      <c r="C31" s="13">
+        <v>109</v>
+      </c>
+      <c r="D31" s="14">
+        <v>76</v>
+      </c>
+      <c r="E31" s="13">
+        <v>65</v>
+      </c>
+      <c r="F31" s="14">
+        <v>3</v>
+      </c>
+      <c r="G31" s="13">
+        <v>78</v>
+      </c>
+      <c r="H31" s="14">
+        <v>102</v>
+      </c>
+      <c r="I31" s="13">
+        <v>45</v>
+      </c>
+      <c r="J31" s="14">
+        <v>115</v>
+      </c>
+      <c r="K31" s="13">
+        <v>104</v>
+      </c>
+      <c r="L31" s="14">
+        <v>105</v>
+      </c>
+      <c r="M31" s="13">
+        <v>35</v>
+      </c>
+      <c r="N31" s="14">
+        <v>118</v>
+      </c>
+      <c r="O31" s="13">
+        <v>49</v>
+      </c>
+      <c r="P31" s="14">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>40</v>
+      </c>
+      <c r="B32" s="14">
+        <v>51</v>
+      </c>
+      <c r="C32" s="13">
+        <v>28</v>
+      </c>
+      <c r="D32" s="14">
+        <v>8</v>
+      </c>
+      <c r="E32" s="13">
+        <v>42</v>
+      </c>
+      <c r="F32" s="14">
+        <v>19</v>
+      </c>
+      <c r="G32" s="13">
+        <v>55</v>
+      </c>
+      <c r="H32" s="14">
+        <v>79</v>
+      </c>
+      <c r="I32" s="13">
+        <v>5</v>
+      </c>
+      <c r="J32" s="14">
+        <v>46</v>
+      </c>
+      <c r="K32" s="13">
+        <v>81</v>
+      </c>
+      <c r="L32" s="14">
+        <v>127</v>
+      </c>
+      <c r="M32" s="13">
+        <v>14</v>
+      </c>
+      <c r="N32" s="14">
+        <v>15</v>
+      </c>
+      <c r="O32" s="13">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A31" s="13">
-        <v>86</v>
-      </c>
-      <c r="B31" s="14">
-        <v>51</v>
-      </c>
-      <c r="C31" s="13">
-        <v>99</v>
-      </c>
-      <c r="D31" s="14">
-        <v>8</v>
-      </c>
-      <c r="E31" s="13">
-        <v>66</v>
-      </c>
-      <c r="F31" s="14">
-        <v>19</v>
-      </c>
-      <c r="G31" s="13">
-        <v>90</v>
-      </c>
-      <c r="H31" s="14">
-        <v>79</v>
-      </c>
-      <c r="I31" s="13">
-        <v>6</v>
-      </c>
-      <c r="J31" s="14">
-        <v>46</v>
-      </c>
-      <c r="K31" s="13">
-        <v>82</v>
-      </c>
-      <c r="L31" s="14">
-        <v>127</v>
-      </c>
-      <c r="M31" s="13">
-        <v>95</v>
-      </c>
-      <c r="N31" s="14">
-        <v>15</v>
-      </c>
-      <c r="O31" s="13">
-        <v>73</v>
-      </c>
-      <c r="P31" s="14">
+      <c r="P32" s="14">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A32" s="13">
-        <v>27</v>
-      </c>
-      <c r="B32" s="14">
+    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15">
         <v>63</v>
       </c>
-      <c r="C32" s="13">
-        <v>109</v>
-      </c>
-      <c r="D32" s="14">
+      <c r="B33" s="16">
+        <v>0</v>
+      </c>
+      <c r="C33" s="15">
         <v>52</v>
-      </c>
-      <c r="E32" s="13">
-        <v>65</v>
-      </c>
-      <c r="F32" s="14">
-        <v>18</v>
-      </c>
-      <c r="G32" s="13">
-        <v>78</v>
-      </c>
-      <c r="H32" s="14">
-        <v>31</v>
-      </c>
-      <c r="I32" s="13">
-        <v>45</v>
-      </c>
-      <c r="J32" s="14">
-        <v>21</v>
-      </c>
-      <c r="K32" s="13">
-        <v>104</v>
-      </c>
-      <c r="L32" s="14">
-        <v>58</v>
-      </c>
-      <c r="M32" s="13">
-        <v>35</v>
-      </c>
-      <c r="N32" s="14">
-        <v>117</v>
-      </c>
-      <c r="O32" s="13">
-        <v>49</v>
-      </c>
-      <c r="P32" s="14">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="15">
-        <v>74</v>
-      </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="15">
-        <v>76</v>
       </c>
       <c r="D33" s="16">
         <v>29</v>
       </c>
       <c r="E33" s="15">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F33" s="16">
         <v>43</v>
       </c>
       <c r="G33" s="15">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="H33" s="16">
         <v>1</v>
       </c>
       <c r="I33" s="15">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J33" s="16">
         <v>69</v>
       </c>
       <c r="K33" s="15">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="L33" s="16">
         <v>7</v>
       </c>
       <c r="M33" s="15">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N33" s="16">
         <v>36</v>
       </c>
       <c r="O33" s="15">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="P33" s="16">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
-      </c>
-    </row>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
+    </row>
+    <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:P33">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:B48">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/maps/SwitchBoardMapping.xlsx
+++ b/maps/SwitchBoardMapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10845" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Maps" sheetId="3" r:id="rId1"/>
@@ -365,27 +365,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -768,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K606"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -13446,8 +13426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15079,7 +15059,7 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:P33">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16204,10 +16184,10 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:P22 A33:P33 A23:I32 K23:P32">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17327,7 +17307,7 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:P33">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18515,7 +18495,7 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:P33">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18526,7 +18506,7 @@
   <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T39" sqref="T39"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19458,10 +19438,10 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:P33">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B48">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/maps/SwitchBoardMapping.xlsx
+++ b/maps/SwitchBoardMapping.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\HGCAL_sensor_tests\maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas Maier\Documents\HGC_sensor_project\HGCAL_sensor_tests\maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10845" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10845" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Maps" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Probe card HPK 8in" sheetId="4" r:id="rId5"/>
     <sheet name="Probe card HPK 6in" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -752,14 +752,14 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="25"/>
-    <col min="2" max="2" width="14.5703125" style="28"/>
-    <col min="3" max="16384" width="14.5703125" style="20"/>
+    <col min="1" max="1" width="14.59765625" style="25"/>
+    <col min="2" max="2" width="14.59765625" style="28"/>
+    <col min="3" max="16384" width="14.59765625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="17" customFormat="1" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
@@ -784,7 +784,7 @@
         <v>Probe card HPK 6in 265cells</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="19" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="19" customFormat="1" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
@@ -809,7 +809,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="25" t="s">
         <v>4</v>
       </c>
@@ -834,7 +834,7 @@
       </c>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B4" s="28">
         <v>2</v>
       </c>
@@ -856,7 +856,7 @@
       </c>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="28">
         <v>3</v>
       </c>
@@ -878,7 +878,7 @@
       </c>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" s="28">
         <v>4</v>
       </c>
@@ -903,7 +903,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B7" s="28">
         <v>5</v>
       </c>
@@ -925,7 +925,7 @@
       </c>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B8" s="28">
         <v>6</v>
       </c>
@@ -947,7 +947,7 @@
       </c>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B9" s="28">
         <v>7</v>
       </c>
@@ -968,7 +968,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B10" s="28">
         <v>8</v>
       </c>
@@ -989,7 +989,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B11" s="28">
         <v>9</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B12" s="28">
         <v>10</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B13" s="28">
         <v>11</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B14" s="28">
         <v>12</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B15" s="28">
         <v>13</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B16" s="28">
         <v>14</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="28">
         <v>15</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="28">
         <v>16</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="28">
         <v>17</v>
       </c>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="28">
         <v>18</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="28">
         <v>19</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="28">
         <v>20</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="28">
         <v>21</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="28">
         <v>22</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="28">
         <v>23</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="28">
         <v>24</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="28">
         <v>25</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="28">
         <v>26</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="28">
         <v>27</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="28">
         <v>28</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="28">
         <v>29</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="28">
         <v>30</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33" s="28">
         <v>31</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34" s="28">
         <v>32</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B35" s="28">
         <v>33</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36" s="28">
         <v>34</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B37" s="28">
         <v>35</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B38" s="28">
         <v>36</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B39" s="28">
         <v>37</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B40" s="28">
         <v>38</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B41" s="28">
         <v>39</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B42" s="28">
         <v>40</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B43" s="28">
         <v>41</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B44" s="28">
         <v>42</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B45" s="28">
         <v>43</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B46" s="28">
         <v>44</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B47" s="28">
         <v>45</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B48" s="28">
         <v>46</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B49" s="28">
         <v>47</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B50" s="28">
         <v>48</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B51" s="28">
         <v>49</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B52" s="28">
         <v>50</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B53" s="28">
         <v>51</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B54" s="28">
         <v>52</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B55" s="28">
         <v>53</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B56" s="28">
         <v>54</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B57" s="28">
         <v>55</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B58" s="28">
         <v>56</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B59" s="28">
         <v>57</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B60" s="28">
         <v>58</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B61" s="28">
         <v>59</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B62" s="28">
         <v>60</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B63" s="28">
         <v>61</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B64" s="28">
         <v>62</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B65" s="28">
         <v>63</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B66" s="28">
         <v>64</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B67" s="28">
         <v>65</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B68" s="28">
         <v>66</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B69" s="28">
         <v>67</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B70" s="28">
         <v>68</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B71" s="28">
         <v>69</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B72" s="28">
         <v>70</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B73" s="28">
         <v>71</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B74" s="28">
         <v>72</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B75" s="28">
         <v>73</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B76" s="28">
         <v>74</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B77" s="28">
         <v>75</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B78" s="28">
         <v>76</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B79" s="28">
         <v>77</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B80" s="28">
         <v>78</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B81" s="28">
         <v>79</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B82" s="28">
         <v>80</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B83" s="28">
         <v>81</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B84" s="28">
         <v>82</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B85" s="28">
         <v>83</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B86" s="28">
         <v>84</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B87" s="28">
         <v>85</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B88" s="28">
         <v>86</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B89" s="28">
         <v>87</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B90" s="28">
         <v>88</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B91" s="28">
         <v>89</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B92" s="28">
         <v>90</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B93" s="28">
         <v>91</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B94" s="28">
         <v>92</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B95" s="28">
         <v>93</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B96" s="28">
         <v>94</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B97" s="28">
         <v>95</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B98" s="28">
         <v>96</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B99" s="28">
         <v>97</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B100" s="28">
         <v>98</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B101" s="28">
         <v>99</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B102" s="28">
         <v>100</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B103" s="28">
         <v>101</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B104" s="28">
         <v>102</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B105" s="28">
         <v>103</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B106" s="28">
         <v>104</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B107" s="28">
         <v>105</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B108" s="28">
         <v>106</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B109" s="28">
         <v>107</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B110" s="28">
         <v>108</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B111" s="28">
         <v>109</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B112" s="28">
         <v>110</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B113" s="28">
         <v>111</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B114" s="28">
         <v>112</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B115" s="28">
         <v>113</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B116" s="28">
         <v>114</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B117" s="28">
         <v>115</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B118" s="28">
         <v>116</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B119" s="28">
         <v>117</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B120" s="28">
         <v>118</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B121" s="28">
         <v>119</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B122" s="28">
         <v>120</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B123" s="28">
         <v>121</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B124" s="28">
         <v>122</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B125" s="28">
         <v>123</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B126" s="28">
         <v>124</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B127" s="28">
         <v>125</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B128" s="28">
         <v>126</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B129" s="28">
         <v>127</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B130" s="28">
         <v>128</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B131" s="28">
         <v>129</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B132" s="28">
         <v>130</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B133" s="28">
         <v>131</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B134" s="28">
         <v>132</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B135" s="28">
         <v>133</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B136" s="28">
         <v>134</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B137" s="28">
         <v>135</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B138" s="28">
         <v>136</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B139" s="28">
         <v>137</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B140" s="28">
         <v>138</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B141" s="28">
         <v>139</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B142" s="28">
         <v>140</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B143" s="28">
         <v>141</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B144" s="28">
         <v>142</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B145" s="28">
         <v>143</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B146" s="28">
         <v>144</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B147" s="28">
         <v>145</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B148" s="28">
         <v>146</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B149" s="28">
         <v>147</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B150" s="28">
         <v>148</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B151" s="28">
         <v>149</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B152" s="28">
         <v>150</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B153" s="28">
         <v>151</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B154" s="28">
         <v>152</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B155" s="28">
         <v>153</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B156" s="28">
         <v>154</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B157" s="28">
         <v>155</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B158" s="28">
         <v>156</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B159" s="28">
         <v>157</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B160" s="28">
         <v>158</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B161" s="28">
         <v>159</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B162" s="28">
         <v>160</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B163" s="28">
         <v>161</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B164" s="28">
         <v>162</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B165" s="28">
         <v>163</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B166" s="28">
         <v>164</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B167" s="28">
         <v>165</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B168" s="28">
         <v>166</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B169" s="28">
         <v>167</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B170" s="28">
         <v>168</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B171" s="28">
         <v>169</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B172" s="28">
         <v>170</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B173" s="28">
         <v>171</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B174" s="28">
         <v>172</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B175" s="28">
         <v>173</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B176" s="28">
         <v>174</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B177" s="28">
         <v>175</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B178" s="28">
         <v>176</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B179" s="28">
         <v>177</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B180" s="28">
         <v>178</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B181" s="28">
         <v>179</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B182" s="28">
         <v>180</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B183" s="28">
         <v>181</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B184" s="28">
         <v>182</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B185" s="28">
         <v>183</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B186" s="28">
         <v>184</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B187" s="28">
         <v>185</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B188" s="28">
         <v>186</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B189" s="28">
         <v>187</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B190" s="28">
         <v>188</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B191" s="28">
         <v>189</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B192" s="28">
         <v>190</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B193" s="28">
         <v>191</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B194" s="28">
         <v>192</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B195" s="28">
         <v>193</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B196" s="28">
         <v>194</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B197" s="28">
         <v>195</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B198" s="28">
         <v>196</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B199" s="28">
         <v>197</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B200" s="28">
         <v>198</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B201" s="28">
         <v>199</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B202" s="28">
         <v>200</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B203" s="28">
         <v>201</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B204" s="28">
         <v>202</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B205" s="28">
         <v>203</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B206" s="28">
         <v>204</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B207" s="28">
         <v>205</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B208" s="28">
         <v>206</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B209" s="28">
         <v>207</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B210" s="28">
         <v>208</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B211" s="28">
         <v>209</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B212" s="28">
         <v>210</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B213" s="28">
         <v>211</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B214" s="28">
         <v>212</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B215" s="28">
         <v>213</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B216" s="28">
         <v>214</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B217" s="28">
         <v>215</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B218" s="28">
         <v>216</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B219" s="28">
         <v>217</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B220" s="28">
         <v>218</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B221" s="28">
         <v>219</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B222" s="28">
         <v>220</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B223" s="28">
         <v>221</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B224" s="28">
         <v>222</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B225" s="28">
         <v>223</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B226" s="28">
         <v>224</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B227" s="28">
         <v>225</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B228" s="28">
         <v>226</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B229" s="28">
         <v>227</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B230" s="28">
         <v>228</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B231" s="28">
         <v>229</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B232" s="28">
         <v>230</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B233" s="28">
         <v>231</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B234" s="28">
         <v>232</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B235" s="28">
         <v>233</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B236" s="28">
         <v>234</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B237" s="28">
         <v>235</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B238" s="28">
         <v>236</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B239" s="28">
         <v>237</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B240" s="28">
         <v>238</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B241" s="28">
         <v>239</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B242" s="28">
         <v>240</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B243" s="28">
         <v>241</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B244" s="28">
         <v>242</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B245" s="28">
         <v>243</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B246" s="28">
         <v>244</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B247" s="28">
         <v>245</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B248" s="28">
         <v>246</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B249" s="28">
         <v>247</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B250" s="28">
         <v>248</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B251" s="28">
         <v>249</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B252" s="28">
         <v>250</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B253" s="28">
         <v>251</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B254" s="28">
         <v>252</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B255" s="28">
         <v>253</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B256" s="28">
         <v>254</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B257" s="28">
         <v>255</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B258" s="28">
         <v>256</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B259" s="28">
         <v>257</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B260" s="28">
         <v>258</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B261" s="28">
         <v>259</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B262" s="28">
         <v>260</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B263" s="28">
         <v>261</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B264" s="28">
         <v>262</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B265" s="28">
         <v>263</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B266" s="28">
         <v>264</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B267" s="28">
         <v>265</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B268" s="28">
         <v>266</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B269" s="28">
         <v>267</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B270" s="28">
         <v>268</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B271" s="28">
         <v>269</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B272" s="28">
         <v>270</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B273" s="28">
         <v>271</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B274" s="28">
         <v>272</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B275" s="28">
         <v>273</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B276" s="28">
         <v>274</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B277" s="28">
         <v>275</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B278" s="28">
         <v>276</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B279" s="28">
         <v>277</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B280" s="28">
         <v>278</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B281" s="28">
         <v>279</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B282" s="28">
         <v>280</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B283" s="28">
         <v>281</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B284" s="28">
         <v>282</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B285" s="28">
         <v>283</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B286" s="28">
         <v>284</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B287" s="28">
         <v>285</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B288" s="28">
         <v>286</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B289" s="28">
         <v>287</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B290" s="28">
         <v>288</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B291" s="28">
         <v>289</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B292" s="28">
         <v>290</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B293" s="28">
         <v>291</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B294" s="28">
         <v>292</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B295" s="28">
         <v>293</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B296" s="28">
         <v>294</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B297" s="28">
         <v>295</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B298" s="28">
         <v>296</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B299" s="28">
         <v>297</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B300" s="28">
         <v>298</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B301" s="28">
         <v>299</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B302" s="28">
         <v>300</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B303" s="28">
         <v>301</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B304" s="28">
         <v>302</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B305" s="28">
         <v>303</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B306" s="28">
         <v>304</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B307" s="28">
         <v>305</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B308" s="28">
         <v>306</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B309" s="28">
         <v>307</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B310" s="28">
         <v>308</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B311" s="28">
         <v>309</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B312" s="28">
         <v>310</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B313" s="28">
         <v>311</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B314" s="28">
         <v>312</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B315" s="28">
         <v>313</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B316" s="28">
         <v>314</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B317" s="28">
         <v>315</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B318" s="28">
         <v>316</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B319" s="28">
         <v>317</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B320" s="28">
         <v>318</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B321" s="28">
         <v>319</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B322" s="28">
         <v>320</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B323" s="28">
         <v>321</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B324" s="28">
         <v>322</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B325" s="28">
         <v>323</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B326" s="28">
         <v>324</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B327" s="28">
         <v>325</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B328" s="28">
         <v>326</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B329" s="28">
         <v>327</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B330" s="28">
         <v>328</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B331" s="28">
         <v>329</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B332" s="28">
         <v>330</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B333" s="28">
         <v>331</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B334" s="28">
         <v>332</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B335" s="28">
         <v>333</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B336" s="28">
         <v>334</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B337" s="28">
         <v>335</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B338" s="28">
         <v>336</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B339" s="28">
         <v>337</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B340" s="28">
         <v>338</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B341" s="28">
         <v>339</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B342" s="28">
         <v>340</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B343" s="28">
         <v>341</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B344" s="28">
         <v>342</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B345" s="28">
         <v>343</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B346" s="28">
         <v>344</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B347" s="28">
         <v>345</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B348" s="28">
         <v>346</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B349" s="28">
         <v>347</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B350" s="28">
         <v>348</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B351" s="28">
         <v>349</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B352" s="28">
         <v>350</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B353" s="28">
         <v>351</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B354" s="28">
         <v>352</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B355" s="28">
         <v>353</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B356" s="28">
         <v>354</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B357" s="28">
         <v>355</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B358" s="28">
         <v>356</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B359" s="28">
         <v>357</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B360" s="28">
         <v>358</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B361" s="28">
         <v>359</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B362" s="28">
         <v>360</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B363" s="28">
         <v>361</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B364" s="28">
         <v>362</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B365" s="28">
         <v>363</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B366" s="28">
         <v>364</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B367" s="28">
         <v>365</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B368" s="28">
         <v>366</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B369" s="28">
         <v>367</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B370" s="28">
         <v>368</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B371" s="28">
         <v>369</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B372" s="28">
         <v>370</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B373" s="28">
         <v>371</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B374" s="28">
         <v>372</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B375" s="28">
         <v>373</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B376" s="28">
         <v>374</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B377" s="28">
         <v>375</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B378" s="28">
         <v>376</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B379" s="28">
         <v>377</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B380" s="28">
         <v>378</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B381" s="28">
         <v>379</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B382" s="28">
         <v>380</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B383" s="28">
         <v>381</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B384" s="28">
         <v>382</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B385" s="28">
         <v>383</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B386" s="28">
         <v>384</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B387" s="28">
         <v>385</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B388" s="28">
         <v>386</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B389" s="28">
         <v>387</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B390" s="28">
         <v>388</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B391" s="28">
         <v>389</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B392" s="28">
         <v>390</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B393" s="28">
         <v>391</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B394" s="28">
         <v>392</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B395" s="28">
         <v>393</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B396" s="28">
         <v>394</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B397" s="28">
         <v>395</v>
       </c>
@@ -9117,7 +9117,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B398" s="28">
         <v>396</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B399" s="28">
         <v>397</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B400" s="28">
         <v>398</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B401" s="28">
         <v>399</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B402" s="28">
         <v>400</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B403" s="28">
         <v>401</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B404" s="28">
         <v>402</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B405" s="28">
         <v>403</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B406" s="28">
         <v>404</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B407" s="28">
         <v>405</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B408" s="28">
         <v>406</v>
       </c>
@@ -9348,7 +9348,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B409" s="28">
         <v>407</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B410" s="28">
         <v>408</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B411" s="28">
         <v>409</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B412" s="28">
         <v>410</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B413" s="28">
         <v>411</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B414" s="28">
         <v>412</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B415" s="28">
         <v>413</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B416" s="28">
         <v>414</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B417" s="28">
         <v>415</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B418" s="28">
         <v>416</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B419" s="28">
         <v>417</v>
       </c>
@@ -9579,7 +9579,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B420" s="28">
         <v>418</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B421" s="28">
         <v>419</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="422" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B422" s="28">
         <v>420</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="423" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B423" s="28">
         <v>421</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="424" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B424" s="28">
         <v>422</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="425" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B425" s="28">
         <v>423</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="426" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B426" s="28">
         <v>424</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="427" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B427" s="28">
         <v>425</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="428" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B428" s="28">
         <v>426</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="429" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B429" s="28">
         <v>427</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="430" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B430" s="28">
         <v>428</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="431" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B431" s="28">
         <v>429</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="432" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B432" s="28">
         <v>430</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="433" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B433" s="28">
         <v>431</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="434" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B434" s="28">
         <v>432</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="435" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B435" s="28">
         <v>433</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="436" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B436" s="28">
         <v>434</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="437" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B437" s="28">
         <v>435</v>
       </c>
@@ -9957,7 +9957,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="438" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B438" s="28">
         <v>436</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="439" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B439" s="28">
         <v>437</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="440" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B440" s="28">
         <v>438</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="441" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B441" s="28">
         <v>439</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="442" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B442" s="28">
         <v>440</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="443" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B443" s="28">
         <v>441</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="444" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B444" s="28">
         <v>442</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="445" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B445" s="28">
         <v>443</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="446" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B446" s="28">
         <v>444</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="447" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B447" s="28">
         <v>445</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="448" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B448" s="28">
         <v>446</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="449" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B449" s="28">
         <v>447</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="450" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B450" s="28">
         <v>448</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="451" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B451" s="28">
         <v>449</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="452" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B452" s="28">
         <v>450</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="453" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B453" s="28">
         <v>451</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="454" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B454" s="28">
         <v>452</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="455" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B455" s="28">
         <v>453</v>
       </c>
@@ -10335,7 +10335,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="456" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B456" s="28">
         <v>454</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="457" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B457" s="28">
         <v>455</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="458" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B458" s="28">
         <v>456</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="459" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B459" s="28">
         <v>457</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="460" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B460" s="28">
         <v>458</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="461" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B461" s="28">
         <v>459</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="462" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B462" s="28">
         <v>460</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="463" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B463" s="28">
         <v>461</v>
       </c>
@@ -10503,7 +10503,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="464" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B464" s="28">
         <v>462</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="465" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B465" s="28">
         <v>463</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="466" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B466" s="28">
         <v>464</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="467" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B467" s="28">
         <v>465</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="468" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B468" s="28">
         <v>466</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="469" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B469" s="28">
         <v>467</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="470" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B470" s="28">
         <v>468</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="471" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B471" s="28">
         <v>469</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="472" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B472" s="28">
         <v>470</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="473" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B473" s="28">
         <v>471</v>
       </c>
@@ -10713,7 +10713,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="474" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B474" s="28">
         <v>472</v>
       </c>
@@ -10734,7 +10734,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="475" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B475" s="28">
         <v>473</v>
       </c>
@@ -10755,7 +10755,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="476" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B476" s="28">
         <v>474</v>
       </c>
@@ -10776,7 +10776,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="477" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B477" s="28">
         <v>475</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="478" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B478" s="28">
         <v>476</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="479" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B479" s="28">
         <v>477</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="480" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B480" s="28">
         <v>478</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="481" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B481" s="28">
         <v>479</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="482" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B482" s="28">
         <v>480</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="483" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B483" s="28">
         <v>481</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="484" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B484" s="28">
         <v>482</v>
       </c>
@@ -10944,7 +10944,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="485" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B485" s="28">
         <v>483</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="486" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B486" s="28">
         <v>484</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="487" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B487" s="28">
         <v>485</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="488" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B488" s="28">
         <v>486</v>
       </c>
@@ -11028,7 +11028,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="489" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B489" s="28">
         <v>487</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="490" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B490" s="28">
         <v>488</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="491" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B491" s="28">
         <v>489</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="492" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B492" s="28">
         <v>490</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="493" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B493" s="28">
         <v>491</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="494" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B494" s="28">
         <v>492</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="495" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B495" s="28">
         <v>493</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="496" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B496" s="28">
         <v>494</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="497" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B497" s="28">
         <v>495</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="498" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B498" s="28">
         <v>496</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="499" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B499" s="28">
         <v>497</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="500" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B500" s="28">
         <v>498</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="501" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B501" s="28">
         <v>499</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="502" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B502" s="28">
         <v>500</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="503" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B503" s="28">
         <v>501</v>
       </c>
@@ -11343,7 +11343,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="504" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B504" s="28">
         <v>502</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="505" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B505" s="28">
         <v>503</v>
       </c>
@@ -11385,7 +11385,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="506" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B506" s="28">
         <v>504</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="507" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B507" s="28">
         <v>505</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="508" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B508" s="28">
         <v>506</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="509" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B509" s="28">
         <v>507</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="510" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B510" s="28">
         <v>508</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="511" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B511" s="28">
         <v>509</v>
       </c>
@@ -11511,7 +11511,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="512" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B512" s="28">
         <v>510</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="513" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B513" s="28">
         <v>511</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="514" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B514" s="28">
         <v>512</v>
       </c>
@@ -11574,7 +11574,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="515" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B515" s="28">
         <v>513</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="516" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B516" s="28">
         <v>514</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="517" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B517" s="28">
         <v>515</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="518" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B518" s="28">
         <v>516</v>
       </c>
@@ -11658,7 +11658,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="519" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B519" s="28">
         <v>517</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="520" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B520" s="28">
         <v>518</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="521" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B521" s="28">
         <v>519</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="522" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B522" s="28">
         <v>520</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="523" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B523" s="28">
         <v>521</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="524" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B524" s="28">
         <v>522</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="525" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B525" s="28">
         <v>523</v>
       </c>
@@ -11805,7 +11805,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="526" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B526" s="28">
         <v>524</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="527" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B527" s="28">
         <v>525</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="528" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B528" s="28">
         <v>526</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="529" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B529" s="28">
         <v>527</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="530" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B530" s="28">
         <v>528</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="531" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B531" s="28">
         <v>529</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="532" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B532" s="28">
         <v>530</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="533" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B533" s="28">
         <v>531</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="534" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B534" s="28">
         <v>532</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="535" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B535" s="28">
         <v>533</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="536" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B536" s="28">
         <v>534</v>
       </c>
@@ -12036,7 +12036,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="537" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B537" s="28">
         <v>535</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="538" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B538" s="28">
         <v>536</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="539" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B539" s="28">
         <v>537</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="540" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B540" s="28">
         <v>538</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="541" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B541" s="28">
         <v>539</v>
       </c>
@@ -12141,7 +12141,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="542" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B542" s="28">
         <v>540</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="543" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B543" s="28">
         <v>541</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="544" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B544" s="28">
         <v>542</v>
       </c>
@@ -12204,7 +12204,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="545" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B545" s="28">
         <v>543</v>
       </c>
@@ -12225,7 +12225,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="546" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B546" s="28">
         <v>544</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="547" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B547" s="28">
         <v>545</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="548" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B548" s="28">
         <v>546</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="549" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B549" s="28">
         <v>547</v>
       </c>
@@ -12309,7 +12309,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="550" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B550" s="28">
         <v>548</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="551" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B551" s="28">
         <v>549</v>
       </c>
@@ -12351,7 +12351,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="552" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B552" s="28">
         <v>550</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="553" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B553" s="28">
         <v>551</v>
       </c>
@@ -12393,7 +12393,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="554" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B554" s="28">
         <v>552</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="555" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B555" s="28">
         <v>553</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="556" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B556" s="28">
         <v>554</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="557" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B557" s="28">
         <v>555</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="558" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B558" s="28">
         <v>556</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="559" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B559" s="28">
         <v>557</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="560" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B560" s="28">
         <v>558</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="561" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B561" s="28">
         <v>559</v>
       </c>
@@ -12561,7 +12561,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="562" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B562" s="28">
         <v>560</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="563" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B563" s="28">
         <v>561</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="564" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B564" s="28">
         <v>562</v>
       </c>
@@ -12624,7 +12624,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="565" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B565" s="28">
         <v>563</v>
       </c>
@@ -12645,7 +12645,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="566" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B566" s="28">
         <v>564</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="567" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B567" s="28">
         <v>565</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="568" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B568" s="28">
         <v>566</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="569" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B569" s="28">
         <v>567</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="570" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B570" s="28">
         <v>568</v>
       </c>
@@ -12750,7 +12750,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="571" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B571" s="28">
         <v>569</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="572" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B572" s="28">
         <v>570</v>
       </c>
@@ -12792,7 +12792,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="573" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B573" s="28">
         <v>571</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="574" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B574" s="28">
         <v>572</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="575" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B575" s="28">
         <v>573</v>
       </c>
@@ -12855,7 +12855,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="576" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B576" s="28">
         <v>574</v>
       </c>
@@ -12876,7 +12876,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="577" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B577" s="28">
         <v>575</v>
       </c>
@@ -12897,7 +12897,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="578" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B578" s="28">
         <v>576</v>
       </c>
@@ -12918,7 +12918,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="579" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B579" s="28">
         <v>577</v>
       </c>
@@ -12939,7 +12939,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="580" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B580" s="28">
         <v>578</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="581" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B581" s="28">
         <v>579</v>
       </c>
@@ -12981,7 +12981,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="582" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B582" s="28">
         <v>580</v>
       </c>
@@ -13002,7 +13002,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="583" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B583" s="28">
         <v>581</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="584" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B584" s="28">
         <v>582</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="585" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B585" s="28">
         <v>583</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="586" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B586" s="28">
         <v>584</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="587" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B587" s="28">
         <v>585</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="588" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B588" s="28">
         <v>586</v>
       </c>
@@ -13128,7 +13128,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="589" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B589" s="28">
         <v>587</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="590" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B590" s="28">
         <v>588</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="591" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B591" s="28">
         <v>589</v>
       </c>
@@ -13191,7 +13191,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="592" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B592" s="28">
         <v>590</v>
       </c>
@@ -13212,7 +13212,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="593" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B593" s="28">
         <v>591</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="594" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B594" s="28">
         <v>592</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="595" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B595" s="28">
         <v>593</v>
       </c>
@@ -13275,7 +13275,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="596" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B596" s="28">
         <v>594</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="597" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B597" s="28">
         <v>595</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="598" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B598" s="28">
         <v>596</v>
       </c>
@@ -13338,7 +13338,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="599" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B599" s="28">
         <v>597</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="600" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B600" s="28">
         <v>598</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="601" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B601" s="28">
         <v>599</v>
       </c>
@@ -13401,19 +13401,19 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="602" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C602" s="21"/>
     </row>
-    <row r="603" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C603" s="21"/>
     </row>
-    <row r="604" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C604" s="21"/>
     </row>
-    <row r="605" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C605" s="21"/>
     </row>
-    <row r="606" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C606" s="21"/>
     </row>
   </sheetData>
@@ -13426,13 +13426,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -13452,7 +13452,7 @@
       <c r="O1" s="30"/>
       <c r="P1" s="31"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -13552,7 +13552,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -13652,7 +13652,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>8</v>
       </c>
@@ -13702,7 +13702,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>10</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>12</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="6">
         <v>14</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>16</v>
       </c>
@@ -13902,7 +13902,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>18</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>20</v>
       </c>
@@ -14002,7 +14002,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="6">
         <v>22</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>24</v>
       </c>
@@ -14102,7 +14102,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>26</v>
       </c>
@@ -14152,7 +14152,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>28</v>
       </c>
@@ -14202,7 +14202,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="6">
         <v>30</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>32</v>
       </c>
@@ -14302,7 +14302,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>34</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>36</v>
       </c>
@@ -14402,7 +14402,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="6">
         <v>38</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
         <v>40</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="13">
         <v>42</v>
       </c>
@@ -14552,7 +14552,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="13">
         <v>44</v>
       </c>
@@ -14602,7 +14602,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="15">
         <v>46</v>
       </c>
@@ -14652,7 +14652,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A26" s="11">
         <v>48</v>
       </c>
@@ -14702,7 +14702,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="13">
         <v>50</v>
       </c>
@@ -14752,7 +14752,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="13">
         <v>52</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="15">
         <v>54</v>
       </c>
@@ -14852,7 +14852,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11">
         <v>56</v>
       </c>
@@ -14902,7 +14902,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="13">
         <v>58</v>
       </c>
@@ -14952,7 +14952,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="13">
         <v>60</v>
       </c>
@@ -15002,7 +15002,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="15">
         <v>62</v>
       </c>
@@ -15052,7 +15052,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
@@ -15070,13 +15070,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U44" sqref="U44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="29" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Probe card HPK 6in 265cells</v>
@@ -15097,7 +15097,7 @@
       <c r="O1" s="30"/>
       <c r="P1" s="31"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -15115,7 +15115,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -15133,7 +15133,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
@@ -15151,7 +15151,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -15169,7 +15169,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
@@ -15187,7 +15187,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
@@ -15205,7 +15205,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
@@ -15223,7 +15223,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -15241,7 +15241,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -15259,7 +15259,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -15277,7 +15277,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -15295,7 +15295,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
@@ -15313,7 +15313,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>240</v>
       </c>
@@ -15335,7 +15335,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>241</v>
       </c>
@@ -15357,7 +15357,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>242</v>
       </c>
@@ -15379,7 +15379,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="6">
         <v>243</v>
       </c>
@@ -15401,7 +15401,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2">
@@ -15447,7 +15447,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="13">
@@ -15491,7 +15491,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="13">
@@ -15537,7 +15537,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="15">
@@ -15583,7 +15583,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
         <v>219</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="13">
         <v>142</v>
       </c>
@@ -15677,7 +15677,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="13">
@@ -15723,7 +15723,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="15">
@@ -15769,7 +15769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A26" s="11">
         <v>227</v>
       </c>
@@ -15819,7 +15819,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" s="13">
         <v>203</v>
       </c>
@@ -15869,7 +15869,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" s="13">
         <v>225</v>
       </c>
@@ -15919,7 +15919,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="15">
         <v>232</v>
       </c>
@@ -15969,7 +15969,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11">
         <v>216</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" s="13">
         <v>215</v>
       </c>
@@ -16069,7 +16069,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" s="13">
         <v>188</v>
       </c>
@@ -16119,7 +16119,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="15">
         <v>157</v>
       </c>
@@ -16167,13 +16167,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -16201,9 +16201,9 @@
       <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="29" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Probe card IFX 8in</v>
@@ -16224,7 +16224,7 @@
       <c r="O1" s="30"/>
       <c r="P1" s="31"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="11"/>
@@ -16242,7 +16242,7 @@
       <c r="O2" s="11"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="13"/>
@@ -16260,7 +16260,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
       <c r="C4" s="13"/>
@@ -16278,7 +16278,7 @@
       <c r="O4" s="13"/>
       <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="15"/>
@@ -16296,7 +16296,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
@@ -16314,7 +16314,7 @@
       <c r="O6" s="11"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="13"/>
@@ -16332,7 +16332,7 @@
       <c r="O7" s="13"/>
       <c r="P7" s="14"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="13"/>
@@ -16350,7 +16350,7 @@
       <c r="O8" s="13"/>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="15"/>
@@ -16368,7 +16368,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="11"/>
@@ -16386,7 +16386,7 @@
       <c r="O10" s="11"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="13"/>
@@ -16404,7 +16404,7 @@
       <c r="O11" s="13"/>
       <c r="P11" s="14"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="13"/>
@@ -16422,7 +16422,7 @@
       <c r="O12" s="13"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="15"/>
@@ -16440,7 +16440,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="11"/>
@@ -16458,7 +16458,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="13"/>
@@ -16476,7 +16476,7 @@
       <c r="O15" s="13"/>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="13"/>
@@ -16494,7 +16494,7 @@
       <c r="O16" s="13"/>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="15"/>
@@ -16512,7 +16512,7 @@
       <c r="O17" s="15"/>
       <c r="P17" s="16"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A18" s="11">
         <v>238</v>
       </c>
@@ -16562,7 +16562,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="13">
         <v>239</v>
       </c>
@@ -16612,7 +16612,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="13">
         <v>240</v>
       </c>
@@ -16662,7 +16662,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="15">
         <v>241</v>
       </c>
@@ -16712,7 +16712,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="11">
@@ -16758,7 +16758,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="13">
@@ -16804,7 +16804,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="13">
@@ -16850,7 +16850,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="15">
@@ -16896,7 +16896,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="11">
@@ -16942,7 +16942,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" s="13">
         <v>111</v>
       </c>
@@ -16992,7 +16992,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" s="13">
         <v>126</v>
       </c>
@@ -17042,7 +17042,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="15">
         <v>142</v>
       </c>
@@ -17092,7 +17092,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11">
         <v>158</v>
       </c>
@@ -17142,7 +17142,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" s="13">
         <v>157</v>
       </c>
@@ -17192,7 +17192,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" s="13">
         <v>173</v>
       </c>
@@ -17242,7 +17242,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="15">
         <v>188</v>
       </c>
@@ -17290,13 +17290,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -17318,12 +17318,12 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="29" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Probe card HPK 8in</v>
@@ -17344,7 +17344,7 @@
       <c r="O1" s="30"/>
       <c r="P1" s="31"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="11"/>
@@ -17362,7 +17362,7 @@
       <c r="O2" s="11"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="13"/>
@@ -17380,7 +17380,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
       <c r="C4" s="13"/>
@@ -17398,7 +17398,7 @@
       <c r="O4" s="13"/>
       <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="15"/>
@@ -17416,7 +17416,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
@@ -17434,7 +17434,7 @@
       <c r="O6" s="11"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="13"/>
@@ -17452,7 +17452,7 @@
       <c r="O7" s="13"/>
       <c r="P7" s="14"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="13"/>
@@ -17470,7 +17470,7 @@
       <c r="O8" s="13"/>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="15"/>
@@ -17488,7 +17488,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="11"/>
@@ -17506,7 +17506,7 @@
       <c r="O10" s="11"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="13"/>
@@ -17524,7 +17524,7 @@
       <c r="O11" s="13"/>
       <c r="P11" s="14"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="13"/>
@@ -17542,7 +17542,7 @@
       <c r="O12" s="13"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="15"/>
@@ -17560,7 +17560,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
         <v>272</v>
       </c>
@@ -17590,7 +17590,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="13">
         <v>273</v>
       </c>
@@ -17620,7 +17620,7 @@
       <c r="O15" s="13"/>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="13">
         <v>274</v>
       </c>
@@ -17650,7 +17650,7 @@
       <c r="O16" s="13"/>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="15">
         <v>275</v>
       </c>
@@ -17680,7 +17680,7 @@
       <c r="O17" s="15"/>
       <c r="P17" s="16"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A18" s="11">
         <v>268</v>
       </c>
@@ -17730,7 +17730,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="13">
         <v>142</v>
       </c>
@@ -17780,7 +17780,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="13">
         <v>143</v>
       </c>
@@ -17830,7 +17830,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="15">
         <v>108</v>
       </c>
@@ -17880,7 +17880,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
         <v>74</v>
       </c>
@@ -17930,7 +17930,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="13">
         <v>125</v>
       </c>
@@ -17980,7 +17980,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="13">
         <v>160</v>
       </c>
@@ -18030,7 +18030,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="15">
         <v>222</v>
       </c>
@@ -18080,7 +18080,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A26" s="11">
         <v>177</v>
       </c>
@@ -18130,7 +18130,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" s="13">
         <v>161</v>
       </c>
@@ -18180,7 +18180,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" s="13">
         <v>110</v>
       </c>
@@ -18230,7 +18230,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="15">
         <v>91</v>
       </c>
@@ -18280,7 +18280,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11">
         <v>92</v>
       </c>
@@ -18330,7 +18330,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" s="13">
         <v>76</v>
       </c>
@@ -18380,7 +18380,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" s="13">
         <v>162</v>
       </c>
@@ -18430,7 +18430,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="15">
         <v>20</v>
       </c>
@@ -18478,13 +18478,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -18509,9 +18509,9 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="29" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Probe card HPK 6in</v>
@@ -18532,7 +18532,7 @@
       <c r="O1" s="30"/>
       <c r="P1" s="31"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -18550,7 +18550,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -18568,7 +18568,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
@@ -18586,7 +18586,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -18604,7 +18604,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
@@ -18622,7 +18622,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
@@ -18641,7 +18641,7 @@
       <c r="P7" s="5"/>
       <c r="U7" s="8"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
@@ -18659,7 +18659,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -18677,7 +18677,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -18695,7 +18695,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -18714,7 +18714,7 @@
       <c r="P11" s="5"/>
       <c r="U11" s="8"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -18733,7 +18733,7 @@
       <c r="P12" s="5"/>
       <c r="U12" s="8"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
@@ -18751,7 +18751,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
@@ -18769,7 +18769,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
@@ -18787,7 +18787,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
@@ -18806,7 +18806,7 @@
       <c r="P16" s="5"/>
       <c r="U16" s="8"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="6"/>
@@ -18824,7 +18824,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -18842,7 +18842,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="13"/>
@@ -18860,7 +18860,7 @@
       <c r="O19" s="13"/>
       <c r="P19" s="14"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="13"/>
@@ -18878,7 +18878,7 @@
       <c r="O20" s="13"/>
       <c r="P20" s="14"/>
     </row>
-    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="15"/>
@@ -18896,7 +18896,7 @@
       <c r="O21" s="15"/>
       <c r="P21" s="16"/>
     </row>
-    <row r="22" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
         <v>136</v>
       </c>
@@ -18926,7 +18926,7 @@
       <c r="O22" s="11"/>
       <c r="P22" s="12"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23" s="13">
         <v>137</v>
       </c>
@@ -18956,7 +18956,7 @@
       <c r="O23" s="13"/>
       <c r="P23" s="14"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" s="13">
         <v>138</v>
       </c>
@@ -18987,7 +18987,7 @@
       <c r="P24" s="14"/>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="15">
         <v>139</v>
       </c>
@@ -19018,7 +19018,7 @@
       <c r="P25" s="16"/>
       <c r="U25" s="10"/>
     </row>
-    <row r="26" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="11">
@@ -19065,7 +19065,7 @@
       </c>
       <c r="U26" s="10"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="13">
@@ -19111,7 +19111,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="13">
@@ -19157,7 +19157,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="15">
@@ -19203,7 +19203,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11">
         <v>16</v>
       </c>
@@ -19253,7 +19253,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" s="13">
         <v>27</v>
       </c>
@@ -19303,7 +19303,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32" s="13">
         <v>40</v>
       </c>
@@ -19353,7 +19353,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="15">
         <v>63</v>
       </c>
@@ -19403,35 +19403,35 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="45" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
     </row>
-    <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">

--- a/maps/SwitchBoardMapping.xlsx
+++ b/maps/SwitchBoardMapping.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
     <sheet name="Maps" sheetId="3" r:id="rId1"/>
     <sheet name="Switch card" sheetId="1" r:id="rId2"/>
     <sheet name="Probe card HPK 6in" sheetId="2" r:id="rId3"/>
-    <sheet name="Probe card HPK 6in 265cells" sheetId="6" r:id="rId4"/>
+    <sheet name="Probe card HPK 6in 256cells" sheetId="6" r:id="rId4"/>
     <sheet name="Probe card HPK 8in" sheetId="4" r:id="rId5"/>
     <sheet name="Probe card IFX 8in" sheetId="5" r:id="rId6"/>
   </sheets>
@@ -710,9 +710,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J606"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K270" sqref="K270"/>
+      <selection pane="topRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -739,8 +739,8 @@
         <v>Probe card IFX 8in</v>
       </c>
       <c r="E1" s="18" t="str">
-        <f ca="1">'Probe card HPK 6in 265cells'!$A$1</f>
-        <v>Probe card HPK 6in 265cells</v>
+        <f ca="1">'Probe card HPK 6in 256cells'!$A$1</f>
+        <v>Probe card HPK 6in 256cells</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="19" customFormat="1" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
@@ -754,15 +754,15 @@
       </c>
       <c r="C2" s="19">
         <f ca="1">SUMPRODUCT(NOT(ISBLANK(C$3:C$1000))*1)-COUNTIF(C$3:C$1000,"=#VALUE!")</f>
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D2" s="19">
         <f ca="1">SUMPRODUCT(NOT(ISBLANK(D$3:D$1000))*1)-COUNTIF(D$3:D$1000,"=#VALUE!")</f>
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E2" s="19">
         <f ca="1">SUMPRODUCT(NOT(ISBLANK(E$3:E$1000))*1)-COUNTIF(E$3:E$1000,"=#VALUE!")</f>
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="D240" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A240)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A240)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E240" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A240)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A240)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="D241" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A241)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A241)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E241" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A241)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A241)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -5808,11 +5808,11 @@
       </c>
       <c r="D242" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A242)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A242)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E242" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A242)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A242)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.45">
@@ -5829,11 +5829,11 @@
       </c>
       <c r="D243" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A243)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A243)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E243" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A243)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A243)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.45">
@@ -5850,11 +5850,11 @@
       </c>
       <c r="D244" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A244)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A244)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E244" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A244)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A244)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.45">
@@ -5871,11 +5871,11 @@
       </c>
       <c r="D245" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A245)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A245)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E245" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A245)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A245)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.45">
@@ -5892,11 +5892,11 @@
       </c>
       <c r="D246" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A246)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A246)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E246" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A246)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A246)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.45">
@@ -5913,11 +5913,11 @@
       </c>
       <c r="D247" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A247)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A247)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E247" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A247)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A247)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.45">
@@ -5932,13 +5932,13 @@
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$A248)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$A248)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
         <v>368</v>
       </c>
-      <c r="D248" s="21" t="e">
+      <c r="D248" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A248)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A248)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>#VALUE!</v>
+        <v>14</v>
       </c>
       <c r="E248" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A248)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A248)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.45">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="E249" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A249)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A249)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.45">
@@ -5978,9 +5978,9 @@
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A250)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A250)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E250" s="21" t="e">
+      <c r="E250" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A250)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A250)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>#VALUE!</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.45">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="C274" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$A274)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$A274)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D274" s="21" t="e">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A274)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A274)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -6497,7 +6497,7 @@
       </c>
       <c r="C275" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$A275)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$A275)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D275" s="21" t="e">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A275)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A275)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="C276" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$A276)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$A276)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D276" s="21" t="e">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A276)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A276)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="C277" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$A277)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$A277)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D277" s="21" t="e">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A277)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A277)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -6560,7 +6560,7 @@
       </c>
       <c r="C278" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$A278)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$A278)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D278" s="21" t="e">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A278)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A278)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -6581,7 +6581,7 @@
       </c>
       <c r="C279" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$A279)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$A279)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D279" s="21" t="e">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A279)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A279)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -6602,7 +6602,7 @@
       </c>
       <c r="C280" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$A280)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$A280)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D280" s="21" t="e">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A280)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A280)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -6623,7 +6623,7 @@
       </c>
       <c r="C281" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$A281)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$A281)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D281" s="21" t="e">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A281)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A281)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -6642,9 +6642,9 @@
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;B$1&amp;"'!$A$1:$P$33")=$A282)*ROW(INDIRECT("'"&amp;B$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;B$1&amp;"'!$A$1:$P$33")=$A282)*COLUMN(INDIRECT("'"&amp;B$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C282" s="21" t="e">
+      <c r="C282" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$A282)*ROW(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33")=$A282)*COLUMN(INDIRECT("'"&amp;C$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>#VALUE!</v>
+        <v>14</v>
       </c>
       <c r="D282" s="21" t="e">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A282)*ROW(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33")=$A282)*COLUMN(INDIRECT("'"&amp;D$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
@@ -13370,6 +13370,7 @@
       <c r="B606" s="21"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13380,7 +13381,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15970,7 +15971,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15978,7 +15979,7 @@
     <row r="1" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="26" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>Probe card HPK 6in 265cells</v>
+        <v>Probe card HPK 6in 256cells</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -15998,7 +15999,7 @@
     </row>
     <row r="2" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -16018,7 +16019,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -16038,7 +16039,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
@@ -16058,7 +16059,7 @@
     </row>
     <row r="5" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="6">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -16078,7 +16079,7 @@
     </row>
     <row r="6" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
@@ -16098,7 +16099,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
@@ -16118,7 +16119,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
@@ -16138,7 +16139,7 @@
     </row>
     <row r="9" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="7">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -17014,7 +17015,9 @@
       <c r="A33" s="15">
         <v>157</v>
       </c>
-      <c r="B33" s="16"/>
+      <c r="B33" s="16">
+        <v>240</v>
+      </c>
       <c r="C33" s="15">
         <v>159</v>
       </c>
@@ -17075,10 +17078,10 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="A33:P33 A23:I32 K23:P32 A18:P22 C14:P17 A1:P13">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:XFD1048576 C14:XFD17 A1:XFD13">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17089,7 +17092,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="2" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="11"/>
@@ -17137,7 +17140,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="13">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="13"/>
@@ -17157,7 +17160,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="13">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="13"/>
@@ -17177,7 +17180,7 @@
     </row>
     <row r="5" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="15">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="15"/>
@@ -17196,8 +17199,8 @@
       <c r="P5" s="16"/>
     </row>
     <row r="6" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="12">
-        <v>276</v>
+      <c r="A6" s="11">
+        <v>277</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
@@ -17216,8 +17219,8 @@
       <c r="P6" s="12"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" s="14">
-        <v>277</v>
+      <c r="A7" s="13">
+        <v>278</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="13"/>
@@ -17236,8 +17239,8 @@
       <c r="P7" s="14"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="14">
-        <v>278</v>
+      <c r="A8" s="13">
+        <v>279</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="13"/>
@@ -17256,8 +17259,8 @@
       <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="16">
-        <v>279</v>
+      <c r="A9" s="15">
+        <v>280</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="15"/>
@@ -18197,7 +18200,9 @@
       <c r="A33" s="15">
         <v>20</v>
       </c>
-      <c r="B33" s="16"/>
+      <c r="B33" s="16">
+        <v>272</v>
+      </c>
       <c r="C33" s="15">
         <v>34</v>
       </c>
@@ -18258,7 +18263,7 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="A18:P33 C14:P17 A1:P13">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18269,7 +18274,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18297,7 +18302,7 @@
     </row>
     <row r="2" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="11"/>
@@ -18317,7 +18322,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="13">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="13"/>
@@ -18337,7 +18342,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="13">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="13"/>
@@ -18357,7 +18362,7 @@
     </row>
     <row r="5" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="15">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="15"/>
@@ -18376,8 +18381,8 @@
       <c r="P5" s="16"/>
     </row>
     <row r="6" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="12">
-        <v>242</v>
+      <c r="A6" s="11">
+        <v>243</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
@@ -18396,8 +18401,8 @@
       <c r="P6" s="12"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" s="14">
-        <v>243</v>
+      <c r="A7" s="13">
+        <v>244</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="13"/>
@@ -18416,8 +18421,8 @@
       <c r="P7" s="14"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="14">
-        <v>244</v>
+      <c r="A8" s="13">
+        <v>245</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="13"/>
@@ -18436,8 +18441,8 @@
       <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="16">
-        <v>245</v>
+      <c r="A9" s="15">
+        <v>246</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="15"/>
@@ -19309,7 +19314,9 @@
       <c r="A33" s="15">
         <v>188</v>
       </c>
-      <c r="B33" s="16"/>
+      <c r="B33" s="16">
+        <v>238</v>
+      </c>
       <c r="C33" s="15">
         <v>36</v>
       </c>

--- a/maps/SwitchBoardMapping.xlsx
+++ b/maps/SwitchBoardMapping.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas Maier\Documents\HGC_sensor_project\HGCAL_sensor_tests\maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\HGCAL_sensor_tests\maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Probe card HPK 8in" sheetId="4" r:id="rId5"/>
     <sheet name="Probe card IFX 8in" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -712,16 +712,16 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F6" sqref="F6"/>
+      <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="25"/>
-    <col min="2" max="16384" width="14.59765625" style="20"/>
+    <col min="1" max="1" width="14.5703125" style="25"/>
+    <col min="2" max="16384" width="14.5703125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="17" customFormat="1" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="str">
         <f>'Switch card'!A1</f>
         <v>Switch card</v>
@@ -743,7 +743,7 @@
         <v>Probe card HPK 6in 256cells</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="19" customFormat="1" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" s="19" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24">
         <f>SUMPRODUCT(NOT(ISBLANK(A$3:A$1000))*1)-COUNTIF(A$3:A$1000,"=#VALUE!")</f>
         <v>599</v>
@@ -765,7 +765,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>1</v>
       </c>
@@ -787,7 +787,7 @@
       </c>
       <c r="F3" s="22"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>2</v>
       </c>
@@ -809,7 +809,7 @@
       </c>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>3</v>
       </c>
@@ -831,7 +831,7 @@
       </c>
       <c r="F5" s="22"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>4</v>
       </c>
@@ -856,7 +856,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>5</v>
       </c>
@@ -878,7 +878,7 @@
       </c>
       <c r="F7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>6</v>
       </c>
@@ -900,7 +900,7 @@
       </c>
       <c r="F8" s="22"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>7</v>
       </c>
@@ -921,7 +921,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>8</v>
       </c>
@@ -942,7 +942,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>9</v>
       </c>
@@ -963,7 +963,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>10</v>
       </c>
@@ -984,7 +984,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>11</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>12</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>13</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>14</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>15</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>16</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>17</v>
       </c>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>18</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>19</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>20</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>21</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>22</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>23</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>24</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>25</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>26</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>27</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>28</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <v>29</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
         <v>30</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
         <v>31</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
         <v>32</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="25">
         <v>33</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
         <v>34</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="25">
         <v>35</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="25">
         <v>36</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="25">
         <v>37</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="25">
         <v>38</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="25">
         <v>39</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="25">
         <v>40</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="25">
         <v>41</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="25">
         <v>42</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="25">
         <v>43</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="25">
         <v>44</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="25">
         <v>45</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="25">
         <v>46</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="25">
         <v>47</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="25">
         <v>48</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="25">
         <v>49</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="25">
         <v>50</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="25">
         <v>51</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="25">
         <v>52</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="25">
         <v>53</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="25">
         <v>54</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="25">
         <v>55</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="25">
         <v>56</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="25">
         <v>57</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="25">
         <v>58</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="25">
         <v>59</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="25">
         <v>60</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="25">
         <v>61</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="25">
         <v>62</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="25">
         <v>63</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="25">
         <v>64</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
         <v>65</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="25">
         <v>66</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="25">
         <v>67</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="25">
         <v>68</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="25">
         <v>69</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="25">
         <v>70</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="25">
         <v>71</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="25">
         <v>72</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="25">
         <v>73</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="25">
         <v>74</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="25">
         <v>75</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="25">
         <v>76</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="25">
         <v>77</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="25">
         <v>78</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="25">
         <v>79</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="25">
         <v>80</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="25">
         <v>81</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="25">
         <v>82</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="25">
         <v>83</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="25">
         <v>84</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="25">
         <v>85</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="25">
         <v>86</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="25">
         <v>87</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="25">
         <v>88</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="25">
         <v>89</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="25">
         <v>90</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="25">
         <v>91</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="25">
         <v>92</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="25">
         <v>93</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="25">
         <v>94</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="25">
         <v>95</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="25">
         <v>96</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="25">
         <v>97</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="25">
         <v>98</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="25">
         <v>99</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="25">
         <v>100</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="25">
         <v>101</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="25">
         <v>102</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="25">
         <v>103</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="25">
         <v>104</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="25">
         <v>105</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="25">
         <v>106</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="25">
         <v>107</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="25">
         <v>108</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="25">
         <v>109</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="25">
         <v>110</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="25">
         <v>111</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="25">
         <v>112</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="25">
         <v>113</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="25">
         <v>114</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="25">
         <v>115</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="25">
         <v>116</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="25">
         <v>117</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="25">
         <v>118</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="25">
         <v>119</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="25">
         <v>120</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="25">
         <v>121</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="25">
         <v>122</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="25">
         <v>123</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="25">
         <v>124</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="25">
         <v>125</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="25">
         <v>126</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="25">
         <v>127</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="25">
         <v>128</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="25">
         <v>129</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="25">
         <v>130</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="25">
         <v>131</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="25">
         <v>132</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="25">
         <v>133</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="25">
         <v>134</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="25">
         <v>135</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="25">
         <v>136</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="25">
         <v>137</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="25">
         <v>138</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="25">
         <v>139</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="25">
         <v>140</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="25">
         <v>141</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="25">
         <v>142</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="25">
         <v>143</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="25">
         <v>144</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="25">
         <v>145</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="25">
         <v>146</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="25">
         <v>147</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="25">
         <v>148</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="25">
         <v>149</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="25">
         <v>150</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="25">
         <v>151</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="25">
         <v>152</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="25">
         <v>153</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="25">
         <v>154</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="25">
         <v>155</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="25">
         <v>156</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="25">
         <v>157</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="25">
         <v>158</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="25">
         <v>159</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="25">
         <v>160</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="25">
         <v>161</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="25">
         <v>162</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="25">
         <v>163</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="25">
         <v>164</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="25">
         <v>165</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="25">
         <v>166</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="25">
         <v>167</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="25">
         <v>168</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="25">
         <v>169</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="25">
         <v>170</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="25">
         <v>171</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="25">
         <v>172</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="25">
         <v>173</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="25">
         <v>174</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="25">
         <v>175</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="25">
         <v>176</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="25">
         <v>177</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="25">
         <v>178</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="25">
         <v>179</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="25">
         <v>180</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="25">
         <v>181</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="25">
         <v>182</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="25">
         <v>183</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="25">
         <v>184</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="25">
         <v>185</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="25">
         <v>186</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="25">
         <v>187</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="25">
         <v>188</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="25">
         <v>189</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="25">
         <v>190</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="25">
         <v>191</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="25">
         <v>192</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="25">
         <v>193</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="25">
         <v>194</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="25">
         <v>195</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="25">
         <v>196</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="25">
         <v>197</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="25">
         <v>198</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="25">
         <v>199</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="25">
         <v>200</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="25">
         <v>201</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="25">
         <v>202</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="25">
         <v>203</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="25">
         <v>204</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="25">
         <v>205</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="25">
         <v>206</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="25">
         <v>207</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="25">
         <v>208</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="25">
         <v>209</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="25">
         <v>210</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="25">
         <v>211</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="25">
         <v>212</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="25">
         <v>213</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="25">
         <v>214</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="25">
         <v>215</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="25">
         <v>216</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="25">
         <v>217</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="25">
         <v>218</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="25">
         <v>219</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="25">
         <v>220</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="25">
         <v>221</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="25">
         <v>222</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="25">
         <v>223</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="25">
         <v>224</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="25">
         <v>225</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="25">
         <v>226</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="25">
         <v>227</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="25">
         <v>228</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="25">
         <v>229</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="25">
         <v>230</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="25">
         <v>231</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="25">
         <v>232</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="25">
         <v>233</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="25">
         <v>234</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="25">
         <v>235</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="25">
         <v>236</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="25">
         <v>237</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="25">
         <v>238</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="25">
         <v>239</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="25">
         <v>240</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="25">
         <v>241</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="25">
         <v>242</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="25">
         <v>243</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="25">
         <v>244</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="25">
         <v>245</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="25">
         <v>246</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="25">
         <v>247</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="25">
         <v>248</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="25">
         <v>249</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="25">
         <v>250</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="25">
         <v>251</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="25">
         <v>252</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="25">
         <v>253</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="25">
         <v>254</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="25">
         <v>255</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="25">
         <v>256</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="25">
         <v>257</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="25">
         <v>258</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="25">
         <v>259</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="25">
         <v>260</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="25">
         <v>261</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="25">
         <v>262</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="25">
         <v>263</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="25">
         <v>264</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="25">
         <v>265</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="25">
         <v>266</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="25">
         <v>267</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="25">
         <v>268</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="25">
         <v>269</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="25">
         <v>270</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="25">
         <v>271</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="25">
         <v>272</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="25">
         <v>273</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="25">
         <v>274</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="25">
         <v>275</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="25">
         <v>276</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="25">
         <v>277</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="25">
         <v>278</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="25">
         <v>279</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="25">
         <v>280</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="25">
         <v>281</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="25">
         <v>282</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="25">
         <v>283</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="25">
         <v>284</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="25">
         <v>285</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="25">
         <v>286</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="25">
         <v>287</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="25">
         <v>288</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="25">
         <v>289</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="25">
         <v>290</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="25">
         <v>291</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="25">
         <v>292</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="25">
         <v>293</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="25">
         <v>294</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="25">
         <v>295</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="25">
         <v>296</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="25">
         <v>297</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="25">
         <v>298</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="25">
         <v>299</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="25">
         <v>300</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="25">
         <v>301</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="25">
         <v>302</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="25">
         <v>303</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="25">
         <v>304</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="25">
         <v>305</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="25">
         <v>306</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="25">
         <v>307</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="25">
         <v>308</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="25">
         <v>309</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="25">
         <v>310</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="25">
         <v>311</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="25">
         <v>312</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="25">
         <v>313</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="25">
         <v>314</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="25">
         <v>315</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="25">
         <v>316</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="25">
         <v>317</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="25">
         <v>318</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="25">
         <v>319</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="25">
         <v>320</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="25">
         <v>321</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="25">
         <v>322</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="25">
         <v>323</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="25">
         <v>324</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="25">
         <v>325</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="25">
         <v>326</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="25">
         <v>327</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="25">
         <v>328</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="25">
         <v>329</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="25">
         <v>330</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="25">
         <v>331</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="25">
         <v>332</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="25">
         <v>333</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="25">
         <v>334</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="25">
         <v>335</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="25">
         <v>336</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="25">
         <v>337</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="25">
         <v>338</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="25">
         <v>339</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="25">
         <v>340</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="25">
         <v>341</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="25">
         <v>342</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="25">
         <v>343</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="25">
         <v>344</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="25">
         <v>345</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="25">
         <v>346</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="25">
         <v>347</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="25">
         <v>348</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="25">
         <v>349</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="25">
         <v>350</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="25">
         <v>351</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="25">
         <v>352</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="25">
         <v>353</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="25">
         <v>354</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="25">
         <v>355</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="25">
         <v>356</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="25">
         <v>357</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="25">
         <v>358</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="25">
         <v>359</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="25">
         <v>360</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="25">
         <v>361</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="25">
         <v>362</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="25">
         <v>363</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="25">
         <v>364</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="25">
         <v>365</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="25">
         <v>366</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="25">
         <v>367</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="25">
         <v>368</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="25">
         <v>369</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="25">
         <v>370</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="25">
         <v>371</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="25">
         <v>372</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="25">
         <v>373</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="25">
         <v>374</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="25">
         <v>375</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="25">
         <v>376</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="25">
         <v>377</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="25">
         <v>378</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="25">
         <v>379</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="25">
         <v>380</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="25">
         <v>381</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="25">
         <v>382</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="25">
         <v>383</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="25">
         <v>384</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="25">
         <v>385</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="25">
         <v>386</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="25">
         <v>387</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="25">
         <v>388</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="25">
         <v>389</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="25">
         <v>390</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="25">
         <v>391</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="25">
         <v>392</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="25">
         <v>393</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="25">
         <v>394</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="25">
         <v>395</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="25">
         <v>396</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="25">
         <v>397</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="25">
         <v>398</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="25">
         <v>399</v>
       </c>
@@ -9154,7 +9154,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="25">
         <v>400</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="25">
         <v>401</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="25">
         <v>402</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="25">
         <v>403</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="25">
         <v>404</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="25">
         <v>405</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="25">
         <v>406</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="25">
         <v>407</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="25">
         <v>408</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="25">
         <v>409</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="25">
         <v>410</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="25">
         <v>411</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="25">
         <v>412</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="25">
         <v>413</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="25">
         <v>414</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="25">
         <v>415</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="25">
         <v>416</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="25">
         <v>417</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="25">
         <v>418</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="25">
         <v>419</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="25">
         <v>420</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="25">
         <v>421</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="25">
         <v>422</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="25">
         <v>423</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="25">
         <v>424</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="25">
         <v>425</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="25">
         <v>426</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="25">
         <v>427</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="25">
         <v>428</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="25">
         <v>429</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="25">
         <v>430</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="25">
         <v>431</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="25">
         <v>432</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="25">
         <v>433</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="25">
         <v>434</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="25">
         <v>435</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="25">
         <v>436</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="25">
         <v>437</v>
       </c>
@@ -9952,7 +9952,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="25">
         <v>438</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="25">
         <v>439</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="25">
         <v>440</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="25">
         <v>441</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="25">
         <v>442</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="25">
         <v>443</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="25">
         <v>444</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="25">
         <v>445</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="25">
         <v>446</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="25">
         <v>447</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="25">
         <v>448</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="25">
         <v>449</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="25">
         <v>450</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="25">
         <v>451</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="25">
         <v>452</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="25">
         <v>453</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="25">
         <v>454</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="25">
         <v>455</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="25">
         <v>456</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="25">
         <v>457</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="25">
         <v>458</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="25">
         <v>459</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="25">
         <v>460</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="25">
         <v>461</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="25">
         <v>462</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="25">
         <v>463</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="25">
         <v>464</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="25">
         <v>465</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="25">
         <v>466</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="25">
         <v>467</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="25">
         <v>468</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="25">
         <v>469</v>
       </c>
@@ -10624,7 +10624,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="25">
         <v>470</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="25">
         <v>471</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="25">
         <v>472</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="25">
         <v>473</v>
       </c>
@@ -10708,7 +10708,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="25">
         <v>474</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="25">
         <v>475</v>
       </c>
@@ -10750,7 +10750,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="25">
         <v>476</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="25">
         <v>477</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="25">
         <v>478</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="25">
         <v>479</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="25">
         <v>480</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="25">
         <v>481</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="25">
         <v>482</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="25">
         <v>483</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="25">
         <v>484</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="25">
         <v>485</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="25">
         <v>486</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="25">
         <v>487</v>
       </c>
@@ -11002,7 +11002,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="25">
         <v>488</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="25">
         <v>489</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="25">
         <v>490</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="25">
         <v>491</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="25">
         <v>492</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="25">
         <v>493</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="25">
         <v>494</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="25">
         <v>495</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="25">
         <v>496</v>
       </c>
@@ -11191,7 +11191,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="25">
         <v>497</v>
       </c>
@@ -11212,7 +11212,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="25">
         <v>498</v>
       </c>
@@ -11233,7 +11233,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="25">
         <v>499</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="25">
         <v>500</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="25">
         <v>501</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="25">
         <v>502</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="25">
         <v>503</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="25">
         <v>504</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="25">
         <v>505</v>
       </c>
@@ -11380,7 +11380,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="25">
         <v>506</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" s="25">
         <v>507</v>
       </c>
@@ -11422,7 +11422,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="25">
         <v>508</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="25">
         <v>509</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="25">
         <v>510</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" s="25">
         <v>511</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="25">
         <v>512</v>
       </c>
@@ -11527,7 +11527,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="25">
         <v>513</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" s="25">
         <v>514</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="25">
         <v>515</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="25">
         <v>516</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="25">
         <v>517</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="25">
         <v>518</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="25">
         <v>519</v>
       </c>
@@ -11674,7 +11674,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="25">
         <v>520</v>
       </c>
@@ -11695,7 +11695,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="25">
         <v>521</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="25">
         <v>522</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="25">
         <v>523</v>
       </c>
@@ -11758,7 +11758,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="25">
         <v>524</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="25">
         <v>525</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="25">
         <v>526</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="25">
         <v>527</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="25">
         <v>528</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="25">
         <v>529</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" s="25">
         <v>530</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="25">
         <v>531</v>
       </c>
@@ -11926,7 +11926,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" s="25">
         <v>532</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="25">
         <v>533</v>
       </c>
@@ -11968,7 +11968,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="25">
         <v>534</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="25">
         <v>535</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="25">
         <v>536</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="25">
         <v>537</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="25">
         <v>538</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="25">
         <v>539</v>
       </c>
@@ -12094,7 +12094,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="25">
         <v>540</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="25">
         <v>541</v>
       </c>
@@ -12136,7 +12136,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="25">
         <v>542</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" s="25">
         <v>543</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" s="25">
         <v>544</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" s="25">
         <v>545</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" s="25">
         <v>546</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" s="25">
         <v>547</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" s="25">
         <v>548</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" s="25">
         <v>549</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" s="25">
         <v>550</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" s="25">
         <v>551</v>
       </c>
@@ -12346,7 +12346,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" s="25">
         <v>552</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" s="25">
         <v>553</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" s="25">
         <v>554</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" s="25">
         <v>555</v>
       </c>
@@ -12430,7 +12430,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" s="25">
         <v>556</v>
       </c>
@@ -12451,7 +12451,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" s="25">
         <v>557</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" s="25">
         <v>558</v>
       </c>
@@ -12493,7 +12493,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" s="25">
         <v>559</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" s="25">
         <v>560</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" s="25">
         <v>561</v>
       </c>
@@ -12556,7 +12556,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" s="25">
         <v>562</v>
       </c>
@@ -12577,7 +12577,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" s="25">
         <v>563</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" s="25">
         <v>564</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" s="25">
         <v>565</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="25">
         <v>566</v>
       </c>
@@ -12661,7 +12661,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="25">
         <v>567</v>
       </c>
@@ -12682,7 +12682,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" s="25">
         <v>568</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="25">
         <v>569</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" s="25">
         <v>570</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" s="25">
         <v>571</v>
       </c>
@@ -12766,7 +12766,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" s="25">
         <v>572</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="25">
         <v>573</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" s="25">
         <v>574</v>
       </c>
@@ -12829,7 +12829,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" s="25">
         <v>575</v>
       </c>
@@ -12850,7 +12850,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" s="25">
         <v>576</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" s="25">
         <v>577</v>
       </c>
@@ -12892,7 +12892,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" s="25">
         <v>578</v>
       </c>
@@ -12913,7 +12913,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="25">
         <v>579</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="25">
         <v>580</v>
       </c>
@@ -12955,7 +12955,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="25">
         <v>581</v>
       </c>
@@ -12976,7 +12976,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="25">
         <v>582</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" s="25">
         <v>583</v>
       </c>
@@ -13018,7 +13018,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="25">
         <v>584</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" s="25">
         <v>585</v>
       </c>
@@ -13060,7 +13060,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" s="25">
         <v>586</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" s="25">
         <v>587</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="25">
         <v>588</v>
       </c>
@@ -13123,7 +13123,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" s="25">
         <v>589</v>
       </c>
@@ -13144,7 +13144,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" s="25">
         <v>590</v>
       </c>
@@ -13165,7 +13165,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" s="25">
         <v>591</v>
       </c>
@@ -13186,7 +13186,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" s="25">
         <v>592</v>
       </c>
@@ -13207,7 +13207,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" s="25">
         <v>593</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" s="25">
         <v>594</v>
       </c>
@@ -13249,7 +13249,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" s="25">
         <v>595</v>
       </c>
@@ -13270,7 +13270,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" s="25">
         <v>596</v>
       </c>
@@ -13291,7 +13291,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" s="25">
         <v>597</v>
       </c>
@@ -13312,7 +13312,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" s="25">
         <v>598</v>
       </c>
@@ -13333,7 +13333,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" s="25">
         <v>599</v>
       </c>
@@ -13354,19 +13354,19 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B602" s="21"/>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B603" s="21"/>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B604" s="21"/>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B605" s="21"/>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B606" s="21"/>
     </row>
   </sheetData>
@@ -13381,12 +13381,12 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -13406,7 +13406,7 @@
       <c r="O1" s="27"/>
       <c r="P1" s="28"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -13506,7 +13506,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>8</v>
       </c>
@@ -13656,7 +13656,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>10</v>
       </c>
@@ -13706,7 +13706,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>12</v>
       </c>
@@ -13756,7 +13756,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>14</v>
       </c>
@@ -13806,7 +13806,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>16</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>18</v>
       </c>
@@ -13906,7 +13906,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>20</v>
       </c>
@@ -13956,7 +13956,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>22</v>
       </c>
@@ -14006,7 +14006,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>24</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>26</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>28</v>
       </c>
@@ -14156,7 +14156,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>30</v>
       </c>
@@ -14206,7 +14206,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>32</v>
       </c>
@@ -14256,7 +14256,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>34</v>
       </c>
@@ -14306,7 +14306,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>36</v>
       </c>
@@ -14356,7 +14356,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>38</v>
       </c>
@@ -14406,7 +14406,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>40</v>
       </c>
@@ -14456,7 +14456,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>42</v>
       </c>
@@ -14506,7 +14506,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>44</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>46</v>
       </c>
@@ -14606,7 +14606,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>48</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>50</v>
       </c>
@@ -14706,7 +14706,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>52</v>
       </c>
@@ -14756,7 +14756,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>54</v>
       </c>
@@ -14806,7 +14806,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>56</v>
       </c>
@@ -14856,7 +14856,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>58</v>
       </c>
@@ -14906,7 +14906,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>60</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>62</v>
       </c>
@@ -15006,7 +15006,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="34" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
@@ -15028,9 +15028,9 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Probe card HPK 6in</v>
@@ -15051,7 +15051,7 @@
       <c r="O1" s="27"/>
       <c r="P1" s="28"/>
     </row>
-    <row r="2" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -15069,7 +15069,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -15087,7 +15087,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
@@ -15105,7 +15105,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -15123,7 +15123,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
@@ -15141,7 +15141,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
@@ -15160,7 +15160,7 @@
       <c r="P7" s="5"/>
       <c r="U7" s="8"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
@@ -15178,7 +15178,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -15196,7 +15196,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -15214,7 +15214,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -15233,7 +15233,7 @@
       <c r="P11" s="5"/>
       <c r="U11" s="8"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -15252,7 +15252,7 @@
       <c r="P12" s="5"/>
       <c r="U12" s="8"/>
     </row>
-    <row r="13" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
@@ -15270,7 +15270,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
@@ -15288,7 +15288,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
@@ -15306,7 +15306,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
@@ -15325,7 +15325,7 @@
       <c r="P16" s="5"/>
       <c r="U16" s="8"/>
     </row>
-    <row r="17" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="6"/>
@@ -15343,7 +15343,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -15361,7 +15361,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="13"/>
@@ -15379,7 +15379,7 @@
       <c r="O19" s="13"/>
       <c r="P19" s="14"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="13"/>
@@ -15397,7 +15397,7 @@
       <c r="O20" s="13"/>
       <c r="P20" s="14"/>
     </row>
-    <row r="21" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="15"/>
@@ -15415,7 +15415,7 @@
       <c r="O21" s="15"/>
       <c r="P21" s="16"/>
     </row>
-    <row r="22" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>136</v>
       </c>
@@ -15445,7 +15445,7 @@
       <c r="O22" s="11"/>
       <c r="P22" s="12"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>137</v>
       </c>
@@ -15475,7 +15475,7 @@
       <c r="O23" s="13"/>
       <c r="P23" s="14"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>138</v>
       </c>
@@ -15506,7 +15506,7 @@
       <c r="P24" s="14"/>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>139</v>
       </c>
@@ -15537,7 +15537,7 @@
       <c r="P25" s="16"/>
       <c r="U25" s="10"/>
     </row>
-    <row r="26" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="11">
@@ -15584,7 +15584,7 @@
       </c>
       <c r="U26" s="10"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="13">
@@ -15630,7 +15630,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="13">
@@ -15676,7 +15676,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="15">
@@ -15722,7 +15722,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>16</v>
       </c>
@@ -15772,7 +15772,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>27</v>
       </c>
@@ -15822,7 +15822,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>40</v>
       </c>
@@ -15872,7 +15872,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>63</v>
       </c>
@@ -15922,35 +15922,35 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="45" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
     </row>
-    <row r="49" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
@@ -15974,9 +15974,9 @@
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Probe card HPK 6in 256cells</v>
@@ -15997,7 +15997,7 @@
       <c r="O1" s="27"/>
       <c r="P1" s="28"/>
     </row>
-    <row r="2" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>241</v>
       </c>
@@ -16017,7 +16017,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>242</v>
       </c>
@@ -16037,7 +16037,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>243</v>
       </c>
@@ -16057,7 +16057,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>244</v>
       </c>
@@ -16077,7 +16077,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>245</v>
       </c>
@@ -16097,7 +16097,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>246</v>
       </c>
@@ -16117,7 +16117,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>247</v>
       </c>
@@ -16137,7 +16137,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>248</v>
       </c>
@@ -16157,7 +16157,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -16175,7 +16175,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -16193,7 +16193,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -16211,7 +16211,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
@@ -16229,7 +16229,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
@@ -16245,7 +16245,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
@@ -16261,7 +16261,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
@@ -16277,7 +16277,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="6"/>
@@ -16293,7 +16293,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2">
@@ -16339,7 +16339,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="13">
@@ -16383,7 +16383,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="13">
@@ -16429,7 +16429,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="15">
@@ -16475,7 +16475,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>219</v>
       </c>
@@ -16523,7 +16523,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>142</v>
       </c>
@@ -16569,7 +16569,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="13">
@@ -16615,7 +16615,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="15">
@@ -16661,7 +16661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>227</v>
       </c>
@@ -16711,7 +16711,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>203</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>225</v>
       </c>
@@ -16811,7 +16811,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>232</v>
       </c>
@@ -16861,7 +16861,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>216</v>
       </c>
@@ -16911,7 +16911,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>215</v>
       </c>
@@ -16961,7 +16961,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>188</v>
       </c>
@@ -17011,7 +17011,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>157</v>
       </c>
@@ -17061,13 +17061,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -17078,10 +17078,10 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="A33:P33 A23:I32 K23:P32 A18:P22 C14:P17 A1:P13">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:XFD1048576 C14:XFD17 A1:XFD13">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17095,9 +17095,9 @@
       <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Probe card HPK 8in</v>
@@ -17118,7 +17118,7 @@
       <c r="O1" s="27"/>
       <c r="P1" s="28"/>
     </row>
-    <row r="2" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>273</v>
       </c>
@@ -17138,7 +17138,7 @@
       <c r="O2" s="11"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>274</v>
       </c>
@@ -17158,7 +17158,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>275</v>
       </c>
@@ -17178,7 +17178,7 @@
       <c r="O4" s="13"/>
       <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>276</v>
       </c>
@@ -17198,7 +17198,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>277</v>
       </c>
@@ -17218,7 +17218,7 @@
       <c r="O6" s="11"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>278</v>
       </c>
@@ -17238,7 +17238,7 @@
       <c r="O7" s="13"/>
       <c r="P7" s="14"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>279</v>
       </c>
@@ -17258,7 +17258,7 @@
       <c r="O8" s="13"/>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>280</v>
       </c>
@@ -17278,7 +17278,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="11"/>
@@ -17296,7 +17296,7 @@
       <c r="O10" s="11"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="13"/>
@@ -17314,7 +17314,7 @@
       <c r="O11" s="13"/>
       <c r="P11" s="14"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="13"/>
@@ -17332,7 +17332,7 @@
       <c r="O12" s="13"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="15"/>
@@ -17350,7 +17350,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
       <c r="E14" s="11"/>
@@ -17374,7 +17374,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
       <c r="E15" s="13"/>
@@ -17398,7 +17398,7 @@
       <c r="O15" s="13"/>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
       <c r="E16" s="13"/>
@@ -17422,7 +17422,7 @@
       <c r="O16" s="13"/>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
       <c r="E17" s="15"/>
@@ -17446,7 +17446,7 @@
       <c r="O17" s="15"/>
       <c r="P17" s="16"/>
     </row>
-    <row r="18" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>268</v>
       </c>
@@ -17496,7 +17496,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>142</v>
       </c>
@@ -17546,7 +17546,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>143</v>
       </c>
@@ -17596,7 +17596,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>108</v>
       </c>
@@ -17646,7 +17646,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>74</v>
       </c>
@@ -17696,7 +17696,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>125</v>
       </c>
@@ -17746,7 +17746,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>160</v>
       </c>
@@ -17796,7 +17796,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>222</v>
       </c>
@@ -17846,7 +17846,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>177</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>161</v>
       </c>
@@ -17946,7 +17946,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>110</v>
       </c>
@@ -17996,7 +17996,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>91</v>
       </c>
@@ -18046,7 +18046,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>92</v>
       </c>
@@ -18096,7 +18096,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>76</v>
       </c>
@@ -18146,7 +18146,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>162</v>
       </c>
@@ -18196,7 +18196,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>20</v>
       </c>
@@ -18246,13 +18246,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -18263,7 +18263,7 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="A18:P33 C14:P17 A1:P13">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18277,9 +18277,9 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Probe card IFX 8in</v>
@@ -18300,7 +18300,7 @@
       <c r="O1" s="27"/>
       <c r="P1" s="28"/>
     </row>
-    <row r="2" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>239</v>
       </c>
@@ -18320,7 +18320,7 @@
       <c r="O2" s="11"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>240</v>
       </c>
@@ -18340,7 +18340,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>241</v>
       </c>
@@ -18360,7 +18360,7 @@
       <c r="O4" s="13"/>
       <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>242</v>
       </c>
@@ -18380,7 +18380,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>243</v>
       </c>
@@ -18400,7 +18400,7 @@
       <c r="O6" s="11"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>244</v>
       </c>
@@ -18420,7 +18420,7 @@
       <c r="O7" s="13"/>
       <c r="P7" s="14"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>245</v>
       </c>
@@ -18440,7 +18440,7 @@
       <c r="O8" s="13"/>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>246</v>
       </c>
@@ -18460,7 +18460,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="11"/>
@@ -18478,7 +18478,7 @@
       <c r="O10" s="11"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="13"/>
@@ -18496,7 +18496,7 @@
       <c r="O11" s="13"/>
       <c r="P11" s="14"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="13"/>
@@ -18514,7 +18514,7 @@
       <c r="O12" s="13"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="15"/>
@@ -18532,7 +18532,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="11"/>
@@ -18550,7 +18550,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="13"/>
@@ -18568,7 +18568,7 @@
       <c r="O15" s="13"/>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="13"/>
@@ -18586,7 +18586,7 @@
       <c r="O16" s="13"/>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="15"/>
@@ -18604,7 +18604,7 @@
       <c r="O17" s="15"/>
       <c r="P17" s="16"/>
     </row>
-    <row r="18" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C18" s="11">
         <v>81</v>
       </c>
@@ -18648,7 +18648,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C19" s="13">
         <v>174</v>
       </c>
@@ -18692,7 +18692,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C20" s="13">
         <v>143</v>
       </c>
@@ -18736,7 +18736,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="15">
         <v>189</v>
       </c>
@@ -18780,7 +18780,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="11">
@@ -18826,7 +18826,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="13">
@@ -18872,7 +18872,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="13">
@@ -18918,7 +18918,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="15">
@@ -18964,7 +18964,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="11">
@@ -19010,7 +19010,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>111</v>
       </c>
@@ -19060,7 +19060,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>126</v>
       </c>
@@ -19110,7 +19110,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>142</v>
       </c>
@@ -19160,7 +19160,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>158</v>
       </c>
@@ -19210,7 +19210,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>157</v>
       </c>
@@ -19260,7 +19260,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>173</v>
       </c>
@@ -19310,7 +19310,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>188</v>
       </c>
@@ -19360,13 +19360,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>

--- a/maps/SwitchBoardMapping.xlsx
+++ b/maps/SwitchBoardMapping.xlsx
@@ -712,7 +712,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F17" sqref="F17"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +783,7 @@
       </c>
       <c r="E3" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A3)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A3)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="F3" s="22"/>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="E4" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A4)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A4)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>378</v>
+        <v>255</v>
       </c>
       <c r="F4" s="22"/>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="E5" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A5)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A5)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="F5" s="22"/>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="E6" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A6)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A6)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -874,7 +874,7 @@
       </c>
       <c r="E7" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A7)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A7)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>383</v>
+        <v>250</v>
       </c>
       <c r="F7" s="22"/>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="E8" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A8)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A8)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="F8" s="22"/>
     </row>
@@ -918,7 +918,7 @@
       </c>
       <c r="E9" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A9)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A9)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>441</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -939,7 +939,7 @@
       </c>
       <c r="E10" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A10)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A10)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>191</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -960,7 +960,7 @@
       </c>
       <c r="E11" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A11)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A11)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -981,7 +981,7 @@
       </c>
       <c r="E12" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A12)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A12)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>420</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="E13" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A13)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A13)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>161</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="E14" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A14)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A14)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>364</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="E15" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A15)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A15)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>119</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="E16" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A16)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A16)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>495</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="E17" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A17)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A17)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>185</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="E18" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A18)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A18)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>428</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="E20" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A20)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A20)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>99</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="E21" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A21)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A21)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>368</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="E22" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A22)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A22)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>298</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="E23" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A23)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A23)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>167</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="E24" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A24)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A24)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E25" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A25)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A25)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>360</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="E26" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A26)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A26)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>233</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="E27" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A27)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A27)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>171</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="E28" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A28)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A28)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>443</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="E29" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A29)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A29)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>190</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="E30" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A30)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A30)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>122</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="E31" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A31)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A31)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>319</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="E32" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A32)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A32)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>438</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="E33" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A33)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A33)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>300</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="E34" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A34)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A34)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>310</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="E35" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A35)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A35)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>172</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="E36" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A36)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A36)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>372</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="E37" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A37)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A37)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>511</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="E38" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A38)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A38)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="E39" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A39)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A39)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>247</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="E40" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A40)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A40)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>105</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E41" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A41)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A41)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>318</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E42" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A42)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A42)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>226</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="E43" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A43)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A43)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>422</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="E44" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A44)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A44)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>432</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="E45" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A45)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A45)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>183</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="E46" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A46)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A46)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>96</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="E47" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A47)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A47)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>184</v>
+        <v>446</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="E48" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A48)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A48)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>439</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="E49" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A49)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A49)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>113</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="E50" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A50)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A50)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>235</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="E51" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A51)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A51)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="E52" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A52)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A52)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>302</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="E53" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A53)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A53)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>255</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="E54" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A54)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A54)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="E55" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A55)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A55)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="E56" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A56)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A56)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>447</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E57" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A57)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A57)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="E58" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A58)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A58)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>180</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="E59" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A59)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A59)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>423</v>
+        <v>292</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="E60" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A60)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A60)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>225</v>
+        <v>315</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="E61" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A61)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A61)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>309</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="E62" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A62)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A62)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>181</v>
+        <v>381</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="E63" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A63)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A63)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>308</v>
+        <v>423</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="E64" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A64)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A64)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>418</v>
+        <v>510</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="E65" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A65)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A65)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>293</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="E66" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A66)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A66)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>189</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="E67" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A67)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A67)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>377</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="E68" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A68)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A68)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>252</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="E69" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A69)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A69)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>440</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="E70" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A70)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A70)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="E71" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A71)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A71)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>434</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="E72" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A72)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A72)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>381</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E73" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A73)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A73)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="E74" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A74)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A74)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>125</v>
+        <v>305</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="E75" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A75)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A75)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>241</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="E76" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A76)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A76)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>173</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="E77" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A77)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A77)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>103</v>
+        <v>309</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="E78" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A78)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A78)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>382</v>
+        <v>444</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="E79" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A79)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A79)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="E80" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A80)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A80)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="E81" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A81)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A81)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>234</v>
+        <v>433</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="E82" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A82)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A82)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="E83" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A83)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A83)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="E84" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A84)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A84)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>253</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="E85" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A85)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A85)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>101</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="E86" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A86)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A86)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>186</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="E87" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A87)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A87)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>363</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="E88" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A88)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A88)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="E89" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A89)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A89)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2620,7 +2620,7 @@
       </c>
       <c r="E90" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A90)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A90)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>354</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="E91" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A91)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A91)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>236</v>
+        <v>367</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="E92" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A92)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A92)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>307</v>
+        <v>361</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="E93" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A93)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A93)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>444</v>
+        <v>420</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="E94" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A94)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A94)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>178</v>
+        <v>441</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="E95" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A95)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A95)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>353</v>
+        <v>443</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="E96" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A96)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A96)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>312</v>
+        <v>434</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="E97" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A97)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A97)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>232</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="E98" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A98)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A98)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>371</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="E99" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A99)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A99)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>316</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="E100" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A100)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A100)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>446</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="E101" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A101)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A101)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>296</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="E102" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A102)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A102)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>369</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="E103" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A103)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A103)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>123</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="E104" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A104)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A104)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>238</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E105" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A105)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A105)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>115</v>
+        <v>253</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="E106" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A106)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A106)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>510</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="E107" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A107)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A107)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>249</v>
+        <v>369</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="E108" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A108)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A108)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>127</v>
+        <v>432</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="E109" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A109)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A109)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>295</v>
+        <v>352</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="E110" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A110)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A110)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>304</v>
+        <v>438</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="E111" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A111)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A111)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>254</v>
+        <v>371</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="E112" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A112)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A112)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="E113" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A113)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A113)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>356</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3124,7 +3124,7 @@
       </c>
       <c r="E114" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A114)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A114)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>297</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="E115" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A115)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A115)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>289</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="E116" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A116)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A116)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>250</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="E117" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A117)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A117)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>164</v>
+        <v>232</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="E118" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A118)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A118)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>102</v>
+        <v>171</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="E119" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A119)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A119)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>240</v>
+        <v>314</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="E120" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A120)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A120)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E121" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A121)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A121)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>228</v>
+        <v>319</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="E122" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A122)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A122)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>242</v>
+        <v>290</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="E123" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A123)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A123)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>442</v>
+        <v>382</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="E124" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A124)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A124)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>301</v>
+        <v>418</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="E125" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A125)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A125)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>313</v>
+        <v>511</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="E126" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A126)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A126)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>362</v>
+        <v>495</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="E127" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A127)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A127)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>251</v>
+        <v>428</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="E128" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A128)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A128)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>229</v>
+        <v>101</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="E129" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A129)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A129)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>163</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="E130" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A130)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A130)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>303</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="E131" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A131)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A131)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>374</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="E132" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A132)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A132)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>315</v>
+        <v>177</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="E133" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A133)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A133)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="E134" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A134)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A134)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>314</v>
+        <v>247</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="E135" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A135)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A135)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>166</v>
+        <v>318</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="E136" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A136)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A136)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="E137" s="21">
         <f ca="1">INDIRECT("'"&amp;'Switch card'!$A$1&amp;"'!"&amp;ADDRESS(SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A137)*ROW(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))),SUMPRODUCT((INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33")=$A137)*COLUMN(INDIRECT("'"&amp;E$1&amp;"'!$A$1:$P$33"))))&amp;"")</f>
-        <v>244</v>
+        <v>360</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -13370,7 +13370,6 @@
       <c r="B606" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13380,7 +13379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
@@ -15971,7 +15970,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16297,7 +16296,7 @@
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D18" s="3">
         <v>204</v>
@@ -16306,25 +16305,25 @@
         <v>206</v>
       </c>
       <c r="F18" s="3">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G18" s="2">
         <v>163</v>
       </c>
       <c r="H18" s="3">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="I18" s="2">
         <v>180</v>
       </c>
       <c r="J18" s="3">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="K18" s="2">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="L18" s="3">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="M18" s="2">
         <v>140</v>
@@ -16343,37 +16342,37 @@
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="13">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="D19" s="14">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="E19" s="13">
         <v>191</v>
       </c>
       <c r="F19" s="14">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="G19" s="13">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="H19" s="14">
         <v>149</v>
       </c>
       <c r="I19" s="13">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="J19" s="14">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K19" s="13">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="L19" s="14">
         <v>238</v>
       </c>
       <c r="M19" s="13">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="N19" s="14"/>
       <c r="O19" s="13">
@@ -16390,34 +16389,34 @@
         <v>189</v>
       </c>
       <c r="D20" s="14">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="E20" s="13">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="F20" s="14">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="G20" s="13">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="H20" s="14">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="I20" s="13">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="J20" s="14">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="K20" s="13">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="L20" s="14">
         <v>152</v>
       </c>
       <c r="M20" s="13">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="N20" s="14">
         <v>184</v>
@@ -16433,28 +16432,28 @@
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="15">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D21" s="16">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="E21" s="15">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="F21" s="16">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="G21" s="15">
         <v>233</v>
       </c>
       <c r="H21" s="16">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="I21" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" s="16">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="K21" s="15">
         <v>182</v>
@@ -16463,10 +16462,10 @@
         <v>169</v>
       </c>
       <c r="M21" s="15">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N21" s="16">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="O21" s="15">
         <v>197</v>
@@ -16486,31 +16485,31 @@
         <v>147</v>
       </c>
       <c r="D22" s="12">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E22" s="11">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="F22" s="12">
         <v>161</v>
       </c>
       <c r="G22" s="11">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H22" s="12">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="I22" s="11">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J22" s="12">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="K22" s="11">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="L22" s="12">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="M22" s="11">
         <v>155</v>
@@ -16531,32 +16530,32 @@
         <v>211</v>
       </c>
       <c r="C23" s="13">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D23" s="14">
         <v>207</v>
       </c>
       <c r="E23" s="13">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F23" s="14">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="G23" s="13">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="H23" s="14">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="I23" s="13">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J23" s="14"/>
       <c r="K23" s="13">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="L23" s="14">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="M23" s="13">
         <v>136</v>
@@ -16579,31 +16578,31 @@
         <v>148</v>
       </c>
       <c r="E24" s="13">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="F24" s="14">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G24" s="13">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="H24" s="14">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="I24" s="13">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J24" s="14">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="K24" s="13">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="L24" s="14">
         <v>186</v>
       </c>
       <c r="M24" s="13">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="N24" s="14">
         <v>141</v>
@@ -16631,22 +16630,22 @@
         <v>179</v>
       </c>
       <c r="G25" s="15">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="H25" s="16">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="I25" s="15">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J25" s="16">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="K25" s="15">
         <v>150</v>
       </c>
       <c r="L25" s="16">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="M25" s="15">
         <v>181</v>
@@ -16658,7 +16657,7 @@
         <v>156</v>
       </c>
       <c r="P25" s="16">
-        <v>14</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -16672,37 +16671,37 @@
         <v>158</v>
       </c>
       <c r="D26" s="12">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="E26" s="11">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F26" s="12">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="G26" s="11">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="H26" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I26" s="11">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="J26" s="12">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="K26" s="11">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L26" s="12">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M26" s="11">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="N26" s="12">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="O26" s="11">
         <v>210</v>
@@ -16722,16 +16721,16 @@
         <v>176</v>
       </c>
       <c r="D27" s="14">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="E27" s="13">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="F27" s="14">
         <v>146</v>
       </c>
       <c r="G27" s="13">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="H27" s="14">
         <v>164</v>
@@ -16740,16 +16739,16 @@
         <v>237</v>
       </c>
       <c r="J27" s="14">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="K27" s="13">
         <v>183</v>
       </c>
       <c r="L27" s="14">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="M27" s="13">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="N27" s="14">
         <v>222</v>
@@ -16775,25 +16774,25 @@
         <v>166</v>
       </c>
       <c r="E28" s="13">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="F28" s="14">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G28" s="13">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="H28" s="14">
         <v>236</v>
       </c>
       <c r="I28" s="13">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="J28" s="14">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="K28" s="13">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="L28" s="14">
         <v>137</v>
@@ -16822,37 +16821,37 @@
         <v>192</v>
       </c>
       <c r="D29" s="16">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="E29" s="15">
         <v>162</v>
       </c>
       <c r="F29" s="16">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G29" s="15">
         <v>165</v>
       </c>
       <c r="H29" s="16">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="I29" s="15">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="J29" s="16">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="K29" s="15">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="L29" s="16">
         <v>138</v>
       </c>
       <c r="M29" s="15">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="N29" s="16">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="O29" s="15">
         <v>195</v>
@@ -16875,34 +16874,34 @@
         <v>145</v>
       </c>
       <c r="E30" s="11">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="F30" s="12">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G30" s="11">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="H30" s="12">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="I30" s="11">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J30" s="12">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="K30" s="11">
         <v>209</v>
       </c>
       <c r="L30" s="12">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="M30" s="11">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="N30" s="12">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="O30" s="11">
         <v>153</v>
@@ -16919,40 +16918,40 @@
         <v>193</v>
       </c>
       <c r="C31" s="13">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="D31" s="14">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="E31" s="13">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F31" s="14">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="G31" s="13">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="H31" s="14">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="I31" s="13">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="J31" s="14">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="K31" s="13">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="L31" s="14">
         <v>151</v>
       </c>
       <c r="M31" s="13">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="N31" s="14">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="O31" s="13">
         <v>139</v>
@@ -16972,22 +16971,22 @@
         <v>143</v>
       </c>
       <c r="D32" s="14">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="E32" s="13">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F32" s="14">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G32" s="13">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="H32" s="14">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="I32" s="13">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="J32" s="14">
         <v>17</v>
@@ -16996,10 +16995,10 @@
         <v>194</v>
       </c>
       <c r="L32" s="14">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M32" s="13">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="N32" s="14">
         <v>168</v>
@@ -17022,43 +17021,43 @@
         <v>159</v>
       </c>
       <c r="D33" s="16">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="E33" s="15">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F33" s="16">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="G33" s="15">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="H33" s="16">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="I33" s="15">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="J33" s="16">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="K33" s="15">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="L33" s="16">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M33" s="15">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="N33" s="16">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="O33" s="15">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="P33" s="16">
-        <v>35</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -17073,7 +17072,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
   </mergeCells>

--- a/maps/SwitchBoardMapping.xlsx
+++ b/maps/SwitchBoardMapping.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\HGCAL_sensor_tests\maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas Maier\Documents\HGC_sensor_project\HGCAL_sensor_tests\maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Probe card HPK 8in" sheetId="4" r:id="rId5"/>
     <sheet name="Probe card IFX 8in" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -712,16 +712,16 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="topRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="25"/>
-    <col min="2" max="16384" width="14.5703125" style="20"/>
+    <col min="1" max="1" width="14.59765625" style="25"/>
+    <col min="2" max="16384" width="14.59765625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="17" customFormat="1" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="23" t="str">
         <f>'Switch card'!A1</f>
         <v>Switch card</v>
@@ -743,7 +743,7 @@
         <v>Probe card HPK 6in 256cells</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="19" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="19" customFormat="1" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="24">
         <f>SUMPRODUCT(NOT(ISBLANK(A$3:A$1000))*1)-COUNTIF(A$3:A$1000,"=#VALUE!")</f>
         <v>599</v>
@@ -765,7 +765,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="25">
         <v>1</v>
       </c>
@@ -787,7 +787,7 @@
       </c>
       <c r="F3" s="22"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="25">
         <v>2</v>
       </c>
@@ -809,7 +809,7 @@
       </c>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="25">
         <v>3</v>
       </c>
@@ -831,7 +831,7 @@
       </c>
       <c r="F5" s="22"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="25">
         <v>4</v>
       </c>
@@ -852,11 +852,10 @@
         <v>294</v>
       </c>
       <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="25">
         <v>5</v>
       </c>
@@ -878,7 +877,7 @@
       </c>
       <c r="F7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="25">
         <v>6</v>
       </c>
@@ -900,7 +899,7 @@
       </c>
       <c r="F8" s="22"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="25">
         <v>7</v>
       </c>
@@ -921,7 +920,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="25">
         <v>8</v>
       </c>
@@ -942,7 +941,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="25">
         <v>9</v>
       </c>
@@ -963,7 +962,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="25">
         <v>10</v>
       </c>
@@ -984,7 +983,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="25">
         <v>11</v>
       </c>
@@ -1005,7 +1004,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="25">
         <v>12</v>
       </c>
@@ -1026,7 +1025,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="25">
         <v>13</v>
       </c>
@@ -1047,7 +1046,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="25">
         <v>14</v>
       </c>
@@ -1068,7 +1067,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="25">
         <v>15</v>
       </c>
@@ -1089,7 +1088,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="25">
         <v>16</v>
       </c>
@@ -1110,7 +1109,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="25">
         <v>17</v>
       </c>
@@ -1132,7 +1131,7 @@
       </c>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="25">
         <v>18</v>
       </c>
@@ -1153,7 +1152,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="25">
         <v>19</v>
       </c>
@@ -1174,7 +1173,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="25">
         <v>20</v>
       </c>
@@ -1195,7 +1194,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="25">
         <v>21</v>
       </c>
@@ -1216,7 +1215,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="25">
         <v>22</v>
       </c>
@@ -1237,7 +1236,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="25">
         <v>23</v>
       </c>
@@ -1258,7 +1257,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="25">
         <v>24</v>
       </c>
@@ -1279,7 +1278,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="25">
         <v>25</v>
       </c>
@@ -1300,7 +1299,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="25">
         <v>26</v>
       </c>
@@ -1321,7 +1320,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="25">
         <v>27</v>
       </c>
@@ -1342,7 +1341,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="25">
         <v>28</v>
       </c>
@@ -1363,7 +1362,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="25">
         <v>29</v>
       </c>
@@ -1384,7 +1383,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="25">
         <v>30</v>
       </c>
@@ -1405,7 +1404,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="25">
         <v>31</v>
       </c>
@@ -1426,7 +1425,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="25">
         <v>32</v>
       </c>
@@ -1447,7 +1446,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="25">
         <v>33</v>
       </c>
@@ -1468,7 +1467,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="25">
         <v>34</v>
       </c>
@@ -1489,7 +1488,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="25">
         <v>35</v>
       </c>
@@ -1510,7 +1509,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="25">
         <v>36</v>
       </c>
@@ -1531,7 +1530,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="25">
         <v>37</v>
       </c>
@@ -1552,7 +1551,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="25">
         <v>38</v>
       </c>
@@ -1573,7 +1572,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="25">
         <v>39</v>
       </c>
@@ -1594,7 +1593,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="25">
         <v>40</v>
       </c>
@@ -1615,7 +1614,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="25">
         <v>41</v>
       </c>
@@ -1636,7 +1635,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="25">
         <v>42</v>
       </c>
@@ -1657,7 +1656,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="25">
         <v>43</v>
       </c>
@@ -1678,7 +1677,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="25">
         <v>44</v>
       </c>
@@ -1699,7 +1698,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="25">
         <v>45</v>
       </c>
@@ -1720,7 +1719,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="25">
         <v>46</v>
       </c>
@@ -1741,7 +1740,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="25">
         <v>47</v>
       </c>
@@ -1762,7 +1761,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="25">
         <v>48</v>
       </c>
@@ -1783,7 +1782,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="25">
         <v>49</v>
       </c>
@@ -1804,7 +1803,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="25">
         <v>50</v>
       </c>
@@ -1825,7 +1824,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="25">
         <v>51</v>
       </c>
@@ -1846,7 +1845,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="25">
         <v>52</v>
       </c>
@@ -1867,7 +1866,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="25">
         <v>53</v>
       </c>
@@ -1888,7 +1887,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="25">
         <v>54</v>
       </c>
@@ -1909,7 +1908,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="25">
         <v>55</v>
       </c>
@@ -1930,7 +1929,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="25">
         <v>56</v>
       </c>
@@ -1951,7 +1950,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="25">
         <v>57</v>
       </c>
@@ -1972,7 +1971,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="25">
         <v>58</v>
       </c>
@@ -1993,7 +1992,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="25">
         <v>59</v>
       </c>
@@ -2014,7 +2013,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="25">
         <v>60</v>
       </c>
@@ -2035,7 +2034,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="25">
         <v>61</v>
       </c>
@@ -2056,7 +2055,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="25">
         <v>62</v>
       </c>
@@ -2077,7 +2076,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="25">
         <v>63</v>
       </c>
@@ -2098,7 +2097,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" s="25">
         <v>64</v>
       </c>
@@ -2119,7 +2118,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="25">
         <v>65</v>
       </c>
@@ -2140,7 +2139,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="25">
         <v>66</v>
       </c>
@@ -2161,7 +2160,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" s="25">
         <v>67</v>
       </c>
@@ -2182,7 +2181,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="25">
         <v>68</v>
       </c>
@@ -2203,7 +2202,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="25">
         <v>69</v>
       </c>
@@ -2224,7 +2223,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="25">
         <v>70</v>
       </c>
@@ -2245,7 +2244,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="25">
         <v>71</v>
       </c>
@@ -2266,7 +2265,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" s="25">
         <v>72</v>
       </c>
@@ -2287,7 +2286,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" s="25">
         <v>73</v>
       </c>
@@ -2308,7 +2307,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" s="25">
         <v>74</v>
       </c>
@@ -2329,7 +2328,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" s="25">
         <v>75</v>
       </c>
@@ -2350,7 +2349,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" s="25">
         <v>76</v>
       </c>
@@ -2371,7 +2370,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" s="25">
         <v>77</v>
       </c>
@@ -2392,7 +2391,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" s="25">
         <v>78</v>
       </c>
@@ -2413,7 +2412,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" s="25">
         <v>79</v>
       </c>
@@ -2434,7 +2433,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" s="25">
         <v>80</v>
       </c>
@@ -2455,7 +2454,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" s="25">
         <v>81</v>
       </c>
@@ -2476,7 +2475,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" s="25">
         <v>82</v>
       </c>
@@ -2497,7 +2496,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" s="25">
         <v>83</v>
       </c>
@@ -2518,7 +2517,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" s="25">
         <v>84</v>
       </c>
@@ -2539,7 +2538,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" s="25">
         <v>85</v>
       </c>
@@ -2560,7 +2559,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" s="25">
         <v>86</v>
       </c>
@@ -2581,7 +2580,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" s="25">
         <v>87</v>
       </c>
@@ -2602,7 +2601,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" s="25">
         <v>88</v>
       </c>
@@ -2623,7 +2622,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" s="25">
         <v>89</v>
       </c>
@@ -2644,7 +2643,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" s="25">
         <v>90</v>
       </c>
@@ -2665,7 +2664,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" s="25">
         <v>91</v>
       </c>
@@ -2686,7 +2685,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" s="25">
         <v>92</v>
       </c>
@@ -2707,7 +2706,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" s="25">
         <v>93</v>
       </c>
@@ -2728,7 +2727,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" s="25">
         <v>94</v>
       </c>
@@ -2749,7 +2748,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" s="25">
         <v>95</v>
       </c>
@@ -2770,7 +2769,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" s="25">
         <v>96</v>
       </c>
@@ -2791,7 +2790,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" s="25">
         <v>97</v>
       </c>
@@ -2812,7 +2811,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" s="25">
         <v>98</v>
       </c>
@@ -2833,7 +2832,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" s="25">
         <v>99</v>
       </c>
@@ -2854,7 +2853,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" s="25">
         <v>100</v>
       </c>
@@ -2875,7 +2874,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" s="25">
         <v>101</v>
       </c>
@@ -2896,7 +2895,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" s="25">
         <v>102</v>
       </c>
@@ -2917,7 +2916,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" s="25">
         <v>103</v>
       </c>
@@ -2938,7 +2937,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106" s="25">
         <v>104</v>
       </c>
@@ -2959,7 +2958,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" s="25">
         <v>105</v>
       </c>
@@ -2980,7 +2979,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" s="25">
         <v>106</v>
       </c>
@@ -3001,7 +3000,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" s="25">
         <v>107</v>
       </c>
@@ -3022,7 +3021,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" s="25">
         <v>108</v>
       </c>
@@ -3043,7 +3042,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" s="25">
         <v>109</v>
       </c>
@@ -3064,7 +3063,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112" s="25">
         <v>110</v>
       </c>
@@ -3085,7 +3084,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" s="25">
         <v>111</v>
       </c>
@@ -3106,7 +3105,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" s="25">
         <v>112</v>
       </c>
@@ -3127,7 +3126,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" s="25">
         <v>113</v>
       </c>
@@ -3148,7 +3147,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" s="25">
         <v>114</v>
       </c>
@@ -3169,7 +3168,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" s="25">
         <v>115</v>
       </c>
@@ -3190,7 +3189,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" s="25">
         <v>116</v>
       </c>
@@ -3211,7 +3210,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" s="25">
         <v>117</v>
       </c>
@@ -3232,7 +3231,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" s="25">
         <v>118</v>
       </c>
@@ -3253,7 +3252,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" s="25">
         <v>119</v>
       </c>
@@ -3274,7 +3273,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" s="25">
         <v>120</v>
       </c>
@@ -3295,7 +3294,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" s="25">
         <v>121</v>
       </c>
@@ -3316,7 +3315,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" s="25">
         <v>122</v>
       </c>
@@ -3337,7 +3336,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" s="25">
         <v>123</v>
       </c>
@@ -3358,7 +3357,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" s="25">
         <v>124</v>
       </c>
@@ -3379,7 +3378,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" s="25">
         <v>125</v>
       </c>
@@ -3400,7 +3399,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" s="25">
         <v>126</v>
       </c>
@@ -3421,7 +3420,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" s="25">
         <v>127</v>
       </c>
@@ -3442,7 +3441,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" s="25">
         <v>128</v>
       </c>
@@ -3463,7 +3462,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" s="25">
         <v>129</v>
       </c>
@@ -3484,7 +3483,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" s="25">
         <v>130</v>
       </c>
@@ -3505,7 +3504,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" s="25">
         <v>131</v>
       </c>
@@ -3526,7 +3525,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134" s="25">
         <v>132</v>
       </c>
@@ -3547,7 +3546,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" s="25">
         <v>133</v>
       </c>
@@ -3568,7 +3567,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" s="25">
         <v>134</v>
       </c>
@@ -3589,7 +3588,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" s="25">
         <v>135</v>
       </c>
@@ -3610,7 +3609,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" s="25">
         <v>136</v>
       </c>
@@ -3631,7 +3630,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" s="25">
         <v>137</v>
       </c>
@@ -3652,7 +3651,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" s="25">
         <v>138</v>
       </c>
@@ -3673,7 +3672,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" s="25">
         <v>139</v>
       </c>
@@ -3694,7 +3693,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" s="25">
         <v>140</v>
       </c>
@@ -3715,7 +3714,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" s="25">
         <v>141</v>
       </c>
@@ -3736,7 +3735,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" s="25">
         <v>142</v>
       </c>
@@ -3757,7 +3756,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" s="25">
         <v>143</v>
       </c>
@@ -3778,7 +3777,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" s="25">
         <v>144</v>
       </c>
@@ -3799,7 +3798,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" s="25">
         <v>145</v>
       </c>
@@ -3820,7 +3819,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148" s="25">
         <v>146</v>
       </c>
@@ -3841,7 +3840,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" s="25">
         <v>147</v>
       </c>
@@ -3862,7 +3861,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" s="25">
         <v>148</v>
       </c>
@@ -3883,7 +3882,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" s="25">
         <v>149</v>
       </c>
@@ -3904,7 +3903,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152" s="25">
         <v>150</v>
       </c>
@@ -3925,7 +3924,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153" s="25">
         <v>151</v>
       </c>
@@ -3946,7 +3945,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154" s="25">
         <v>152</v>
       </c>
@@ -3967,7 +3966,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" s="25">
         <v>153</v>
       </c>
@@ -3988,7 +3987,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156" s="25">
         <v>154</v>
       </c>
@@ -4009,7 +4008,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157" s="25">
         <v>155</v>
       </c>
@@ -4030,7 +4029,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158" s="25">
         <v>156</v>
       </c>
@@ -4051,7 +4050,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159" s="25">
         <v>157</v>
       </c>
@@ -4072,7 +4071,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160" s="25">
         <v>158</v>
       </c>
@@ -4093,7 +4092,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" s="25">
         <v>159</v>
       </c>
@@ -4114,7 +4113,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" s="25">
         <v>160</v>
       </c>
@@ -4135,7 +4134,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" s="25">
         <v>161</v>
       </c>
@@ -4156,7 +4155,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" s="25">
         <v>162</v>
       </c>
@@ -4177,7 +4176,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" s="25">
         <v>163</v>
       </c>
@@ -4198,7 +4197,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" s="25">
         <v>164</v>
       </c>
@@ -4219,7 +4218,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" s="25">
         <v>165</v>
       </c>
@@ -4240,7 +4239,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" s="25">
         <v>166</v>
       </c>
@@ -4261,7 +4260,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" s="25">
         <v>167</v>
       </c>
@@ -4282,7 +4281,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170" s="25">
         <v>168</v>
       </c>
@@ -4303,7 +4302,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171" s="25">
         <v>169</v>
       </c>
@@ -4324,7 +4323,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172" s="25">
         <v>170</v>
       </c>
@@ -4345,7 +4344,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173" s="25">
         <v>171</v>
       </c>
@@ -4366,7 +4365,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174" s="25">
         <v>172</v>
       </c>
@@ -4387,7 +4386,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175" s="25">
         <v>173</v>
       </c>
@@ -4408,7 +4407,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176" s="25">
         <v>174</v>
       </c>
@@ -4429,7 +4428,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177" s="25">
         <v>175</v>
       </c>
@@ -4450,7 +4449,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178" s="25">
         <v>176</v>
       </c>
@@ -4471,7 +4470,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179" s="25">
         <v>177</v>
       </c>
@@ -4492,7 +4491,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180" s="25">
         <v>178</v>
       </c>
@@ -4513,7 +4512,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181" s="25">
         <v>179</v>
       </c>
@@ -4534,7 +4533,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182" s="25">
         <v>180</v>
       </c>
@@ -4555,7 +4554,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183" s="25">
         <v>181</v>
       </c>
@@ -4576,7 +4575,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184" s="25">
         <v>182</v>
       </c>
@@ -4597,7 +4596,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185" s="25">
         <v>183</v>
       </c>
@@ -4618,7 +4617,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186" s="25">
         <v>184</v>
       </c>
@@ -4639,7 +4638,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187" s="25">
         <v>185</v>
       </c>
@@ -4660,7 +4659,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188" s="25">
         <v>186</v>
       </c>
@@ -4681,7 +4680,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A189" s="25">
         <v>187</v>
       </c>
@@ -4702,7 +4701,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190" s="25">
         <v>188</v>
       </c>
@@ -4723,7 +4722,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191" s="25">
         <v>189</v>
       </c>
@@ -4744,7 +4743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192" s="25">
         <v>190</v>
       </c>
@@ -4765,7 +4764,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193" s="25">
         <v>191</v>
       </c>
@@ -4786,7 +4785,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194" s="25">
         <v>192</v>
       </c>
@@ -4807,7 +4806,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195" s="25">
         <v>193</v>
       </c>
@@ -4828,7 +4827,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196" s="25">
         <v>194</v>
       </c>
@@ -4849,7 +4848,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197" s="25">
         <v>195</v>
       </c>
@@ -4870,7 +4869,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" s="25">
         <v>196</v>
       </c>
@@ -4891,7 +4890,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199" s="25">
         <v>197</v>
       </c>
@@ -4912,7 +4911,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200" s="25">
         <v>198</v>
       </c>
@@ -4933,7 +4932,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201" s="25">
         <v>199</v>
       </c>
@@ -4954,7 +4953,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202" s="25">
         <v>200</v>
       </c>
@@ -4975,7 +4974,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203" s="25">
         <v>201</v>
       </c>
@@ -4996,7 +4995,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204" s="25">
         <v>202</v>
       </c>
@@ -5017,7 +5016,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205" s="25">
         <v>203</v>
       </c>
@@ -5038,7 +5037,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A206" s="25">
         <v>204</v>
       </c>
@@ -5059,7 +5058,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207" s="25">
         <v>205</v>
       </c>
@@ -5080,7 +5079,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208" s="25">
         <v>206</v>
       </c>
@@ -5101,7 +5100,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209" s="25">
         <v>207</v>
       </c>
@@ -5122,7 +5121,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210" s="25">
         <v>208</v>
       </c>
@@ -5143,7 +5142,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211" s="25">
         <v>209</v>
       </c>
@@ -5164,7 +5163,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212" s="25">
         <v>210</v>
       </c>
@@ -5185,7 +5184,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213" s="25">
         <v>211</v>
       </c>
@@ -5206,7 +5205,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214" s="25">
         <v>212</v>
       </c>
@@ -5227,7 +5226,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215" s="25">
         <v>213</v>
       </c>
@@ -5248,7 +5247,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216" s="25">
         <v>214</v>
       </c>
@@ -5269,7 +5268,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217" s="25">
         <v>215</v>
       </c>
@@ -5290,7 +5289,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218" s="25">
         <v>216</v>
       </c>
@@ -5311,7 +5310,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219" s="25">
         <v>217</v>
       </c>
@@ -5332,7 +5331,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220" s="25">
         <v>218</v>
       </c>
@@ -5353,7 +5352,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221" s="25">
         <v>219</v>
       </c>
@@ -5374,7 +5373,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222" s="25">
         <v>220</v>
       </c>
@@ -5395,7 +5394,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223" s="25">
         <v>221</v>
       </c>
@@ -5416,7 +5415,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224" s="25">
         <v>222</v>
       </c>
@@ -5437,7 +5436,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A225" s="25">
         <v>223</v>
       </c>
@@ -5458,7 +5457,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A226" s="25">
         <v>224</v>
       </c>
@@ -5479,7 +5478,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A227" s="25">
         <v>225</v>
       </c>
@@ -5500,7 +5499,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228" s="25">
         <v>226</v>
       </c>
@@ -5521,7 +5520,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A229" s="25">
         <v>227</v>
       </c>
@@ -5542,7 +5541,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A230" s="25">
         <v>228</v>
       </c>
@@ -5563,7 +5562,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A231" s="25">
         <v>229</v>
       </c>
@@ -5584,7 +5583,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A232" s="25">
         <v>230</v>
       </c>
@@ -5605,7 +5604,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233" s="25">
         <v>231</v>
       </c>
@@ -5626,7 +5625,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A234" s="25">
         <v>232</v>
       </c>
@@ -5647,7 +5646,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A235" s="25">
         <v>233</v>
       </c>
@@ -5668,7 +5667,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A236" s="25">
         <v>234</v>
       </c>
@@ -5689,7 +5688,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A237" s="25">
         <v>235</v>
       </c>
@@ -5710,7 +5709,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A238" s="25">
         <v>236</v>
       </c>
@@ -5731,7 +5730,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A239" s="25">
         <v>237</v>
       </c>
@@ -5752,7 +5751,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A240" s="25">
         <v>238</v>
       </c>
@@ -5773,7 +5772,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A241" s="25">
         <v>239</v>
       </c>
@@ -5794,7 +5793,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A242" s="25">
         <v>240</v>
       </c>
@@ -5815,7 +5814,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A243" s="25">
         <v>241</v>
       </c>
@@ -5836,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A244" s="25">
         <v>242</v>
       </c>
@@ -5857,7 +5856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A245" s="25">
         <v>243</v>
       </c>
@@ -5878,7 +5877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A246" s="25">
         <v>244</v>
       </c>
@@ -5899,7 +5898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A247" s="25">
         <v>245</v>
       </c>
@@ -5920,7 +5919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A248" s="25">
         <v>246</v>
       </c>
@@ -5941,7 +5940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A249" s="25">
         <v>247</v>
       </c>
@@ -5962,7 +5961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A250" s="25">
         <v>248</v>
       </c>
@@ -5983,7 +5982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A251" s="25">
         <v>249</v>
       </c>
@@ -6004,7 +6003,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A252" s="25">
         <v>250</v>
       </c>
@@ -6025,7 +6024,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A253" s="25">
         <v>251</v>
       </c>
@@ -6046,7 +6045,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A254" s="25">
         <v>252</v>
       </c>
@@ -6067,7 +6066,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A255" s="25">
         <v>253</v>
       </c>
@@ -6088,7 +6087,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A256" s="25">
         <v>254</v>
       </c>
@@ -6109,7 +6108,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A257" s="25">
         <v>255</v>
       </c>
@@ -6130,7 +6129,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258" s="25">
         <v>256</v>
       </c>
@@ -6151,7 +6150,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A259" s="25">
         <v>257</v>
       </c>
@@ -6172,7 +6171,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A260" s="25">
         <v>258</v>
       </c>
@@ -6193,7 +6192,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A261" s="25">
         <v>259</v>
       </c>
@@ -6214,7 +6213,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A262" s="25">
         <v>260</v>
       </c>
@@ -6235,7 +6234,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263" s="25">
         <v>261</v>
       </c>
@@ -6256,7 +6255,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A264" s="25">
         <v>262</v>
       </c>
@@ -6277,7 +6276,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A265" s="25">
         <v>263</v>
       </c>
@@ -6298,7 +6297,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A266" s="25">
         <v>264</v>
       </c>
@@ -6319,7 +6318,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A267" s="25">
         <v>265</v>
       </c>
@@ -6340,7 +6339,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268" s="25">
         <v>266</v>
       </c>
@@ -6361,7 +6360,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A269" s="25">
         <v>267</v>
       </c>
@@ -6382,7 +6381,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A270" s="25">
         <v>268</v>
       </c>
@@ -6403,7 +6402,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A271" s="25">
         <v>269</v>
       </c>
@@ -6424,7 +6423,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A272" s="25">
         <v>270</v>
       </c>
@@ -6445,7 +6444,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A273" s="25">
         <v>271</v>
       </c>
@@ -6466,7 +6465,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A274" s="25">
         <v>272</v>
       </c>
@@ -6487,7 +6486,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A275" s="25">
         <v>273</v>
       </c>
@@ -6508,7 +6507,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A276" s="25">
         <v>274</v>
       </c>
@@ -6529,7 +6528,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A277" s="25">
         <v>275</v>
       </c>
@@ -6550,7 +6549,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A278" s="25">
         <v>276</v>
       </c>
@@ -6571,7 +6570,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A279" s="25">
         <v>277</v>
       </c>
@@ -6592,7 +6591,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A280" s="25">
         <v>278</v>
       </c>
@@ -6613,7 +6612,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A281" s="25">
         <v>279</v>
       </c>
@@ -6634,7 +6633,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A282" s="25">
         <v>280</v>
       </c>
@@ -6655,7 +6654,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A283" s="25">
         <v>281</v>
       </c>
@@ -6676,7 +6675,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A284" s="25">
         <v>282</v>
       </c>
@@ -6697,7 +6696,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A285" s="25">
         <v>283</v>
       </c>
@@ -6718,7 +6717,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A286" s="25">
         <v>284</v>
       </c>
@@ -6739,7 +6738,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A287" s="25">
         <v>285</v>
       </c>
@@ -6760,7 +6759,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A288" s="25">
         <v>286</v>
       </c>
@@ -6781,7 +6780,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A289" s="25">
         <v>287</v>
       </c>
@@ -6802,7 +6801,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A290" s="25">
         <v>288</v>
       </c>
@@ -6823,7 +6822,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A291" s="25">
         <v>289</v>
       </c>
@@ -6844,7 +6843,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A292" s="25">
         <v>290</v>
       </c>
@@ -6865,7 +6864,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A293" s="25">
         <v>291</v>
       </c>
@@ -6886,7 +6885,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A294" s="25">
         <v>292</v>
       </c>
@@ -6907,7 +6906,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A295" s="25">
         <v>293</v>
       </c>
@@ -6928,7 +6927,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A296" s="25">
         <v>294</v>
       </c>
@@ -6949,7 +6948,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A297" s="25">
         <v>295</v>
       </c>
@@ -6970,7 +6969,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A298" s="25">
         <v>296</v>
       </c>
@@ -6991,7 +6990,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A299" s="25">
         <v>297</v>
       </c>
@@ -7012,7 +7011,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A300" s="25">
         <v>298</v>
       </c>
@@ -7033,7 +7032,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A301" s="25">
         <v>299</v>
       </c>
@@ -7054,7 +7053,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A302" s="25">
         <v>300</v>
       </c>
@@ -7075,7 +7074,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A303" s="25">
         <v>301</v>
       </c>
@@ -7096,7 +7095,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A304" s="25">
         <v>302</v>
       </c>
@@ -7117,7 +7116,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A305" s="25">
         <v>303</v>
       </c>
@@ -7138,7 +7137,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A306" s="25">
         <v>304</v>
       </c>
@@ -7159,7 +7158,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A307" s="25">
         <v>305</v>
       </c>
@@ -7180,7 +7179,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A308" s="25">
         <v>306</v>
       </c>
@@ -7201,7 +7200,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A309" s="25">
         <v>307</v>
       </c>
@@ -7222,7 +7221,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A310" s="25">
         <v>308</v>
       </c>
@@ -7243,7 +7242,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A311" s="25">
         <v>309</v>
       </c>
@@ -7264,7 +7263,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A312" s="25">
         <v>310</v>
       </c>
@@ -7285,7 +7284,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A313" s="25">
         <v>311</v>
       </c>
@@ -7306,7 +7305,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A314" s="25">
         <v>312</v>
       </c>
@@ -7327,7 +7326,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A315" s="25">
         <v>313</v>
       </c>
@@ -7348,7 +7347,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A316" s="25">
         <v>314</v>
       </c>
@@ -7369,7 +7368,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A317" s="25">
         <v>315</v>
       </c>
@@ -7390,7 +7389,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A318" s="25">
         <v>316</v>
       </c>
@@ -7411,7 +7410,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A319" s="25">
         <v>317</v>
       </c>
@@ -7432,7 +7431,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A320" s="25">
         <v>318</v>
       </c>
@@ -7453,7 +7452,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A321" s="25">
         <v>319</v>
       </c>
@@ -7474,7 +7473,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A322" s="25">
         <v>320</v>
       </c>
@@ -7495,7 +7494,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A323" s="25">
         <v>321</v>
       </c>
@@ -7516,7 +7515,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A324" s="25">
         <v>322</v>
       </c>
@@ -7537,7 +7536,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A325" s="25">
         <v>323</v>
       </c>
@@ -7558,7 +7557,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A326" s="25">
         <v>324</v>
       </c>
@@ -7579,7 +7578,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A327" s="25">
         <v>325</v>
       </c>
@@ -7600,7 +7599,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A328" s="25">
         <v>326</v>
       </c>
@@ -7621,7 +7620,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A329" s="25">
         <v>327</v>
       </c>
@@ -7642,7 +7641,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A330" s="25">
         <v>328</v>
       </c>
@@ -7663,7 +7662,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A331" s="25">
         <v>329</v>
       </c>
@@ -7684,7 +7683,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A332" s="25">
         <v>330</v>
       </c>
@@ -7705,7 +7704,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A333" s="25">
         <v>331</v>
       </c>
@@ -7726,7 +7725,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A334" s="25">
         <v>332</v>
       </c>
@@ -7747,7 +7746,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A335" s="25">
         <v>333</v>
       </c>
@@ -7768,7 +7767,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A336" s="25">
         <v>334</v>
       </c>
@@ -7789,7 +7788,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A337" s="25">
         <v>335</v>
       </c>
@@ -7810,7 +7809,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A338" s="25">
         <v>336</v>
       </c>
@@ -7831,7 +7830,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A339" s="25">
         <v>337</v>
       </c>
@@ -7852,7 +7851,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A340" s="25">
         <v>338</v>
       </c>
@@ -7873,7 +7872,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A341" s="25">
         <v>339</v>
       </c>
@@ -7894,7 +7893,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A342" s="25">
         <v>340</v>
       </c>
@@ -7915,7 +7914,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A343" s="25">
         <v>341</v>
       </c>
@@ -7936,7 +7935,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A344" s="25">
         <v>342</v>
       </c>
@@ -7957,7 +7956,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A345" s="25">
         <v>343</v>
       </c>
@@ -7978,7 +7977,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A346" s="25">
         <v>344</v>
       </c>
@@ -7999,7 +7998,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A347" s="25">
         <v>345</v>
       </c>
@@ -8020,7 +8019,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A348" s="25">
         <v>346</v>
       </c>
@@ -8041,7 +8040,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A349" s="25">
         <v>347</v>
       </c>
@@ -8062,7 +8061,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A350" s="25">
         <v>348</v>
       </c>
@@ -8083,7 +8082,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A351" s="25">
         <v>349</v>
       </c>
@@ -8104,7 +8103,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A352" s="25">
         <v>350</v>
       </c>
@@ -8125,7 +8124,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A353" s="25">
         <v>351</v>
       </c>
@@ -8146,7 +8145,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A354" s="25">
         <v>352</v>
       </c>
@@ -8167,7 +8166,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A355" s="25">
         <v>353</v>
       </c>
@@ -8188,7 +8187,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A356" s="25">
         <v>354</v>
       </c>
@@ -8209,7 +8208,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A357" s="25">
         <v>355</v>
       </c>
@@ -8230,7 +8229,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A358" s="25">
         <v>356</v>
       </c>
@@ -8251,7 +8250,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A359" s="25">
         <v>357</v>
       </c>
@@ -8272,7 +8271,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A360" s="25">
         <v>358</v>
       </c>
@@ -8293,7 +8292,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A361" s="25">
         <v>359</v>
       </c>
@@ -8314,7 +8313,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A362" s="25">
         <v>360</v>
       </c>
@@ -8335,7 +8334,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A363" s="25">
         <v>361</v>
       </c>
@@ -8356,7 +8355,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A364" s="25">
         <v>362</v>
       </c>
@@ -8377,7 +8376,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A365" s="25">
         <v>363</v>
       </c>
@@ -8398,7 +8397,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A366" s="25">
         <v>364</v>
       </c>
@@ -8419,7 +8418,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A367" s="25">
         <v>365</v>
       </c>
@@ -8440,7 +8439,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A368" s="25">
         <v>366</v>
       </c>
@@ -8461,7 +8460,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A369" s="25">
         <v>367</v>
       </c>
@@ -8482,7 +8481,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A370" s="25">
         <v>368</v>
       </c>
@@ -8503,7 +8502,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A371" s="25">
         <v>369</v>
       </c>
@@ -8524,7 +8523,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A372" s="25">
         <v>370</v>
       </c>
@@ -8545,7 +8544,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A373" s="25">
         <v>371</v>
       </c>
@@ -8566,7 +8565,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A374" s="25">
         <v>372</v>
       </c>
@@ -8587,7 +8586,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A375" s="25">
         <v>373</v>
       </c>
@@ -8608,7 +8607,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A376" s="25">
         <v>374</v>
       </c>
@@ -8629,7 +8628,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A377" s="25">
         <v>375</v>
       </c>
@@ -8650,7 +8649,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A378" s="25">
         <v>376</v>
       </c>
@@ -8671,7 +8670,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A379" s="25">
         <v>377</v>
       </c>
@@ -8692,7 +8691,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A380" s="25">
         <v>378</v>
       </c>
@@ -8713,7 +8712,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A381" s="25">
         <v>379</v>
       </c>
@@ -8734,7 +8733,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A382" s="25">
         <v>380</v>
       </c>
@@ -8755,7 +8754,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A383" s="25">
         <v>381</v>
       </c>
@@ -8776,7 +8775,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A384" s="25">
         <v>382</v>
       </c>
@@ -8797,7 +8796,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A385" s="25">
         <v>383</v>
       </c>
@@ -8818,7 +8817,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A386" s="25">
         <v>384</v>
       </c>
@@ -8839,7 +8838,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A387" s="25">
         <v>385</v>
       </c>
@@ -8860,7 +8859,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A388" s="25">
         <v>386</v>
       </c>
@@ -8881,7 +8880,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A389" s="25">
         <v>387</v>
       </c>
@@ -8902,7 +8901,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A390" s="25">
         <v>388</v>
       </c>
@@ -8923,7 +8922,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A391" s="25">
         <v>389</v>
       </c>
@@ -8944,7 +8943,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A392" s="25">
         <v>390</v>
       </c>
@@ -8965,7 +8964,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A393" s="25">
         <v>391</v>
       </c>
@@ -8986,7 +8985,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A394" s="25">
         <v>392</v>
       </c>
@@ -9007,7 +9006,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A395" s="25">
         <v>393</v>
       </c>
@@ -9028,7 +9027,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A396" s="25">
         <v>394</v>
       </c>
@@ -9049,7 +9048,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A397" s="25">
         <v>395</v>
       </c>
@@ -9070,7 +9069,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A398" s="25">
         <v>396</v>
       </c>
@@ -9091,7 +9090,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A399" s="25">
         <v>397</v>
       </c>
@@ -9112,7 +9111,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A400" s="25">
         <v>398</v>
       </c>
@@ -9133,7 +9132,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A401" s="25">
         <v>399</v>
       </c>
@@ -9154,7 +9153,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A402" s="25">
         <v>400</v>
       </c>
@@ -9175,7 +9174,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A403" s="25">
         <v>401</v>
       </c>
@@ -9196,7 +9195,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A404" s="25">
         <v>402</v>
       </c>
@@ -9217,7 +9216,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A405" s="25">
         <v>403</v>
       </c>
@@ -9238,7 +9237,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A406" s="25">
         <v>404</v>
       </c>
@@ -9259,7 +9258,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A407" s="25">
         <v>405</v>
       </c>
@@ -9280,7 +9279,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A408" s="25">
         <v>406</v>
       </c>
@@ -9301,7 +9300,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A409" s="25">
         <v>407</v>
       </c>
@@ -9322,7 +9321,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A410" s="25">
         <v>408</v>
       </c>
@@ -9343,7 +9342,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A411" s="25">
         <v>409</v>
       </c>
@@ -9364,7 +9363,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A412" s="25">
         <v>410</v>
       </c>
@@ -9385,7 +9384,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A413" s="25">
         <v>411</v>
       </c>
@@ -9406,7 +9405,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A414" s="25">
         <v>412</v>
       </c>
@@ -9427,7 +9426,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A415" s="25">
         <v>413</v>
       </c>
@@ -9448,7 +9447,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A416" s="25">
         <v>414</v>
       </c>
@@ -9469,7 +9468,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A417" s="25">
         <v>415</v>
       </c>
@@ -9490,7 +9489,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A418" s="25">
         <v>416</v>
       </c>
@@ -9511,7 +9510,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A419" s="25">
         <v>417</v>
       </c>
@@ -9532,7 +9531,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A420" s="25">
         <v>418</v>
       </c>
@@ -9553,7 +9552,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A421" s="25">
         <v>419</v>
       </c>
@@ -9574,7 +9573,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A422" s="25">
         <v>420</v>
       </c>
@@ -9595,7 +9594,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A423" s="25">
         <v>421</v>
       </c>
@@ -9616,7 +9615,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A424" s="25">
         <v>422</v>
       </c>
@@ -9637,7 +9636,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A425" s="25">
         <v>423</v>
       </c>
@@ -9658,7 +9657,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A426" s="25">
         <v>424</v>
       </c>
@@ -9679,7 +9678,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A427" s="25">
         <v>425</v>
       </c>
@@ -9700,7 +9699,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A428" s="25">
         <v>426</v>
       </c>
@@ -9721,7 +9720,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A429" s="25">
         <v>427</v>
       </c>
@@ -9742,7 +9741,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A430" s="25">
         <v>428</v>
       </c>
@@ -9763,7 +9762,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A431" s="25">
         <v>429</v>
       </c>
@@ -9784,7 +9783,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A432" s="25">
         <v>430</v>
       </c>
@@ -9805,7 +9804,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A433" s="25">
         <v>431</v>
       </c>
@@ -9826,7 +9825,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A434" s="25">
         <v>432</v>
       </c>
@@ -9847,7 +9846,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A435" s="25">
         <v>433</v>
       </c>
@@ -9868,7 +9867,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A436" s="25">
         <v>434</v>
       </c>
@@ -9889,7 +9888,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A437" s="25">
         <v>435</v>
       </c>
@@ -9910,7 +9909,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A438" s="25">
         <v>436</v>
       </c>
@@ -9931,7 +9930,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A439" s="25">
         <v>437</v>
       </c>
@@ -9952,7 +9951,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A440" s="25">
         <v>438</v>
       </c>
@@ -9973,7 +9972,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A441" s="25">
         <v>439</v>
       </c>
@@ -9994,7 +9993,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A442" s="25">
         <v>440</v>
       </c>
@@ -10015,7 +10014,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A443" s="25">
         <v>441</v>
       </c>
@@ -10036,7 +10035,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A444" s="25">
         <v>442</v>
       </c>
@@ -10057,7 +10056,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A445" s="25">
         <v>443</v>
       </c>
@@ -10078,7 +10077,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A446" s="25">
         <v>444</v>
       </c>
@@ -10099,7 +10098,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A447" s="25">
         <v>445</v>
       </c>
@@ -10120,7 +10119,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A448" s="25">
         <v>446</v>
       </c>
@@ -10141,7 +10140,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A449" s="25">
         <v>447</v>
       </c>
@@ -10162,7 +10161,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A450" s="25">
         <v>448</v>
       </c>
@@ -10183,7 +10182,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A451" s="25">
         <v>449</v>
       </c>
@@ -10204,7 +10203,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A452" s="25">
         <v>450</v>
       </c>
@@ -10225,7 +10224,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A453" s="25">
         <v>451</v>
       </c>
@@ -10246,7 +10245,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A454" s="25">
         <v>452</v>
       </c>
@@ -10267,7 +10266,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A455" s="25">
         <v>453</v>
       </c>
@@ -10288,7 +10287,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A456" s="25">
         <v>454</v>
       </c>
@@ -10309,7 +10308,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A457" s="25">
         <v>455</v>
       </c>
@@ -10330,7 +10329,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A458" s="25">
         <v>456</v>
       </c>
@@ -10351,7 +10350,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A459" s="25">
         <v>457</v>
       </c>
@@ -10372,7 +10371,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A460" s="25">
         <v>458</v>
       </c>
@@ -10393,7 +10392,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A461" s="25">
         <v>459</v>
       </c>
@@ -10414,7 +10413,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A462" s="25">
         <v>460</v>
       </c>
@@ -10435,7 +10434,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A463" s="25">
         <v>461</v>
       </c>
@@ -10456,7 +10455,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A464" s="25">
         <v>462</v>
       </c>
@@ -10477,7 +10476,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A465" s="25">
         <v>463</v>
       </c>
@@ -10498,7 +10497,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A466" s="25">
         <v>464</v>
       </c>
@@ -10519,7 +10518,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A467" s="25">
         <v>465</v>
       </c>
@@ -10540,7 +10539,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A468" s="25">
         <v>466</v>
       </c>
@@ -10561,7 +10560,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A469" s="25">
         <v>467</v>
       </c>
@@ -10582,7 +10581,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A470" s="25">
         <v>468</v>
       </c>
@@ -10603,7 +10602,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A471" s="25">
         <v>469</v>
       </c>
@@ -10624,7 +10623,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A472" s="25">
         <v>470</v>
       </c>
@@ -10645,7 +10644,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A473" s="25">
         <v>471</v>
       </c>
@@ -10666,7 +10665,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A474" s="25">
         <v>472</v>
       </c>
@@ -10687,7 +10686,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A475" s="25">
         <v>473</v>
       </c>
@@ -10708,7 +10707,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A476" s="25">
         <v>474</v>
       </c>
@@ -10729,7 +10728,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A477" s="25">
         <v>475</v>
       </c>
@@ -10750,7 +10749,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A478" s="25">
         <v>476</v>
       </c>
@@ -10771,7 +10770,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A479" s="25">
         <v>477</v>
       </c>
@@ -10792,7 +10791,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A480" s="25">
         <v>478</v>
       </c>
@@ -10813,7 +10812,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A481" s="25">
         <v>479</v>
       </c>
@@ -10834,7 +10833,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A482" s="25">
         <v>480</v>
       </c>
@@ -10855,7 +10854,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A483" s="25">
         <v>481</v>
       </c>
@@ -10876,7 +10875,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A484" s="25">
         <v>482</v>
       </c>
@@ -10897,7 +10896,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A485" s="25">
         <v>483</v>
       </c>
@@ -10918,7 +10917,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A486" s="25">
         <v>484</v>
       </c>
@@ -10939,7 +10938,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A487" s="25">
         <v>485</v>
       </c>
@@ -10960,7 +10959,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A488" s="25">
         <v>486</v>
       </c>
@@ -10981,7 +10980,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A489" s="25">
         <v>487</v>
       </c>
@@ -11002,7 +11001,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A490" s="25">
         <v>488</v>
       </c>
@@ -11023,7 +11022,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A491" s="25">
         <v>489</v>
       </c>
@@ -11044,7 +11043,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A492" s="25">
         <v>490</v>
       </c>
@@ -11065,7 +11064,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A493" s="25">
         <v>491</v>
       </c>
@@ -11086,7 +11085,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A494" s="25">
         <v>492</v>
       </c>
@@ -11107,7 +11106,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A495" s="25">
         <v>493</v>
       </c>
@@ -11128,7 +11127,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A496" s="25">
         <v>494</v>
       </c>
@@ -11149,7 +11148,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A497" s="25">
         <v>495</v>
       </c>
@@ -11170,7 +11169,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A498" s="25">
         <v>496</v>
       </c>
@@ -11191,7 +11190,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A499" s="25">
         <v>497</v>
       </c>
@@ -11212,7 +11211,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A500" s="25">
         <v>498</v>
       </c>
@@ -11233,7 +11232,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A501" s="25">
         <v>499</v>
       </c>
@@ -11254,7 +11253,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A502" s="25">
         <v>500</v>
       </c>
@@ -11275,7 +11274,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A503" s="25">
         <v>501</v>
       </c>
@@ -11296,7 +11295,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A504" s="25">
         <v>502</v>
       </c>
@@ -11317,7 +11316,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A505" s="25">
         <v>503</v>
       </c>
@@ -11338,7 +11337,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A506" s="25">
         <v>504</v>
       </c>
@@ -11359,7 +11358,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A507" s="25">
         <v>505</v>
       </c>
@@ -11380,7 +11379,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A508" s="25">
         <v>506</v>
       </c>
@@ -11401,7 +11400,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A509" s="25">
         <v>507</v>
       </c>
@@ -11422,7 +11421,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A510" s="25">
         <v>508</v>
       </c>
@@ -11443,7 +11442,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A511" s="25">
         <v>509</v>
       </c>
@@ -11464,7 +11463,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A512" s="25">
         <v>510</v>
       </c>
@@ -11485,7 +11484,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A513" s="25">
         <v>511</v>
       </c>
@@ -11506,7 +11505,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A514" s="25">
         <v>512</v>
       </c>
@@ -11527,7 +11526,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A515" s="25">
         <v>513</v>
       </c>
@@ -11548,7 +11547,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A516" s="25">
         <v>514</v>
       </c>
@@ -11569,7 +11568,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A517" s="25">
         <v>515</v>
       </c>
@@ -11590,7 +11589,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A518" s="25">
         <v>516</v>
       </c>
@@ -11611,7 +11610,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A519" s="25">
         <v>517</v>
       </c>
@@ -11632,7 +11631,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A520" s="25">
         <v>518</v>
       </c>
@@ -11653,7 +11652,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A521" s="25">
         <v>519</v>
       </c>
@@ -11674,7 +11673,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A522" s="25">
         <v>520</v>
       </c>
@@ -11695,7 +11694,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A523" s="25">
         <v>521</v>
       </c>
@@ -11716,7 +11715,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A524" s="25">
         <v>522</v>
       </c>
@@ -11737,7 +11736,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A525" s="25">
         <v>523</v>
       </c>
@@ -11758,7 +11757,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A526" s="25">
         <v>524</v>
       </c>
@@ -11779,7 +11778,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A527" s="25">
         <v>525</v>
       </c>
@@ -11800,7 +11799,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A528" s="25">
         <v>526</v>
       </c>
@@ -11821,7 +11820,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A529" s="25">
         <v>527</v>
       </c>
@@ -11842,7 +11841,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A530" s="25">
         <v>528</v>
       </c>
@@ -11863,7 +11862,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A531" s="25">
         <v>529</v>
       </c>
@@ -11884,7 +11883,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A532" s="25">
         <v>530</v>
       </c>
@@ -11905,7 +11904,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A533" s="25">
         <v>531</v>
       </c>
@@ -11926,7 +11925,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A534" s="25">
         <v>532</v>
       </c>
@@ -11947,7 +11946,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A535" s="25">
         <v>533</v>
       </c>
@@ -11968,7 +11967,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A536" s="25">
         <v>534</v>
       </c>
@@ -11989,7 +11988,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A537" s="25">
         <v>535</v>
       </c>
@@ -12010,7 +12009,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A538" s="25">
         <v>536</v>
       </c>
@@ -12031,7 +12030,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A539" s="25">
         <v>537</v>
       </c>
@@ -12052,7 +12051,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A540" s="25">
         <v>538</v>
       </c>
@@ -12073,7 +12072,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A541" s="25">
         <v>539</v>
       </c>
@@ -12094,7 +12093,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A542" s="25">
         <v>540</v>
       </c>
@@ -12115,7 +12114,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A543" s="25">
         <v>541</v>
       </c>
@@ -12136,7 +12135,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A544" s="25">
         <v>542</v>
       </c>
@@ -12157,7 +12156,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A545" s="25">
         <v>543</v>
       </c>
@@ -12178,7 +12177,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A546" s="25">
         <v>544</v>
       </c>
@@ -12199,7 +12198,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A547" s="25">
         <v>545</v>
       </c>
@@ -12220,7 +12219,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A548" s="25">
         <v>546</v>
       </c>
@@ -12241,7 +12240,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A549" s="25">
         <v>547</v>
       </c>
@@ -12262,7 +12261,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A550" s="25">
         <v>548</v>
       </c>
@@ -12283,7 +12282,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A551" s="25">
         <v>549</v>
       </c>
@@ -12304,7 +12303,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A552" s="25">
         <v>550</v>
       </c>
@@ -12325,7 +12324,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A553" s="25">
         <v>551</v>
       </c>
@@ -12346,7 +12345,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A554" s="25">
         <v>552</v>
       </c>
@@ -12367,7 +12366,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A555" s="25">
         <v>553</v>
       </c>
@@ -12388,7 +12387,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A556" s="25">
         <v>554</v>
       </c>
@@ -12409,7 +12408,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A557" s="25">
         <v>555</v>
       </c>
@@ -12430,7 +12429,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A558" s="25">
         <v>556</v>
       </c>
@@ -12451,7 +12450,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A559" s="25">
         <v>557</v>
       </c>
@@ -12472,7 +12471,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A560" s="25">
         <v>558</v>
       </c>
@@ -12493,7 +12492,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A561" s="25">
         <v>559</v>
       </c>
@@ -12514,7 +12513,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A562" s="25">
         <v>560</v>
       </c>
@@ -12535,7 +12534,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A563" s="25">
         <v>561</v>
       </c>
@@ -12556,7 +12555,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A564" s="25">
         <v>562</v>
       </c>
@@ -12577,7 +12576,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A565" s="25">
         <v>563</v>
       </c>
@@ -12598,7 +12597,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A566" s="25">
         <v>564</v>
       </c>
@@ -12619,7 +12618,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A567" s="25">
         <v>565</v>
       </c>
@@ -12640,7 +12639,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A568" s="25">
         <v>566</v>
       </c>
@@ -12661,7 +12660,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A569" s="25">
         <v>567</v>
       </c>
@@ -12682,7 +12681,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A570" s="25">
         <v>568</v>
       </c>
@@ -12703,7 +12702,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A571" s="25">
         <v>569</v>
       </c>
@@ -12724,7 +12723,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A572" s="25">
         <v>570</v>
       </c>
@@ -12745,7 +12744,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A573" s="25">
         <v>571</v>
       </c>
@@ -12766,7 +12765,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A574" s="25">
         <v>572</v>
       </c>
@@ -12787,7 +12786,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A575" s="25">
         <v>573</v>
       </c>
@@ -12808,7 +12807,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A576" s="25">
         <v>574</v>
       </c>
@@ -12829,7 +12828,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A577" s="25">
         <v>575</v>
       </c>
@@ -12850,7 +12849,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A578" s="25">
         <v>576</v>
       </c>
@@ -12871,7 +12870,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A579" s="25">
         <v>577</v>
       </c>
@@ -12892,7 +12891,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A580" s="25">
         <v>578</v>
       </c>
@@ -12913,7 +12912,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A581" s="25">
         <v>579</v>
       </c>
@@ -12934,7 +12933,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A582" s="25">
         <v>580</v>
       </c>
@@ -12955,7 +12954,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A583" s="25">
         <v>581</v>
       </c>
@@ -12976,7 +12975,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A584" s="25">
         <v>582</v>
       </c>
@@ -12997,7 +12996,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A585" s="25">
         <v>583</v>
       </c>
@@ -13018,7 +13017,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A586" s="25">
         <v>584</v>
       </c>
@@ -13039,7 +13038,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A587" s="25">
         <v>585</v>
       </c>
@@ -13060,7 +13059,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A588" s="25">
         <v>586</v>
       </c>
@@ -13081,7 +13080,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A589" s="25">
         <v>587</v>
       </c>
@@ -13102,7 +13101,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A590" s="25">
         <v>588</v>
       </c>
@@ -13123,7 +13122,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A591" s="25">
         <v>589</v>
       </c>
@@ -13144,7 +13143,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A592" s="25">
         <v>590</v>
       </c>
@@ -13165,7 +13164,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A593" s="25">
         <v>591</v>
       </c>
@@ -13186,7 +13185,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A594" s="25">
         <v>592</v>
       </c>
@@ -13207,7 +13206,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A595" s="25">
         <v>593</v>
       </c>
@@ -13228,7 +13227,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A596" s="25">
         <v>594</v>
       </c>
@@ -13249,7 +13248,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A597" s="25">
         <v>595</v>
       </c>
@@ -13270,7 +13269,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A598" s="25">
         <v>596</v>
       </c>
@@ -13291,7 +13290,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A599" s="25">
         <v>597</v>
       </c>
@@ -13312,7 +13311,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A600" s="25">
         <v>598</v>
       </c>
@@ -13333,7 +13332,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A601" s="25">
         <v>599</v>
       </c>
@@ -13354,22 +13353,23 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B602" s="21"/>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B603" s="21"/>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B604" s="21"/>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B605" s="21"/>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B606" s="21"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13379,13 +13379,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -13405,7 +13405,7 @@
       <c r="O1" s="27"/>
       <c r="P1" s="28"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -13505,7 +13505,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -13605,7 +13605,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>8</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>10</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>12</v>
       </c>
@@ -13755,7 +13755,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="6">
         <v>14</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>16</v>
       </c>
@@ -13855,7 +13855,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>18</v>
       </c>
@@ -13905,7 +13905,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>20</v>
       </c>
@@ -13955,7 +13955,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="6">
         <v>22</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>24</v>
       </c>
@@ -14055,7 +14055,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>26</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>28</v>
       </c>
@@ -14155,7 +14155,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="6">
         <v>30</v>
       </c>
@@ -14205,7 +14205,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>32</v>
       </c>
@@ -14255,7 +14255,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>34</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>36</v>
       </c>
@@ -14355,7 +14355,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="6">
         <v>38</v>
       </c>
@@ -14405,7 +14405,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
         <v>40</v>
       </c>
@@ -14455,7 +14455,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="13">
         <v>42</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="13">
         <v>44</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="15">
         <v>46</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A26" s="11">
         <v>48</v>
       </c>
@@ -14655,7 +14655,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="13">
         <v>50</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="13">
         <v>52</v>
       </c>
@@ -14755,7 +14755,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="15">
         <v>54</v>
       </c>
@@ -14805,7 +14805,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11">
         <v>56</v>
       </c>
@@ -14855,7 +14855,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="13">
         <v>58</v>
       </c>
@@ -14905,7 +14905,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="13">
         <v>60</v>
       </c>
@@ -14955,7 +14955,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="15">
         <v>62</v>
       </c>
@@ -15005,7 +15005,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:16" s="1" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
@@ -15027,9 +15027,9 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="26" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Probe card HPK 6in</v>
@@ -15050,7 +15050,7 @@
       <c r="O1" s="27"/>
       <c r="P1" s="28"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -15068,7 +15068,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -15086,7 +15086,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
@@ -15104,7 +15104,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -15122,7 +15122,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
@@ -15140,7 +15140,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
@@ -15159,7 +15159,7 @@
       <c r="P7" s="5"/>
       <c r="U7" s="8"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
@@ -15177,7 +15177,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -15195,7 +15195,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -15213,7 +15213,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -15232,7 +15232,7 @@
       <c r="P11" s="5"/>
       <c r="U11" s="8"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -15251,7 +15251,7 @@
       <c r="P12" s="5"/>
       <c r="U12" s="8"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
@@ -15269,7 +15269,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
@@ -15287,7 +15287,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
@@ -15305,7 +15305,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
@@ -15324,7 +15324,7 @@
       <c r="P16" s="5"/>
       <c r="U16" s="8"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="6"/>
@@ -15342,7 +15342,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -15360,7 +15360,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="13"/>
@@ -15378,7 +15378,7 @@
       <c r="O19" s="13"/>
       <c r="P19" s="14"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="13"/>
@@ -15396,7 +15396,7 @@
       <c r="O20" s="13"/>
       <c r="P20" s="14"/>
     </row>
-    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="15"/>
@@ -15414,7 +15414,7 @@
       <c r="O21" s="15"/>
       <c r="P21" s="16"/>
     </row>
-    <row r="22" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
         <v>136</v>
       </c>
@@ -15444,7 +15444,7 @@
       <c r="O22" s="11"/>
       <c r="P22" s="12"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23" s="13">
         <v>137</v>
       </c>
@@ -15474,7 +15474,7 @@
       <c r="O23" s="13"/>
       <c r="P23" s="14"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" s="13">
         <v>138</v>
       </c>
@@ -15505,7 +15505,7 @@
       <c r="P24" s="14"/>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="15">
         <v>139</v>
       </c>
@@ -15536,7 +15536,7 @@
       <c r="P25" s="16"/>
       <c r="U25" s="10"/>
     </row>
-    <row r="26" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="11">
@@ -15583,7 +15583,7 @@
       </c>
       <c r="U26" s="10"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="13">
@@ -15629,7 +15629,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="13">
@@ -15675,7 +15675,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="15">
@@ -15721,7 +15721,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11">
         <v>16</v>
       </c>
@@ -15771,7 +15771,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" s="13">
         <v>27</v>
       </c>
@@ -15821,7 +15821,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32" s="13">
         <v>40</v>
       </c>
@@ -15871,7 +15871,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="15">
         <v>63</v>
       </c>
@@ -15921,35 +15921,35 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="45" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
     </row>
-    <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
@@ -15973,9 +15973,9 @@
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="26" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Probe card HPK 6in 256cells</v>
@@ -15996,7 +15996,7 @@
       <c r="O1" s="27"/>
       <c r="P1" s="28"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>241</v>
       </c>
@@ -16016,7 +16016,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>242</v>
       </c>
@@ -16036,7 +16036,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>243</v>
       </c>
@@ -16056,7 +16056,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="6">
         <v>244</v>
       </c>
@@ -16076,7 +16076,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>245</v>
       </c>
@@ -16096,7 +16096,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>246</v>
       </c>
@@ -16116,7 +16116,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>247</v>
       </c>
@@ -16136,7 +16136,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="7">
         <v>248</v>
       </c>
@@ -16156,7 +16156,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -16174,7 +16174,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -16192,7 +16192,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -16210,7 +16210,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
@@ -16228,7 +16228,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
@@ -16244,7 +16244,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
@@ -16260,7 +16260,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
@@ -16276,7 +16276,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="6"/>
@@ -16292,7 +16292,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2">
@@ -16338,7 +16338,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="13">
@@ -16382,7 +16382,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="13">
@@ -16428,7 +16428,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="15">
@@ -16474,7 +16474,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
         <v>219</v>
       </c>
@@ -16522,7 +16522,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="13">
         <v>142</v>
       </c>
@@ -16568,7 +16568,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="13">
@@ -16614,7 +16614,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="15">
@@ -16660,7 +16660,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A26" s="11">
         <v>227</v>
       </c>
@@ -16710,7 +16710,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" s="13">
         <v>203</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" s="13">
         <v>225</v>
       </c>
@@ -16810,7 +16810,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="15">
         <v>232</v>
       </c>
@@ -16860,7 +16860,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11">
         <v>216</v>
       </c>
@@ -16910,7 +16910,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" s="13">
         <v>215</v>
       </c>
@@ -16960,7 +16960,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" s="13">
         <v>188</v>
       </c>
@@ -17010,7 +17010,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="15">
         <v>157</v>
       </c>
@@ -17060,18 +17060,19 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
   </mergeCells>
@@ -17093,9 +17094,9 @@
       <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="26" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Probe card HPK 8in</v>
@@ -17116,7 +17117,7 @@
       <c r="O1" s="27"/>
       <c r="P1" s="28"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="11">
         <v>273</v>
       </c>
@@ -17136,7 +17137,7 @@
       <c r="O2" s="11"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="13">
         <v>274</v>
       </c>
@@ -17156,7 +17157,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="13">
         <v>275</v>
       </c>
@@ -17176,7 +17177,7 @@
       <c r="O4" s="13"/>
       <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="15">
         <v>276</v>
       </c>
@@ -17196,7 +17197,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A6" s="11">
         <v>277</v>
       </c>
@@ -17216,7 +17217,7 @@
       <c r="O6" s="11"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="13">
         <v>278</v>
       </c>
@@ -17236,7 +17237,7 @@
       <c r="O7" s="13"/>
       <c r="P7" s="14"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="13">
         <v>279</v>
       </c>
@@ -17256,7 +17257,7 @@
       <c r="O8" s="13"/>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="15">
         <v>280</v>
       </c>
@@ -17276,7 +17277,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="11"/>
@@ -17294,7 +17295,7 @@
       <c r="O10" s="11"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="13"/>
@@ -17312,7 +17313,7 @@
       <c r="O11" s="13"/>
       <c r="P11" s="14"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="13"/>
@@ -17330,7 +17331,7 @@
       <c r="O12" s="13"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="15"/>
@@ -17348,7 +17349,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
       <c r="E14" s="11"/>
@@ -17372,7 +17373,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
       <c r="E15" s="13"/>
@@ -17396,7 +17397,7 @@
       <c r="O15" s="13"/>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
       <c r="E16" s="13"/>
@@ -17420,7 +17421,7 @@
       <c r="O16" s="13"/>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
       <c r="E17" s="15"/>
@@ -17444,7 +17445,7 @@
       <c r="O17" s="15"/>
       <c r="P17" s="16"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A18" s="11">
         <v>268</v>
       </c>
@@ -17494,7 +17495,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="13">
         <v>142</v>
       </c>
@@ -17544,7 +17545,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="13">
         <v>143</v>
       </c>
@@ -17594,7 +17595,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="15">
         <v>108</v>
       </c>
@@ -17644,7 +17645,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
         <v>74</v>
       </c>
@@ -17694,7 +17695,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="13">
         <v>125</v>
       </c>
@@ -17744,7 +17745,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="13">
         <v>160</v>
       </c>
@@ -17794,7 +17795,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="15">
         <v>222</v>
       </c>
@@ -17844,7 +17845,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A26" s="11">
         <v>177</v>
       </c>
@@ -17894,7 +17895,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" s="13">
         <v>161</v>
       </c>
@@ -17944,7 +17945,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" s="13">
         <v>110</v>
       </c>
@@ -17994,7 +17995,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="15">
         <v>91</v>
       </c>
@@ -18044,7 +18045,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11">
         <v>92</v>
       </c>
@@ -18094,7 +18095,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" s="13">
         <v>76</v>
       </c>
@@ -18144,7 +18145,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" s="13">
         <v>162</v>
       </c>
@@ -18194,7 +18195,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="15">
         <v>20</v>
       </c>
@@ -18244,13 +18245,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -18272,12 +18273,12 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="26" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Probe card IFX 8in</v>
@@ -18298,7 +18299,7 @@
       <c r="O1" s="27"/>
       <c r="P1" s="28"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="11">
         <v>239</v>
       </c>
@@ -18318,7 +18319,7 @@
       <c r="O2" s="11"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="13">
         <v>240</v>
       </c>
@@ -18338,7 +18339,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="13">
         <v>241</v>
       </c>
@@ -18358,7 +18359,7 @@
       <c r="O4" s="13"/>
       <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="15">
         <v>242</v>
       </c>
@@ -18378,7 +18379,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A6" s="11">
         <v>243</v>
       </c>
@@ -18398,7 +18399,7 @@
       <c r="O6" s="11"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="13">
         <v>244</v>
       </c>
@@ -18418,7 +18419,7 @@
       <c r="O7" s="13"/>
       <c r="P7" s="14"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="13">
         <v>245</v>
       </c>
@@ -18438,7 +18439,7 @@
       <c r="O8" s="13"/>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="15">
         <v>246</v>
       </c>
@@ -18458,7 +18459,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="11"/>
@@ -18476,7 +18477,7 @@
       <c r="O10" s="11"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="13"/>
@@ -18494,7 +18495,7 @@
       <c r="O11" s="13"/>
       <c r="P11" s="14"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="13"/>
@@ -18512,7 +18513,7 @@
       <c r="O12" s="13"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="15"/>
@@ -18530,7 +18531,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="11"/>
@@ -18548,7 +18549,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="13"/>
@@ -18566,7 +18567,7 @@
       <c r="O15" s="13"/>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="13"/>
@@ -18584,7 +18585,7 @@
       <c r="O16" s="13"/>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="15"/>
@@ -18602,7 +18603,7 @@
       <c r="O17" s="15"/>
       <c r="P17" s="16"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C18" s="11">
         <v>81</v>
       </c>
@@ -18646,7 +18647,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="C19" s="13">
         <v>174</v>
       </c>
@@ -18690,7 +18691,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="C20" s="13">
         <v>143</v>
       </c>
@@ -18734,7 +18735,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C21" s="15">
         <v>189</v>
       </c>
@@ -18778,7 +18779,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="11">
@@ -18824,7 +18825,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="13">
@@ -18870,7 +18871,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="13">
@@ -18916,7 +18917,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="15">
@@ -18962,7 +18963,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="11">
@@ -19008,7 +19009,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" s="13">
         <v>111</v>
       </c>
@@ -19058,7 +19059,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" s="13">
         <v>126</v>
       </c>
@@ -19108,7 +19109,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="15">
         <v>142</v>
       </c>
@@ -19158,7 +19159,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11">
         <v>158</v>
       </c>
@@ -19208,7 +19209,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" s="13">
         <v>157</v>
       </c>
@@ -19258,7 +19259,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" s="13">
         <v>173</v>
       </c>
@@ -19308,7 +19309,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="15">
         <v>188</v>
       </c>
@@ -19358,13 +19359,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>4</v>
       </c>

--- a/maps/SwitchBoardMapping.xlsx
+++ b/maps/SwitchBoardMapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cern.ch\dfs\Users\e\esicking\Desktop\Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esicking\ProbecardNew\HGCAL_sensor_tests\maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Probe card HPK 6in 256cells" sheetId="6" r:id="rId4"/>
     <sheet name="Probe card HPK 8in" sheetId="4" r:id="rId5"/>
     <sheet name="Probe card IFX 8in" sheetId="5" r:id="rId6"/>
-    <sheet name="Probe card 8in 199cells" sheetId="7" r:id="rId7"/>
+    <sheet name="Probe card 8in 198cells" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -59,7 +59,7 @@
     <t>/eos/user/h/hgsensor/HGCAL test results/Design/Probecard/HPK 6in 128ch/EDA-03517-V1-0_sch.pdf</t>
   </si>
   <si>
-    <t>Probe card 8in 199cells</t>
+    <t>Probe card 8in 198cells</t>
   </si>
 </sst>
 </file>
@@ -423,15 +423,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -449,6 +440,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -849,7 +849,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F26" sqref="F26"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,27 +885,27 @@
     </row>
     <row r="2" spans="1:10" s="19" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24">
-        <f>SUMPRODUCT(NOT(ISBLANK(A$3:A$1000))*1)-COUNTIF(A$3:A$1000,"=#VALUE!")</f>
+        <f t="shared" ref="A2:F2" si="0">SUMPRODUCT(NOT(ISBLANK(A$3:A$1000))*1)-COUNTIF(A$3:A$1000,"=#VALUE!")</f>
         <v>599</v>
       </c>
       <c r="B2" s="19">
-        <f ca="1">SUMPRODUCT(NOT(ISBLANK(B$3:B$1000))*1)-COUNTIF(B$3:B$1000,"=#VALUE!")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>143</v>
       </c>
       <c r="C2" s="19">
-        <f ca="1">SUMPRODUCT(NOT(ISBLANK(C$3:C$1000))*1)-COUNTIF(C$3:C$1000,"=#VALUE!")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>280</v>
       </c>
       <c r="D2" s="19">
-        <f ca="1">SUMPRODUCT(NOT(ISBLANK(D$3:D$1000))*1)-COUNTIF(D$3:D$1000,"=#VALUE!")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>246</v>
       </c>
       <c r="E2" s="19">
-        <f ca="1">SUMPRODUCT(NOT(ISBLANK(E$3:E$1000))*1)-COUNTIF(E$3:E$1000,"=#VALUE!")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>248</v>
       </c>
       <c r="F2" s="19">
-        <f ca="1">SUMPRODUCT(NOT(ISBLANK(F$3:F$1000))*1)-COUNTIF(F$3:F$1000,"=#VALUE!")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>207</v>
       </c>
     </row>
@@ -15918,24 +15918,24 @@
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="28"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -17562,25 +17562,25 @@
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="str">
+      <c r="A1" s="37" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Probe card HPK 6in</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="28"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -18508,25 +18508,25 @@
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="str">
+      <c r="A1" s="37" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Probe card HPK 6in 256cells</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="28"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -19629,25 +19629,25 @@
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="str">
+      <c r="A1" s="37" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Probe card HPK 8in</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="28"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
@@ -20811,25 +20811,25 @@
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="str">
+      <c r="A1" s="37" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Probe card IFX 8in</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="28"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
@@ -21919,31 +21919,31 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="str">
+      <c r="A1" s="37" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>Probe card 8in 199cells</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="28"/>
+        <v>Probe card 8in 198cells</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
@@ -22242,14 +22242,14 @@
       <c r="P17" s="16"/>
     </row>
     <row r="18" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="12"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="11"/>
       <c r="J18" s="12"/>
       <c r="K18" s="11"/>
@@ -22260,9 +22260,9 @@
       <c r="P18" s="12"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="30"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="14"/>
       <c r="E19" s="13"/>
       <c r="F19" s="14"/>
@@ -22286,9 +22286,9 @@
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="30"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="14"/>
       <c r="E20" s="13"/>
       <c r="F20" s="14"/>
@@ -22312,9 +22312,9 @@
       <c r="P20" s="14"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="31"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="16"/>
       <c r="E21" s="15"/>
       <c r="F21" s="16"/>
